--- a/NOW.xlsx
+++ b/NOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4CF28C-BB4F-4625-B44F-A0A1D6EAFCF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A918F8EB-3C1B-4C1D-BA53-DE5B2A22B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="1875" windowWidth="18810" windowHeight="13215" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
+    <workbookView xWindow="15585" yWindow="0" windowWidth="28815" windowHeight="21705" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
   <si>
     <t>Price</t>
   </si>
@@ -333,13 +333,80 @@
   </si>
   <si>
     <t>cRPO</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>Terminal Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FY26</t>
+  </si>
+  <si>
+    <t>FY27</t>
+  </si>
+  <si>
+    <t>FY28</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>FY30</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -368,6 +435,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -377,7 +455,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -385,12 +463,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -412,10 +508,27 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,14 +548,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -458,8 +571,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6962775" y="28575"/>
-          <a:ext cx="0" cy="10963275"/>
+          <a:off x="6943725" y="190500"/>
+          <a:ext cx="0" cy="12258675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -798,7 +911,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C29079-183A-4E00-8AC0-8BABADD9CBE7}">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -821,10 +936,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>200</v>
+        <v>202.8</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -836,7 +951,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>88000</v>
+        <v>89232</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -847,11 +962,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>2252+1762+1484</f>
-        <v>5498</v>
+        <v>6654</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -859,11 +973,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <f>88+1484</f>
-        <v>1572</v>
+        <v>6005</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -872,7 +985,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>84074</v>
+        <v>88583</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -971,28 +1084,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143D2949-B187-4CCE-8902-FF8193720176}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:CM71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="3" max="12" width="9.140625" style="3"/>
+    <col min="13" max="14" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K1" s="11">
+        <v>44651</v>
+      </c>
+      <c r="L1" s="11">
+        <v>44742</v>
+      </c>
+      <c r="M1" s="11">
+        <v>44834</v>
+      </c>
+      <c r="N1" s="11">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1159,48 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
@@ -1041,17 +1211,327 @@
       <c r="G3" s="5">
         <v>883</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="H3" s="5">
+        <v>888</v>
+      </c>
+      <c r="I3" s="5">
+        <v>960</v>
+      </c>
+      <c r="J3" s="5">
+        <f>3752-SUM(G3:I3)</f>
+        <v>1021</v>
+      </c>
       <c r="K3" s="5">
         <v>1116</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="2">
+        <v>1139</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1209</v>
+      </c>
+      <c r="N3" s="5">
+        <f>4723-SUM(K3:M3)</f>
+        <v>1259</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3450</v>
+      </c>
+      <c r="R3" s="2">
+        <v>4519</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5896</v>
+      </c>
+      <c r="T3" s="2">
+        <v>7245</v>
+      </c>
+      <c r="U3" s="2">
+        <f>T3*(1+$R$30)</f>
+        <v>8766.4499999999989</v>
+      </c>
+      <c r="V3" s="2">
+        <f>U3*(1+$R$30)</f>
+        <v>10607.404499999999</v>
+      </c>
+      <c r="W3" s="2">
+        <f>V3*(1+$R$30)</f>
+        <v>12834.959444999999</v>
+      </c>
+      <c r="X3" s="2">
+        <f>W3*(1+$R$30)</f>
+        <v>15530.300928449999</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>X3*(1+$R$31)</f>
+        <v>15685.603937734499</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>Y3*(1+$R$31)</f>
+        <v>15842.459977111845</v>
+      </c>
+      <c r="AA3" s="2">
+        <f t="shared" ref="AA3:CL3" si="0">Z3*(1+$R$31)</f>
+        <v>16000.884576882963</v>
+      </c>
+      <c r="AB3" s="2">
+        <f t="shared" si="0"/>
+        <v>16160.893422651792</v>
+      </c>
+      <c r="AC3" s="2">
+        <f t="shared" si="0"/>
+        <v>16322.502356878311</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="0"/>
+        <v>16485.727380447093</v>
+      </c>
+      <c r="AE3" s="2">
+        <f t="shared" si="0"/>
+        <v>16650.584654251565</v>
+      </c>
+      <c r="AF3" s="2">
+        <f t="shared" si="0"/>
+        <v>16817.090500794082</v>
+      </c>
+      <c r="AG3" s="2">
+        <f t="shared" si="0"/>
+        <v>16985.261405802023</v>
+      </c>
+      <c r="AH3" s="2">
+        <f t="shared" si="0"/>
+        <v>17155.114019860044</v>
+      </c>
+      <c r="AI3" s="2">
+        <f t="shared" si="0"/>
+        <v>17326.665160058645</v>
+      </c>
+      <c r="AJ3" s="2">
+        <f t="shared" si="0"/>
+        <v>17499.931811659233</v>
+      </c>
+      <c r="AK3" s="2">
+        <f t="shared" si="0"/>
+        <v>17674.931129775825</v>
+      </c>
+      <c r="AL3" s="2">
+        <f t="shared" si="0"/>
+        <v>17851.680441073582</v>
+      </c>
+      <c r="AM3" s="2">
+        <f t="shared" si="0"/>
+        <v>18030.19724548432</v>
+      </c>
+      <c r="AN3" s="2">
+        <f t="shared" si="0"/>
+        <v>18210.499217939163</v>
+      </c>
+      <c r="AO3" s="2">
+        <f t="shared" si="0"/>
+        <v>18392.604210118556</v>
+      </c>
+      <c r="AP3" s="2">
+        <f t="shared" si="0"/>
+        <v>18576.530252219742</v>
+      </c>
+      <c r="AQ3" s="2">
+        <f t="shared" si="0"/>
+        <v>18762.295554741941</v>
+      </c>
+      <c r="AR3" s="2">
+        <f t="shared" si="0"/>
+        <v>18949.918510289361</v>
+      </c>
+      <c r="AS3" s="2">
+        <f t="shared" si="0"/>
+        <v>19139.417695392254</v>
+      </c>
+      <c r="AT3" s="2">
+        <f t="shared" si="0"/>
+        <v>19330.811872346178</v>
+      </c>
+      <c r="AU3" s="2">
+        <f t="shared" si="0"/>
+        <v>19524.119991069638</v>
+      </c>
+      <c r="AV3" s="2">
+        <f t="shared" si="0"/>
+        <v>19719.361190980333</v>
+      </c>
+      <c r="AW3" s="2">
+        <f t="shared" si="0"/>
+        <v>19916.554802890136</v>
+      </c>
+      <c r="AX3" s="2">
+        <f t="shared" si="0"/>
+        <v>20115.720350919037</v>
+      </c>
+      <c r="AY3" s="2">
+        <f t="shared" si="0"/>
+        <v>20316.877554428229</v>
+      </c>
+      <c r="AZ3" s="2">
+        <f t="shared" si="0"/>
+        <v>20520.046329972512</v>
+      </c>
+      <c r="BA3" s="2">
+        <f t="shared" si="0"/>
+        <v>20725.246793272239</v>
+      </c>
+      <c r="BB3" s="2">
+        <f t="shared" si="0"/>
+        <v>20932.499261204961</v>
+      </c>
+      <c r="BC3" s="2">
+        <f t="shared" si="0"/>
+        <v>21141.824253817013</v>
+      </c>
+      <c r="BD3" s="2">
+        <f t="shared" si="0"/>
+        <v>21353.242496355182</v>
+      </c>
+      <c r="BE3" s="2">
+        <f t="shared" si="0"/>
+        <v>21566.774921318734</v>
+      </c>
+      <c r="BF3" s="2">
+        <f t="shared" si="0"/>
+        <v>21782.44267053192</v>
+      </c>
+      <c r="BG3" s="2">
+        <f t="shared" si="0"/>
+        <v>22000.26709723724</v>
+      </c>
+      <c r="BH3" s="2">
+        <f t="shared" si="0"/>
+        <v>22220.269768209611</v>
+      </c>
+      <c r="BI3" s="2">
+        <f t="shared" si="0"/>
+        <v>22442.472465891708</v>
+      </c>
+      <c r="BJ3" s="2">
+        <f t="shared" si="0"/>
+        <v>22666.897190550626</v>
+      </c>
+      <c r="BK3" s="2">
+        <f t="shared" si="0"/>
+        <v>22893.566162456133</v>
+      </c>
+      <c r="BL3" s="2">
+        <f t="shared" si="0"/>
+        <v>23122.501824080693</v>
+      </c>
+      <c r="BM3" s="2">
+        <f t="shared" si="0"/>
+        <v>23353.726842321499</v>
+      </c>
+      <c r="BN3" s="2">
+        <f t="shared" si="0"/>
+        <v>23587.264110744713</v>
+      </c>
+      <c r="BO3" s="2">
+        <f t="shared" si="0"/>
+        <v>23823.136751852158</v>
+      </c>
+      <c r="BP3" s="2">
+        <f t="shared" si="0"/>
+        <v>24061.36811937068</v>
+      </c>
+      <c r="BQ3" s="2">
+        <f t="shared" si="0"/>
+        <v>24301.981800564387</v>
+      </c>
+      <c r="BR3" s="2">
+        <f t="shared" si="0"/>
+        <v>24545.00161857003</v>
+      </c>
+      <c r="BS3" s="2">
+        <f t="shared" si="0"/>
+        <v>24790.451634755729</v>
+      </c>
+      <c r="BT3" s="2">
+        <f t="shared" si="0"/>
+        <v>25038.356151103286</v>
+      </c>
+      <c r="BU3" s="2">
+        <f t="shared" si="0"/>
+        <v>25288.739712614319</v>
+      </c>
+      <c r="BV3" s="2">
+        <f t="shared" si="0"/>
+        <v>25541.627109740461</v>
+      </c>
+      <c r="BW3" s="2">
+        <f t="shared" si="0"/>
+        <v>25797.043380837866</v>
+      </c>
+      <c r="BX3" s="2">
+        <f t="shared" si="0"/>
+        <v>26055.013814646245</v>
+      </c>
+      <c r="BY3" s="2">
+        <f t="shared" si="0"/>
+        <v>26315.563952792709</v>
+      </c>
+      <c r="BZ3" s="2">
+        <f t="shared" si="0"/>
+        <v>26578.719592320635</v>
+      </c>
+      <c r="CA3" s="2">
+        <f t="shared" si="0"/>
+        <v>26844.506788243842</v>
+      </c>
+      <c r="CB3" s="2">
+        <f t="shared" si="0"/>
+        <v>27112.951856126281</v>
+      </c>
+      <c r="CC3" s="2">
+        <f t="shared" si="0"/>
+        <v>27384.081374687543</v>
+      </c>
+      <c r="CD3" s="2">
+        <f t="shared" si="0"/>
+        <v>27657.922188434419</v>
+      </c>
+      <c r="CE3" s="2">
+        <f t="shared" si="0"/>
+        <v>27934.501410318764</v>
+      </c>
+      <c r="CF3" s="2">
+        <f t="shared" si="0"/>
+        <v>28213.84642442195</v>
+      </c>
+      <c r="CG3" s="2">
+        <f t="shared" si="0"/>
+        <v>28495.984888666171</v>
+      </c>
+      <c r="CH3" s="2">
+        <f t="shared" si="0"/>
+        <v>28780.944737552833</v>
+      </c>
+      <c r="CI3" s="2">
+        <f t="shared" si="0"/>
+        <v>29068.754184928363</v>
+      </c>
+      <c r="CJ3" s="2">
+        <f t="shared" si="0"/>
+        <v>29359.441726777648</v>
+      </c>
+      <c r="CK3" s="2">
+        <f t="shared" si="0"/>
+        <v>29653.036144045425</v>
+      </c>
+      <c r="CL3" s="2">
+        <f t="shared" si="0"/>
+        <v>29949.56650548588</v>
+      </c>
+      <c r="CM3" s="2">
+        <f>CL3*(1+$R$31)</f>
+        <v>30249.062170540739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1062,17 +1542,31 @@
       <c r="G4" s="5">
         <v>343</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="H4" s="5">
+        <v>378</v>
+      </c>
+      <c r="I4" s="5">
+        <v>401</v>
+      </c>
+      <c r="J4" s="5">
+        <f>1551-SUM(G4:I4)</f>
+        <v>429</v>
+      </c>
       <c r="K4" s="5">
         <v>434</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="5">
+        <v>433</v>
+      </c>
+      <c r="M4" s="5">
+        <v>432</v>
+      </c>
+      <c r="N4" s="5">
+        <f>1778-SUM(K4:M4)</f>
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
@@ -1083,17 +1577,31 @@
       <c r="G5" s="5">
         <v>134</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="H5" s="5">
+        <v>143</v>
+      </c>
+      <c r="I5" s="5">
+        <v>151</v>
+      </c>
+      <c r="J5" s="5">
+        <f>593-SUM(G5:I5)</f>
+        <v>165</v>
+      </c>
       <c r="K5" s="5">
         <v>172</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="5">
+        <v>180</v>
+      </c>
+      <c r="M5" s="5">
+        <v>190</v>
+      </c>
+      <c r="N5" s="5">
+        <f>744-SUM(K5:M5)</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1107,7 +1615,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
@@ -1115,18 +1623,39 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="G7" s="5">
+        <f>K7*1.3</f>
+        <v>7397</v>
+      </c>
+      <c r="H7" s="5">
+        <f>L7/1.21</f>
+        <v>4752.0661157024797</v>
+      </c>
+      <c r="I7" s="5">
+        <f>M7/1.17</f>
+        <v>5066.666666666667</v>
+      </c>
+      <c r="J7" s="5">
+        <f>N7/1.22</f>
+        <v>5622.9508196721308</v>
+      </c>
       <c r="K7" s="5">
         <v>5690</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="5">
+        <f>L8*0.5</f>
+        <v>5750</v>
+      </c>
+      <c r="M7" s="5">
+        <f>M8*0.52</f>
+        <v>5928</v>
+      </c>
+      <c r="N7" s="5">
+        <f>0.49*N8</f>
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="8" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
@@ -1134,18 +1663,36 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="G8" s="5">
+        <f>K8*1.29</f>
+        <v>14835</v>
+      </c>
+      <c r="H8" s="5">
+        <f>L8/1.21</f>
+        <v>9504.1322314049594</v>
+      </c>
+      <c r="I8" s="5">
+        <f>M8/1.18</f>
+        <v>9661.016949152543</v>
+      </c>
+      <c r="J8" s="5">
+        <f>N8/1.22</f>
+        <v>11475.409836065573</v>
+      </c>
       <c r="K8" s="5">
         <v>11500</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="5">
+        <v>11500</v>
+      </c>
+      <c r="M8" s="5">
+        <v>11400</v>
+      </c>
+      <c r="N8" s="5">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
@@ -1156,28 +1703,62 @@
       <c r="G9" s="5">
         <v>1131</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="H9" s="5">
+        <v>1164</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1253</v>
+      </c>
+      <c r="J9" s="5">
+        <f>4882-SUM(G9:I9)</f>
+        <v>1334</v>
+      </c>
       <c r="K9" s="5">
         <v>1440</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L9" s="5">
+        <v>1463</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1534</v>
+      </c>
+      <c r="N9" s="5">
+        <f>6077-SUM(K9:M9)</f>
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G10" s="3">
         <v>162</v>
       </c>
+      <c r="H10" s="3">
+        <v>166</v>
+      </c>
+      <c r="I10" s="3">
+        <v>174</v>
+      </c>
+      <c r="J10" s="3">
+        <f>691-SUM(G10:I10)</f>
+        <v>189</v>
+      </c>
       <c r="K10" s="3">
         <v>191</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>195</v>
+      </c>
+      <c r="M10" s="3">
+        <v>208</v>
+      </c>
+      <c r="N10" s="3">
+        <f>814-SUM(K10:M10)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1189,18 +1770,32 @@
         <f>+G10+G9</f>
         <v>1293</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="5">
+        <v>1330</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1427</v>
+      </c>
+      <c r="J11" s="5">
+        <f>5573-SUM(G11:I11)</f>
+        <v>1523</v>
+      </c>
       <c r="K11" s="5">
         <f>+K10+K9</f>
         <v>1631</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="5">
+        <v>1658</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1742</v>
+      </c>
+      <c r="N11" s="5">
+        <f>6891-SUM(K11:M11)</f>
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="12" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1211,17 +1806,31 @@
       <c r="G12" s="5">
         <v>67</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="H12" s="5">
+        <v>79</v>
+      </c>
+      <c r="I12" s="5">
+        <v>85</v>
+      </c>
+      <c r="J12" s="5">
+        <f>323-SUM(G12:I12)</f>
+        <v>92</v>
+      </c>
       <c r="K12" s="5">
         <v>91</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="5">
+        <v>94</v>
+      </c>
+      <c r="M12" s="5">
+        <v>89</v>
+      </c>
+      <c r="N12" s="5">
+        <f>354-SUM(K12:M12)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:91" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
@@ -1233,18 +1842,343 @@
         <f>+G11+G12</f>
         <v>1360</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="H13" s="8">
+        <v>1409</v>
+      </c>
+      <c r="I13" s="8">
+        <f>SUM(I11:I12)</f>
+        <v>1512</v>
+      </c>
+      <c r="J13" s="8">
+        <f>SUM(J11:J12)</f>
+        <v>1615</v>
+      </c>
       <c r="K13" s="8">
         <f>+K11+K12</f>
         <v>1722</v>
       </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="8">
+        <f>SUM(L11:L12)</f>
+        <v>1752</v>
+      </c>
+      <c r="M13" s="8">
+        <f>SUM(M11:M12)</f>
+        <v>1831</v>
+      </c>
+      <c r="N13" s="8">
+        <f>SUM(N11:N12)</f>
+        <v>1940</v>
+      </c>
+      <c r="O13" s="12">
+        <f>N13*(1+$R$30)</f>
+        <v>2347.4</v>
+      </c>
+      <c r="P13" s="12">
+        <f>O13*(1+$R$30)</f>
+        <v>2840.3539999999998</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" ref="Q13:X13" si="1">P13*(1+$R$30)</f>
+        <v>3436.8283399999996</v>
+      </c>
+      <c r="R13" s="12">
+        <f t="shared" si="1"/>
+        <v>4158.5622913999996</v>
+      </c>
+      <c r="S13" s="12">
+        <f t="shared" si="1"/>
+        <v>5031.8603725939993</v>
+      </c>
+      <c r="T13" s="12">
+        <f t="shared" si="1"/>
+        <v>6088.5510508387388</v>
+      </c>
+      <c r="U13" s="12">
+        <f t="shared" si="1"/>
+        <v>7367.1467715148738</v>
+      </c>
+      <c r="V13" s="12">
+        <f t="shared" si="1"/>
+        <v>8914.2475935329967</v>
+      </c>
+      <c r="W13" s="12">
+        <f t="shared" si="1"/>
+        <v>10786.239588174925</v>
+      </c>
+      <c r="X13" s="12">
+        <f t="shared" si="1"/>
+        <v>13051.349901691659</v>
+      </c>
+      <c r="Y13" s="7">
+        <f>X13*(1+R31)</f>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="Z13" s="7">
+        <f t="shared" ref="Z13:CK13" si="2">Y13*(1+S31)</f>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AA13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AB13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AC13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AD13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AE13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AF13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AG13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AH13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AI13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AJ13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AK13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AL13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AM13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AN13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AO13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AP13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AQ13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AR13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AS13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AT13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AU13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AV13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AW13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AX13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AY13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="AZ13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BA13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BB13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BC13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BD13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BE13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BF13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BG13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BH13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BI13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BJ13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BK13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BL13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BM13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BN13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BO13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BP13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BQ13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BR13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BS13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BT13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BU13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BV13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BW13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BX13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BY13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="BZ13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CA13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CB13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CC13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CD13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CE13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CF13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CG13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CH13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CI13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CJ13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CK13" s="7">
+        <f t="shared" si="2"/>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CL13" s="7">
+        <f t="shared" ref="CL13:CM13" si="3">CK13*(1+CE31)</f>
+        <v>13181.863400708577</v>
+      </c>
+      <c r="CM13" s="7">
+        <f t="shared" si="3"/>
+        <v>13181.863400708577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
@@ -1255,18 +2189,32 @@
       <c r="G14" s="5">
         <v>299</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="H14" s="5">
+        <v>329</v>
+      </c>
+      <c r="I14" s="5">
+        <v>350</v>
+      </c>
+      <c r="J14" s="5">
+        <f>1353-SUM(G14:I14)</f>
+        <v>375</v>
+      </c>
       <c r="K14" s="5">
         <f>275+94</f>
         <v>369</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="5">
+        <v>389</v>
+      </c>
+      <c r="M14" s="5">
+        <v>400</v>
+      </c>
+      <c r="N14" s="5">
+        <f>1573-SUM(K14:M14)</f>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1278,18 +2226,36 @@
         <f>+G13-G14</f>
         <v>1061</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="H15" s="5">
+        <f>+H13-H14</f>
+        <v>1080</v>
+      </c>
+      <c r="I15" s="5">
+        <f>+I13-I14</f>
+        <v>1162</v>
+      </c>
+      <c r="J15" s="5">
+        <f>+J13-J14</f>
+        <v>1240</v>
+      </c>
       <c r="K15" s="5">
         <f>+K13-K14</f>
         <v>1353</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="5">
+        <f>L13-L14</f>
+        <v>1363</v>
+      </c>
+      <c r="M15" s="5">
+        <f>M13-M14</f>
+        <v>1431</v>
+      </c>
+      <c r="N15" s="5">
+        <f>N13-N14</f>
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
@@ -1300,17 +2266,31 @@
       <c r="G16" s="5">
         <v>524</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="H16" s="5">
+        <v>557</v>
+      </c>
+      <c r="I16" s="5">
+        <v>579</v>
+      </c>
+      <c r="J16" s="5">
+        <f>2292-SUM(G16:I16)</f>
+        <v>632</v>
+      </c>
       <c r="K16" s="5">
         <v>673</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="5">
+        <v>722</v>
+      </c>
+      <c r="M16" s="5">
+        <v>697</v>
+      </c>
+      <c r="N16" s="5">
+        <f>2814-SUM(K16:M16)</f>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1321,17 +2301,31 @@
       <c r="G17" s="5">
         <v>314</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="H17" s="5">
+        <v>333</v>
+      </c>
+      <c r="I17" s="5">
+        <v>358</v>
+      </c>
+      <c r="J17" s="5">
+        <f>1397-SUM(G17:I17)</f>
+        <v>392</v>
+      </c>
       <c r="K17" s="5">
         <v>414</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="5">
+        <v>444</v>
+      </c>
+      <c r="M17" s="5">
+        <v>456</v>
+      </c>
+      <c r="N17" s="5">
+        <f>1768-SUM(K17:M17)</f>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1342,17 +2336,31 @@
       <c r="G18" s="5">
         <v>126</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="H18" s="5">
+        <v>139</v>
+      </c>
+      <c r="I18" s="5">
+        <v>151</v>
+      </c>
+      <c r="J18" s="5">
+        <f>597-SUM(G18:I18)</f>
+        <v>181</v>
+      </c>
       <c r="K18" s="5">
         <v>179</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="5">
+        <v>175</v>
+      </c>
+      <c r="M18" s="5">
+        <v>187</v>
+      </c>
+      <c r="N18" s="5">
+        <f>735-SUM(K18:M18)</f>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -1364,18 +2372,36 @@
         <f>SUM(G16:G18)</f>
         <v>964</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="H19" s="5">
+        <f>SUM(H16:H18)</f>
+        <v>1029</v>
+      </c>
+      <c r="I19" s="5">
+        <f>SUM(I16:I18)</f>
+        <v>1088</v>
+      </c>
+      <c r="J19" s="5">
+        <f>SUM(J16:J18)</f>
+        <v>1205</v>
+      </c>
       <c r="K19" s="5">
         <f>SUM(K16:K18)</f>
         <v>1266</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="5">
+        <f>SUM(L16:L18)</f>
+        <v>1341</v>
+      </c>
+      <c r="M19" s="5">
+        <f>SUM(M16:M18)</f>
+        <v>1340</v>
+      </c>
+      <c r="N19" s="5">
+        <f>SUM(N16:N18)</f>
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -1387,18 +2413,36 @@
         <f>G15-G19</f>
         <v>97</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="H20" s="5">
+        <f>H15-H19</f>
+        <v>51</v>
+      </c>
+      <c r="I20" s="5">
+        <f>I15-I19</f>
+        <v>74</v>
+      </c>
+      <c r="J20" s="5">
+        <f>J15-J19</f>
+        <v>35</v>
+      </c>
       <c r="K20" s="5">
         <f>K15-K19</f>
         <v>87</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="5">
+        <f>L15-L19</f>
+        <v>22</v>
+      </c>
+      <c r="M20" s="5">
+        <f>M15-M19</f>
+        <v>91</v>
+      </c>
+      <c r="N20" s="5">
+        <f>N15-N19</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
@@ -1410,18 +2454,36 @@
         <f>-7+9</f>
         <v>2</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="H21" s="5">
+        <f>-7+6</f>
+        <v>-1</v>
+      </c>
+      <c r="I21" s="5">
+        <f>-7+1</f>
+        <v>-6</v>
+      </c>
+      <c r="J21" s="5">
+        <f>-28+20-SUM(G21:I21)</f>
+        <v>-3</v>
+      </c>
       <c r="K21" s="5">
         <f>-6+4</f>
         <v>-2</v>
       </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="5">
+        <f>-6+13</f>
+        <v>7</v>
+      </c>
+      <c r="M21" s="5">
+        <f>-8+19</f>
+        <v>11</v>
+      </c>
+      <c r="N21" s="5">
+        <f>-27+71-SUM(K21:M21)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
@@ -1433,18 +2495,36 @@
         <f>G20+G21</f>
         <v>99</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="H22" s="5">
+        <f>H20+H21</f>
+        <v>50</v>
+      </c>
+      <c r="I22" s="5">
+        <f>I20+I21</f>
+        <v>68</v>
+      </c>
+      <c r="J22" s="5">
+        <f>J20+J21</f>
+        <v>32</v>
+      </c>
       <c r="K22" s="5">
         <f>K20+K21</f>
         <v>85</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="5">
+        <f>L20+L21</f>
+        <v>29</v>
+      </c>
+      <c r="M22" s="5">
+        <f>M20+M21</f>
+        <v>102</v>
+      </c>
+      <c r="N22" s="5">
+        <f>N20+N21</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -1455,17 +2535,31 @@
       <c r="G23" s="5">
         <v>17</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+      <c r="H23" s="5">
+        <v>-9</v>
+      </c>
+      <c r="I23" s="5">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5">
+        <f>19-SUM(G23:I23)</f>
+        <v>6</v>
+      </c>
       <c r="K23" s="5">
         <v>10</v>
       </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="5">
+        <v>9</v>
+      </c>
+      <c r="M23" s="5">
+        <v>22</v>
+      </c>
+      <c r="N23" s="5">
+        <f>74-SUM(K23:M23)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1477,18 +2571,36 @@
         <f>+G22-G23</f>
         <v>82</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+      <c r="H24" s="5">
+        <f>+H22-H23</f>
+        <v>59</v>
+      </c>
+      <c r="I24" s="5">
+        <f>+I22-I23</f>
+        <v>63</v>
+      </c>
+      <c r="J24" s="5">
+        <f>+J22-J23</f>
+        <v>26</v>
+      </c>
       <c r="K24" s="5">
         <f>+K22-K23</f>
         <v>75</v>
       </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L24" s="5">
+        <f>+L22-L23</f>
+        <v>20</v>
+      </c>
+      <c r="M24" s="5">
+        <f>+M22-M23</f>
+        <v>80</v>
+      </c>
+      <c r="N24" s="5">
+        <f>+N22-N23</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -1496,12 +2608,36 @@
         <f>G24/G26</f>
         <v>0.40540273300769275</v>
       </c>
+      <c r="H25" s="4">
+        <f>H24/H26</f>
+        <v>0.29825847382655513</v>
+      </c>
+      <c r="I25" s="4">
+        <f>I24/I26</f>
+        <v>0.31015690000640006</v>
+      </c>
+      <c r="J25" s="4">
+        <f>J24/J26</f>
+        <v>0.12797353900978012</v>
+      </c>
       <c r="K25" s="4">
         <f>K24/K26</f>
         <v>0.36982248520710059</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="4">
+        <f>L24/L26</f>
+        <v>9.8522167487684734E-2</v>
+      </c>
+      <c r="M25" s="4">
+        <f>M24/M26</f>
+        <v>0.39385390973853024</v>
+      </c>
+      <c r="N25" s="4">
+        <f>N24/N26</f>
+        <v>0.73697398481833587</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>1</v>
       </c>
@@ -1512,26 +2648,103 @@
       <c r="G26" s="5">
         <v>202.268</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="H26" s="5">
+        <v>197.815</v>
+      </c>
+      <c r="I26" s="5">
+        <v>203.12299999999999</v>
+      </c>
+      <c r="J26" s="5">
+        <v>203.167</v>
+      </c>
       <c r="K26" s="5">
         <v>202.8</v>
       </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L26" s="5">
+        <v>203</v>
+      </c>
+      <c r="M26" s="5">
+        <v>203.12100000000001</v>
+      </c>
+      <c r="N26" s="5">
+        <v>203.535</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
       <c r="K28" s="9">
         <f>K13/G13-1</f>
         <v>0.26617647058823524</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L28" s="9">
+        <f>L13/H13-1</f>
+        <v>0.24343506032647277</v>
+      </c>
+      <c r="M28" s="9">
+        <f>M13/I13-1</f>
+        <v>0.21097883597883604</v>
+      </c>
+      <c r="N28" s="9">
+        <f>N13/J13-1</f>
+        <v>0.20123839009287936</v>
+      </c>
+      <c r="R28" s="14">
+        <f>(R3-Q3)/Q3</f>
+        <v>0.30985507246376809</v>
+      </c>
+      <c r="S28" s="14">
+        <f>(S3-R3)/R3</f>
+        <v>0.30471343217526003</v>
+      </c>
+      <c r="T28" s="14">
+        <f>(T3-S3)/S3</f>
+        <v>0.22879918588873813</v>
+      </c>
+      <c r="U28" s="13">
+        <f>$R$30</f>
+        <v>0.21</v>
+      </c>
+      <c r="V28" s="13">
+        <f>$R$30</f>
+        <v>0.21</v>
+      </c>
+      <c r="W28" s="13">
+        <f>$R$30</f>
+        <v>0.21</v>
+      </c>
+      <c r="X28" s="13">
+        <f>$R$30</f>
+        <v>0.21</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Q30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="R30" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>3</v>
       </c>
@@ -1539,16 +2752,32 @@
         <f>2252+1762+1484</f>
         <v>5498</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q31" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="R31" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>34</v>
       </c>
       <c r="K32" s="5">
         <v>824</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="Q32" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="R32" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>35</v>
       </c>
@@ -1556,32 +2785,69 @@
         <f>322+655</f>
         <v>977</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="5"/>
+      <c r="Q33" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="R33" s="18">
+        <f>NPV(R32,Q3:CM3)</f>
+        <v>122549.60724778917</v>
+      </c>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="K34" s="5">
         <v>282</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="Q34" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R34" s="19">
+        <f>Main!L3</f>
+        <v>202.8</v>
+      </c>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="K35" s="5">
         <v>798</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="Q35" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="R35" s="21">
+        <f>R33/R34</f>
+        <v>604.28800418041999</v>
+      </c>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="K36" s="5">
         <v>583</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="Q36" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="R36" s="22">
+        <f>(R35-Main!L2)/Main!L2</f>
+        <v>0.37338182768277273</v>
+      </c>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -1589,8 +2855,17 @@
         <f>266+774</f>
         <v>1040</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="Q37" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="R37" s="20">
+        <f>R34*R35</f>
+        <v>122549.60724778919</v>
+      </c>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>31</v>
       </c>
@@ -1598,7 +2873,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>41</v>
       </c>
@@ -1606,7 +2881,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>36</v>
       </c>
@@ -1615,7 +2890,7 @@
         <v>10993</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>44</v>
       </c>
@@ -1623,7 +2898,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>45</v>
       </c>
@@ -1631,7 +2906,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>46</v>
       </c>
@@ -1640,7 +2915,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>39</v>
       </c>
@@ -1649,7 +2924,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>4</v>
       </c>
@@ -1658,7 +2933,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>47</v>
       </c>
@@ -1666,7 +2941,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>43</v>
       </c>
@@ -1835,6 +3110,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A9151361-E246-479F-86B4-617E3B597693}"/>
   </hyperlinks>

--- a/NOW.xlsx
+++ b/NOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A918F8EB-3C1B-4C1D-BA53-DE5B2A22B3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B547DB3E-AB57-4066-AE76-55426F6277F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15585" yWindow="0" windowWidth="28815" windowHeight="21705" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
+    <workbookView xWindow="21180" yWindow="90" windowWidth="19245" windowHeight="20805" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
   <si>
     <t>Price</t>
   </si>
@@ -393,6 +393,33 @@
   </si>
   <si>
     <t>Market Cap</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>If Rev Target is Met</t>
+  </si>
+  <si>
+    <t>Based on Growth %</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>FY23 (Proj)</t>
+  </si>
+  <si>
+    <t>Sub Growth % YOY</t>
+  </si>
+  <si>
+    <t>Sub Growth % QoQ</t>
+  </si>
+  <si>
+    <t>Q124</t>
   </si>
 </sst>
 </file>
@@ -403,10 +430,10 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -443,6 +470,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -486,7 +519,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -511,17 +544,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -555,7 +595,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -605,9 +645,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -645,7 +685,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -751,7 +791,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -893,7 +933,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -911,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C29079-183A-4E00-8AC0-8BABADD9CBE7}">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -925,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>440</v>
+        <v>790.39</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -936,10 +976,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>202.8</v>
+        <v>205.06</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -951,7 +991,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>89232</v>
+        <v>162077.37340000001</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -962,10 +1002,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>6654</v>
+        <v>4880</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -973,10 +1013,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <v>6005</v>
+        <v>2280</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -985,7 +1025,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>88583</v>
+        <v>159477.37340000001</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1084,28 +1124,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143D2949-B187-4CCE-8902-FF8193720176}">
-  <dimension ref="A1:CM71"/>
+  <dimension ref="A1:CR73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S30" sqref="S30"/>
+      <selection pane="bottomRight" activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="3"/>
-    <col min="13" max="14" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" style="3"/>
+    <col min="11" max="13" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="11.140625" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1121,8 +1165,20 @@
       <c r="N1" s="11">
         <v>44926</v>
       </c>
-    </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="O1" s="21">
+        <v>45016</v>
+      </c>
+      <c r="P1" s="21">
+        <v>45107</v>
+      </c>
+      <c r="Q1" s="21">
+        <v>45199</v>
+      </c>
+      <c r="R1" s="21">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1162,45 +1218,60 @@
       <c r="O2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="Q2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
@@ -1234,304 +1305,309 @@
         <f>4723-SUM(K3:M3)</f>
         <v>1259</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="O3" s="2">
+        <v>1344</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V3" s="2">
         <v>3450</v>
       </c>
-      <c r="R3" s="2">
+      <c r="W3" s="2">
         <v>4519</v>
       </c>
-      <c r="S3" s="2">
+      <c r="X3" s="2">
         <v>5896</v>
       </c>
-      <c r="T3" s="2">
+      <c r="Y3" s="2">
         <v>7245</v>
       </c>
-      <c r="U3" s="2">
-        <f>T3*(1+$R$30)</f>
-        <v>8766.4499999999989</v>
-      </c>
-      <c r="V3" s="2">
-        <f>U3*(1+$R$30)</f>
-        <v>10607.404499999999</v>
-      </c>
-      <c r="W3" s="2">
-        <f>V3*(1+$R$30)</f>
-        <v>12834.959444999999</v>
-      </c>
-      <c r="X3" s="2">
-        <f>W3*(1+$R$30)</f>
-        <v>15530.300928449999</v>
-      </c>
-      <c r="Y3" s="2">
-        <f>X3*(1+$R$31)</f>
-        <v>15685.603937734499</v>
-      </c>
       <c r="Z3" s="2">
-        <f>Y3*(1+$R$31)</f>
-        <v>15842.459977111845</v>
+        <v>8972</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" ref="AA3:CL3" si="0">Z3*(1+$R$31)</f>
-        <v>16000.884576882963</v>
+        <f t="shared" ref="Z3:AG3" si="0">Z3*(1+$W$32)</f>
+        <v>10900.980000000001</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" si="0"/>
-        <v>16160.893422651792</v>
-      </c>
-      <c r="AC3" s="2">
+        <v>13244.690700000003</v>
+      </c>
+      <c r="AC3" s="22">
         <f t="shared" si="0"/>
-        <v>16322.502356878311</v>
+        <v>16092.299200500005</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" si="0"/>
-        <v>16485.727380447093</v>
+        <v>19552.143528607507</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>16650.584654251565</v>
+        <v>23755.854387258121</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>16817.090500794082</v>
+        <v>28863.363080518619</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>16985.261405802023</v>
+        <v>35068.986142830123</v>
       </c>
       <c r="AH3" s="2">
-        <f t="shared" si="0"/>
-        <v>17155.114019860044</v>
+        <f t="shared" ref="AH3:BM3" si="1">AG3*(1+$W$33)</f>
+        <v>35419.676004258421</v>
       </c>
       <c r="AI3" s="2">
-        <f t="shared" si="0"/>
-        <v>17326.665160058645</v>
+        <f t="shared" si="1"/>
+        <v>35773.872764301006</v>
       </c>
       <c r="AJ3" s="2">
-        <f t="shared" si="0"/>
-        <v>17499.931811659233</v>
+        <f t="shared" si="1"/>
+        <v>36131.611491944015</v>
       </c>
       <c r="AK3" s="2">
-        <f t="shared" si="0"/>
-        <v>17674.931129775825</v>
+        <f t="shared" si="1"/>
+        <v>36492.927606863457</v>
       </c>
       <c r="AL3" s="2">
-        <f t="shared" si="0"/>
-        <v>17851.680441073582</v>
+        <f t="shared" si="1"/>
+        <v>36857.856882932094</v>
       </c>
       <c r="AM3" s="2">
-        <f t="shared" si="0"/>
-        <v>18030.19724548432</v>
+        <f t="shared" si="1"/>
+        <v>37226.435451761412</v>
       </c>
       <c r="AN3" s="2">
-        <f t="shared" si="0"/>
-        <v>18210.499217939163</v>
+        <f t="shared" si="1"/>
+        <v>37598.69980627903</v>
       </c>
       <c r="AO3" s="2">
-        <f t="shared" si="0"/>
-        <v>18392.604210118556</v>
+        <f t="shared" si="1"/>
+        <v>37974.686804341822</v>
       </c>
       <c r="AP3" s="2">
-        <f t="shared" si="0"/>
-        <v>18576.530252219742</v>
+        <f t="shared" si="1"/>
+        <v>38354.433672385239</v>
       </c>
       <c r="AQ3" s="2">
-        <f t="shared" si="0"/>
-        <v>18762.295554741941</v>
+        <f t="shared" si="1"/>
+        <v>38737.978009109094</v>
       </c>
       <c r="AR3" s="2">
-        <f t="shared" si="0"/>
-        <v>18949.918510289361</v>
+        <f t="shared" si="1"/>
+        <v>39125.357789200185</v>
       </c>
       <c r="AS3" s="2">
-        <f t="shared" si="0"/>
-        <v>19139.417695392254</v>
+        <f t="shared" si="1"/>
+        <v>39516.611367092184</v>
       </c>
       <c r="AT3" s="2">
-        <f t="shared" si="0"/>
-        <v>19330.811872346178</v>
+        <f t="shared" si="1"/>
+        <v>39911.777480763107</v>
       </c>
       <c r="AU3" s="2">
-        <f t="shared" si="0"/>
-        <v>19524.119991069638</v>
+        <f t="shared" si="1"/>
+        <v>40310.895255570736</v>
       </c>
       <c r="AV3" s="2">
-        <f t="shared" si="0"/>
-        <v>19719.361190980333</v>
+        <f t="shared" si="1"/>
+        <v>40714.004208126447</v>
       </c>
       <c r="AW3" s="2">
-        <f t="shared" si="0"/>
-        <v>19916.554802890136</v>
+        <f t="shared" si="1"/>
+        <v>41121.144250207712</v>
       </c>
       <c r="AX3" s="2">
-        <f t="shared" si="0"/>
-        <v>20115.720350919037</v>
+        <f t="shared" si="1"/>
+        <v>41532.355692709789</v>
       </c>
       <c r="AY3" s="2">
-        <f t="shared" si="0"/>
-        <v>20316.877554428229</v>
+        <f t="shared" si="1"/>
+        <v>41947.679249636887</v>
       </c>
       <c r="AZ3" s="2">
-        <f t="shared" si="0"/>
-        <v>20520.046329972512</v>
+        <f t="shared" si="1"/>
+        <v>42367.156042133254</v>
       </c>
       <c r="BA3" s="2">
-        <f t="shared" si="0"/>
-        <v>20725.246793272239</v>
+        <f t="shared" si="1"/>
+        <v>42790.827602554586</v>
       </c>
       <c r="BB3" s="2">
-        <f t="shared" si="0"/>
-        <v>20932.499261204961</v>
+        <f t="shared" si="1"/>
+        <v>43218.735878580133</v>
       </c>
       <c r="BC3" s="2">
-        <f t="shared" si="0"/>
-        <v>21141.824253817013</v>
+        <f t="shared" si="1"/>
+        <v>43650.923237365932</v>
       </c>
       <c r="BD3" s="2">
-        <f t="shared" si="0"/>
-        <v>21353.242496355182</v>
+        <f t="shared" si="1"/>
+        <v>44087.432469739593</v>
       </c>
       <c r="BE3" s="2">
-        <f t="shared" si="0"/>
-        <v>21566.774921318734</v>
+        <f t="shared" si="1"/>
+        <v>44528.30679443699</v>
       </c>
       <c r="BF3" s="2">
-        <f t="shared" si="0"/>
-        <v>21782.44267053192</v>
+        <f t="shared" si="1"/>
+        <v>44973.589862381363</v>
       </c>
       <c r="BG3" s="2">
-        <f t="shared" si="0"/>
-        <v>22000.26709723724</v>
+        <f t="shared" si="1"/>
+        <v>45423.325761005173</v>
       </c>
       <c r="BH3" s="2">
-        <f t="shared" si="0"/>
-        <v>22220.269768209611</v>
+        <f t="shared" si="1"/>
+        <v>45877.559018615226</v>
       </c>
       <c r="BI3" s="2">
-        <f t="shared" si="0"/>
-        <v>22442.472465891708</v>
+        <f t="shared" si="1"/>
+        <v>46336.334608801379</v>
       </c>
       <c r="BJ3" s="2">
-        <f t="shared" si="0"/>
-        <v>22666.897190550626</v>
+        <f t="shared" si="1"/>
+        <v>46799.697954889394</v>
       </c>
       <c r="BK3" s="2">
-        <f t="shared" si="0"/>
-        <v>22893.566162456133</v>
+        <f t="shared" si="1"/>
+        <v>47267.694934438288</v>
       </c>
       <c r="BL3" s="2">
-        <f t="shared" si="0"/>
-        <v>23122.501824080693</v>
+        <f t="shared" si="1"/>
+        <v>47740.371883782675</v>
       </c>
       <c r="BM3" s="2">
-        <f t="shared" si="0"/>
-        <v>23353.726842321499</v>
+        <f t="shared" si="1"/>
+        <v>48217.775602620502</v>
       </c>
       <c r="BN3" s="2">
-        <f t="shared" si="0"/>
-        <v>23587.264110744713</v>
+        <f t="shared" ref="BN3:CR3" si="2">BM3*(1+$W$33)</f>
+        <v>48699.953358646708</v>
       </c>
       <c r="BO3" s="2">
-        <f t="shared" si="0"/>
-        <v>23823.136751852158</v>
+        <f t="shared" si="2"/>
+        <v>49186.952892233174</v>
       </c>
       <c r="BP3" s="2">
-        <f t="shared" si="0"/>
-        <v>24061.36811937068</v>
+        <f t="shared" si="2"/>
+        <v>49678.822421155506</v>
       </c>
       <c r="BQ3" s="2">
-        <f t="shared" si="0"/>
-        <v>24301.981800564387</v>
+        <f t="shared" si="2"/>
+        <v>50175.610645367058</v>
       </c>
       <c r="BR3" s="2">
-        <f t="shared" si="0"/>
-        <v>24545.00161857003</v>
+        <f t="shared" si="2"/>
+        <v>50677.366751820729</v>
       </c>
       <c r="BS3" s="2">
-        <f t="shared" si="0"/>
-        <v>24790.451634755729</v>
+        <f t="shared" si="2"/>
+        <v>51184.140419338939</v>
       </c>
       <c r="BT3" s="2">
-        <f t="shared" si="0"/>
-        <v>25038.356151103286</v>
+        <f t="shared" si="2"/>
+        <v>51695.981823532326</v>
       </c>
       <c r="BU3" s="2">
-        <f t="shared" si="0"/>
-        <v>25288.739712614319</v>
+        <f t="shared" si="2"/>
+        <v>52212.941641767648</v>
       </c>
       <c r="BV3" s="2">
-        <f t="shared" si="0"/>
-        <v>25541.627109740461</v>
+        <f t="shared" si="2"/>
+        <v>52735.071058185327</v>
       </c>
       <c r="BW3" s="2">
-        <f t="shared" si="0"/>
-        <v>25797.043380837866</v>
+        <f t="shared" si="2"/>
+        <v>53262.421768767184</v>
       </c>
       <c r="BX3" s="2">
-        <f t="shared" si="0"/>
-        <v>26055.013814646245</v>
+        <f t="shared" si="2"/>
+        <v>53795.045986454854</v>
       </c>
       <c r="BY3" s="2">
-        <f t="shared" si="0"/>
-        <v>26315.563952792709</v>
+        <f t="shared" si="2"/>
+        <v>54332.996446319405</v>
       </c>
       <c r="BZ3" s="2">
-        <f t="shared" si="0"/>
-        <v>26578.719592320635</v>
+        <f t="shared" si="2"/>
+        <v>54876.326410782596</v>
       </c>
       <c r="CA3" s="2">
-        <f t="shared" si="0"/>
-        <v>26844.506788243842</v>
+        <f t="shared" si="2"/>
+        <v>55425.08967489042</v>
       </c>
       <c r="CB3" s="2">
-        <f t="shared" si="0"/>
-        <v>27112.951856126281</v>
+        <f t="shared" si="2"/>
+        <v>55979.340571639324</v>
       </c>
       <c r="CC3" s="2">
-        <f t="shared" si="0"/>
-        <v>27384.081374687543</v>
+        <f t="shared" si="2"/>
+        <v>56539.133977355719</v>
       </c>
       <c r="CD3" s="2">
-        <f t="shared" si="0"/>
-        <v>27657.922188434419</v>
+        <f t="shared" si="2"/>
+        <v>57104.525317129279</v>
       </c>
       <c r="CE3" s="2">
-        <f t="shared" si="0"/>
-        <v>27934.501410318764</v>
+        <f t="shared" si="2"/>
+        <v>57675.570570300573</v>
       </c>
       <c r="CF3" s="2">
-        <f t="shared" si="0"/>
-        <v>28213.84642442195</v>
+        <f t="shared" si="2"/>
+        <v>58252.32627600358</v>
       </c>
       <c r="CG3" s="2">
-        <f t="shared" si="0"/>
-        <v>28495.984888666171</v>
+        <f t="shared" si="2"/>
+        <v>58834.849538763614</v>
       </c>
       <c r="CH3" s="2">
-        <f t="shared" si="0"/>
-        <v>28780.944737552833</v>
+        <f t="shared" si="2"/>
+        <v>59423.198034151254</v>
       </c>
       <c r="CI3" s="2">
-        <f t="shared" si="0"/>
-        <v>29068.754184928363</v>
+        <f t="shared" si="2"/>
+        <v>60017.430014492769</v>
       </c>
       <c r="CJ3" s="2">
-        <f t="shared" si="0"/>
-        <v>29359.441726777648</v>
+        <f t="shared" si="2"/>
+        <v>60617.604314637698</v>
       </c>
       <c r="CK3" s="2">
-        <f t="shared" si="0"/>
-        <v>29653.036144045425</v>
+        <f t="shared" si="2"/>
+        <v>61223.780357784075</v>
       </c>
       <c r="CL3" s="2">
-        <f t="shared" si="0"/>
-        <v>29949.56650548588</v>
+        <f t="shared" si="2"/>
+        <v>61836.018161361913</v>
       </c>
       <c r="CM3" s="2">
-        <f>CL3*(1+$R$31)</f>
-        <v>30249.062170540739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>62454.378342975535</v>
+      </c>
+      <c r="CN3" s="2">
+        <f t="shared" si="2"/>
+        <v>63078.92212640529</v>
+      </c>
+      <c r="CO3" s="2">
+        <f t="shared" si="2"/>
+        <v>63709.711347669341</v>
+      </c>
+      <c r="CP3" s="2">
+        <f t="shared" si="2"/>
+        <v>64346.808461146036</v>
+      </c>
+      <c r="CQ3" s="2">
+        <f t="shared" si="2"/>
+        <v>64990.276545757501</v>
+      </c>
+      <c r="CR3" s="2">
+        <f t="shared" si="2"/>
+        <v>65640.179311215077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1565,8 +1641,309 @@
         <f>1778-SUM(K4:M4)</f>
         <v>479</v>
       </c>
-    </row>
-    <row r="5" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O4" s="2">
+        <v>532</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3450</v>
+      </c>
+      <c r="W4" s="2">
+        <v>4519</v>
+      </c>
+      <c r="X4" s="2">
+        <v>5896</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>7245</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>8812</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>Z4*(1+0.22)</f>
+        <v>10750.64</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>AA4*(1+0.22)</f>
+        <v>13115.780799999999</v>
+      </c>
+      <c r="AC4" s="7">
+        <f>AB4*(1+0.22)</f>
+        <v>16001.252575999997</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>AC4*(1+0.15)</f>
+        <v>18401.440462399994</v>
+      </c>
+      <c r="AE4" s="2">
+        <f>AD4*(1+0.15)</f>
+        <v>21161.656531759993</v>
+      </c>
+      <c r="AF4" s="2">
+        <f>AE4*(1+0.15)</f>
+        <v>24335.905011523988</v>
+      </c>
+      <c r="AG4" s="2">
+        <f>AF4*(1+0.15)</f>
+        <v>27986.290763252586</v>
+      </c>
+      <c r="AH4" s="2">
+        <f t="shared" ref="AH4:BM4" si="3">AG4*(1+$W$33)</f>
+        <v>28266.153670885113</v>
+      </c>
+      <c r="AI4" s="2">
+        <f t="shared" si="3"/>
+        <v>28548.815207593965</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f t="shared" si="3"/>
+        <v>28834.303359669906</v>
+      </c>
+      <c r="AK4" s="2">
+        <f t="shared" si="3"/>
+        <v>29122.646393266605</v>
+      </c>
+      <c r="AL4" s="2">
+        <f t="shared" si="3"/>
+        <v>29413.872857199272</v>
+      </c>
+      <c r="AM4" s="2">
+        <f t="shared" si="3"/>
+        <v>29708.011585771266</v>
+      </c>
+      <c r="AN4" s="2">
+        <f t="shared" si="3"/>
+        <v>30005.091701628979</v>
+      </c>
+      <c r="AO4" s="2">
+        <f t="shared" si="3"/>
+        <v>30305.14261864527</v>
+      </c>
+      <c r="AP4" s="2">
+        <f t="shared" si="3"/>
+        <v>30608.194044831722</v>
+      </c>
+      <c r="AQ4" s="2">
+        <f t="shared" si="3"/>
+        <v>30914.275985280041</v>
+      </c>
+      <c r="AR4" s="2">
+        <f t="shared" si="3"/>
+        <v>31223.41874513284</v>
+      </c>
+      <c r="AS4" s="2">
+        <f t="shared" si="3"/>
+        <v>31535.652932584169</v>
+      </c>
+      <c r="AT4" s="2">
+        <f t="shared" si="3"/>
+        <v>31851.009461910013</v>
+      </c>
+      <c r="AU4" s="2">
+        <f t="shared" si="3"/>
+        <v>32169.519556529114</v>
+      </c>
+      <c r="AV4" s="2">
+        <f t="shared" si="3"/>
+        <v>32491.214752094405</v>
+      </c>
+      <c r="AW4" s="2">
+        <f t="shared" si="3"/>
+        <v>32816.126899615352</v>
+      </c>
+      <c r="AX4" s="2">
+        <f t="shared" si="3"/>
+        <v>33144.288168611507</v>
+      </c>
+      <c r="AY4" s="2">
+        <f t="shared" si="3"/>
+        <v>33475.731050297625</v>
+      </c>
+      <c r="AZ4" s="2">
+        <f t="shared" si="3"/>
+        <v>33810.488360800598</v>
+      </c>
+      <c r="BA4" s="2">
+        <f t="shared" si="3"/>
+        <v>34148.593244408607</v>
+      </c>
+      <c r="BB4" s="2">
+        <f t="shared" si="3"/>
+        <v>34490.079176852691</v>
+      </c>
+      <c r="BC4" s="2">
+        <f t="shared" si="3"/>
+        <v>34834.979968621221</v>
+      </c>
+      <c r="BD4" s="2">
+        <f t="shared" si="3"/>
+        <v>35183.329768307434</v>
+      </c>
+      <c r="BE4" s="2">
+        <f t="shared" si="3"/>
+        <v>35535.163065990506</v>
+      </c>
+      <c r="BF4" s="2">
+        <f t="shared" si="3"/>
+        <v>35890.514696650411</v>
+      </c>
+      <c r="BG4" s="2">
+        <f t="shared" si="3"/>
+        <v>36249.419843616917</v>
+      </c>
+      <c r="BH4" s="2">
+        <f t="shared" si="3"/>
+        <v>36611.914042053089</v>
+      </c>
+      <c r="BI4" s="2">
+        <f t="shared" si="3"/>
+        <v>36978.03318247362</v>
+      </c>
+      <c r="BJ4" s="2">
+        <f t="shared" si="3"/>
+        <v>37347.813514298359</v>
+      </c>
+      <c r="BK4" s="2">
+        <f t="shared" si="3"/>
+        <v>37721.291649441344</v>
+      </c>
+      <c r="BL4" s="2">
+        <f t="shared" si="3"/>
+        <v>38098.504565935757</v>
+      </c>
+      <c r="BM4" s="2">
+        <f t="shared" si="3"/>
+        <v>38479.489611595112</v>
+      </c>
+      <c r="BN4" s="2">
+        <f t="shared" ref="BN4:CR4" si="4">BM4*(1+$W$33)</f>
+        <v>38864.284507711061</v>
+      </c>
+      <c r="BO4" s="2">
+        <f t="shared" si="4"/>
+        <v>39252.927352788174</v>
+      </c>
+      <c r="BP4" s="2">
+        <f t="shared" si="4"/>
+        <v>39645.45662631606</v>
+      </c>
+      <c r="BQ4" s="2">
+        <f t="shared" si="4"/>
+        <v>40041.911192579224</v>
+      </c>
+      <c r="BR4" s="2">
+        <f t="shared" si="4"/>
+        <v>40442.33030450502</v>
+      </c>
+      <c r="BS4" s="2">
+        <f t="shared" si="4"/>
+        <v>40846.753607550068</v>
+      </c>
+      <c r="BT4" s="2">
+        <f t="shared" si="4"/>
+        <v>41255.221143625567</v>
+      </c>
+      <c r="BU4" s="2">
+        <f t="shared" si="4"/>
+        <v>41667.773355061821</v>
+      </c>
+      <c r="BV4" s="2">
+        <f t="shared" si="4"/>
+        <v>42084.451088612441</v>
+      </c>
+      <c r="BW4" s="2">
+        <f t="shared" si="4"/>
+        <v>42505.295599498568</v>
+      </c>
+      <c r="BX4" s="2">
+        <f t="shared" si="4"/>
+        <v>42930.348555493554</v>
+      </c>
+      <c r="BY4" s="2">
+        <f t="shared" si="4"/>
+        <v>43359.652041048488</v>
+      </c>
+      <c r="BZ4" s="2">
+        <f t="shared" si="4"/>
+        <v>43793.248561458975</v>
+      </c>
+      <c r="CA4" s="2">
+        <f t="shared" si="4"/>
+        <v>44231.181047073565</v>
+      </c>
+      <c r="CB4" s="2">
+        <f t="shared" si="4"/>
+        <v>44673.492857544305</v>
+      </c>
+      <c r="CC4" s="2">
+        <f t="shared" si="4"/>
+        <v>45120.227786119751</v>
+      </c>
+      <c r="CD4" s="2">
+        <f t="shared" si="4"/>
+        <v>45571.430063980952</v>
+      </c>
+      <c r="CE4" s="2">
+        <f t="shared" si="4"/>
+        <v>46027.144364620763</v>
+      </c>
+      <c r="CF4" s="2">
+        <f t="shared" si="4"/>
+        <v>46487.415808266967</v>
+      </c>
+      <c r="CG4" s="2">
+        <f t="shared" si="4"/>
+        <v>46952.289966349636</v>
+      </c>
+      <c r="CH4" s="2">
+        <f t="shared" si="4"/>
+        <v>47421.812866013133</v>
+      </c>
+      <c r="CI4" s="2">
+        <f t="shared" si="4"/>
+        <v>47896.030994673267</v>
+      </c>
+      <c r="CJ4" s="2">
+        <f t="shared" si="4"/>
+        <v>48374.991304620002</v>
+      </c>
+      <c r="CK4" s="2">
+        <f t="shared" si="4"/>
+        <v>48858.741217666204</v>
+      </c>
+      <c r="CL4" s="2">
+        <f t="shared" si="4"/>
+        <v>49347.328629842865</v>
+      </c>
+      <c r="CM4" s="2">
+        <f t="shared" si="4"/>
+        <v>49840.801916141296</v>
+      </c>
+      <c r="CN4" s="2">
+        <f t="shared" si="4"/>
+        <v>50339.209935302708</v>
+      </c>
+      <c r="CO4" s="2">
+        <f t="shared" si="4"/>
+        <v>50842.602034655734</v>
+      </c>
+      <c r="CP4" s="2">
+        <f t="shared" si="4"/>
+        <v>51351.028055002294</v>
+      </c>
+      <c r="CQ4" s="2">
+        <f t="shared" si="4"/>
+        <v>51864.538335552315</v>
+      </c>
+      <c r="CR4" s="2">
+        <f t="shared" si="4"/>
+        <v>52383.183718907836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
@@ -1600,8 +1977,11 @@
         <f>744-SUM(K5:M5)</f>
         <v>202</v>
       </c>
-    </row>
-    <row r="6" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1615,7 +1995,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
@@ -1654,8 +2034,19 @@
         <f>0.49*N8</f>
         <v>6860</v>
       </c>
-    </row>
-    <row r="8" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="2">
+        <f>0.5*O8</f>
+        <v>7000</v>
+      </c>
+      <c r="P7" s="2">
+        <v>7200</v>
+      </c>
+      <c r="S7" s="2">
+        <f>1.24*O7</f>
+        <v>8680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
@@ -1691,8 +2082,14 @@
       <c r="N8" s="5">
         <v>14000</v>
       </c>
-    </row>
-    <row r="9" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="2">
+        <v>14000</v>
+      </c>
+      <c r="P8" s="2">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
@@ -1726,8 +2123,11 @@
         <f>6077-SUM(K9:M9)</f>
         <v>1640</v>
       </c>
-    </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.2">
+      <c r="O9" s="2">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
@@ -1757,8 +2157,20 @@
         <f>814-SUM(K10:M10)</f>
         <v>220</v>
       </c>
-    </row>
-    <row r="11" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>234</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1794,1318 +2206,1697 @@
         <f>6891-SUM(K11:M11)</f>
         <v>1860</v>
       </c>
-    </row>
-    <row r="12" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="2">
+        <v>2024</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2075</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2216</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2365</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2515</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>SUM(O11:R11)</f>
+        <v>8680</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>10575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5">
-        <v>67</v>
-      </c>
-      <c r="H12" s="5">
-        <v>79</v>
-      </c>
-      <c r="I12" s="5">
-        <v>85</v>
-      </c>
-      <c r="J12" s="5">
-        <f>323-SUM(G12:I12)</f>
-        <v>92</v>
-      </c>
-      <c r="K12" s="5">
-        <v>91</v>
-      </c>
-      <c r="L12" s="5">
-        <v>94</v>
-      </c>
-      <c r="M12" s="5">
-        <v>89</v>
-      </c>
-      <c r="N12" s="5">
-        <f>354-SUM(K12:M12)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:91" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8">
-        <f>+G11+G12</f>
-        <v>1360</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1409</v>
-      </c>
-      <c r="I13" s="8">
-        <f>SUM(I11:I12)</f>
-        <v>1512</v>
-      </c>
-      <c r="J13" s="8">
-        <f>SUM(J11:J12)</f>
-        <v>1615</v>
-      </c>
-      <c r="K13" s="8">
-        <f>+K11+K12</f>
-        <v>1722</v>
-      </c>
-      <c r="L13" s="8">
-        <f>SUM(L11:L12)</f>
-        <v>1752</v>
-      </c>
-      <c r="M13" s="8">
-        <f>SUM(M11:M12)</f>
-        <v>1831</v>
-      </c>
-      <c r="N13" s="8">
-        <f>SUM(N11:N12)</f>
-        <v>1940</v>
-      </c>
-      <c r="O13" s="12">
-        <f>N13*(1+$R$30)</f>
-        <v>2347.4</v>
-      </c>
-      <c r="P13" s="12">
-        <f>O13*(1+$R$30)</f>
-        <v>2840.3539999999998</v>
-      </c>
-      <c r="Q13" s="12">
-        <f t="shared" ref="Q13:X13" si="1">P13*(1+$R$30)</f>
-        <v>3436.8283399999996</v>
-      </c>
-      <c r="R13" s="12">
-        <f t="shared" si="1"/>
-        <v>4158.5622913999996</v>
-      </c>
-      <c r="S13" s="12">
-        <f t="shared" si="1"/>
-        <v>5031.8603725939993</v>
-      </c>
-      <c r="T13" s="12">
-        <f t="shared" si="1"/>
-        <v>6088.5510508387388</v>
-      </c>
-      <c r="U13" s="12">
-        <f t="shared" si="1"/>
-        <v>7367.1467715148738</v>
-      </c>
-      <c r="V13" s="12">
-        <f t="shared" si="1"/>
-        <v>8914.2475935329967</v>
-      </c>
-      <c r="W13" s="12">
-        <f t="shared" si="1"/>
-        <v>10786.239588174925</v>
-      </c>
-      <c r="X13" s="12">
-        <f t="shared" si="1"/>
-        <v>13051.349901691659</v>
-      </c>
-      <c r="Y13" s="7">
-        <f>X13*(1+R31)</f>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="Z13" s="7">
-        <f t="shared" ref="Z13:CK13" si="2">Y13*(1+S31)</f>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AA13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AB13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AC13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AD13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AE13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AF13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AG13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AH13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AI13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AJ13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AK13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AL13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AM13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AN13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AO13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AP13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AQ13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AR13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AS13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AT13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AU13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AV13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AW13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AX13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AY13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="AZ13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BA13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BB13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BC13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BD13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BE13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BF13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BG13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BH13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BI13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BJ13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BK13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BL13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BM13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BN13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BO13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BP13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BQ13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BR13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BS13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BT13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BU13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BV13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BW13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BX13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BY13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="BZ13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CA13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CB13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CC13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CD13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CE13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CF13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CG13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CH13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CI13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CJ13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CK13" s="7">
-        <f t="shared" si="2"/>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CL13" s="7">
-        <f t="shared" ref="CL13:CM13" si="3">CK13*(1+CE31)</f>
-        <v>13181.863400708577</v>
-      </c>
-      <c r="CM13" s="7">
-        <f t="shared" si="3"/>
-        <v>13181.863400708577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23">
+        <f t="shared" ref="K12:S12" si="5">(K11-J11)/J11</f>
+        <v>7.091267235718976E-2</v>
+      </c>
+      <c r="L12" s="23">
+        <f t="shared" si="5"/>
+        <v>1.6554261189454321E-2</v>
+      </c>
+      <c r="M12" s="23">
+        <f t="shared" si="5"/>
+        <v>5.066344993968637E-2</v>
+      </c>
+      <c r="N12" s="23">
+        <f t="shared" si="5"/>
+        <v>6.7738231917336397E-2</v>
+      </c>
+      <c r="O12" s="23">
+        <f t="shared" si="5"/>
+        <v>8.8172043010752682E-2</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="5"/>
+        <v>2.5197628458498024E-2</v>
+      </c>
+      <c r="Q12" s="23">
+        <f t="shared" si="5"/>
+        <v>6.7951807228915667E-2</v>
+      </c>
+      <c r="R12" s="23">
+        <f t="shared" si="5"/>
+        <v>6.7238267148014438E-2</v>
+      </c>
+      <c r="S12" s="23">
+        <f t="shared" si="5"/>
+        <v>6.3424947145877375E-2</v>
+      </c>
+      <c r="T12" s="23"/>
+      <c r="V12" s="2">
+        <f>8600-SUM(O15:P15)</f>
+        <v>4353.394166019335</v>
+      </c>
+      <c r="AA12" s="13">
+        <f>(AA11-Z11)/Z11</f>
+        <v>0.21831797235023043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24">
+        <f t="shared" ref="K13:S13" si="6">(K11-G11)/G11</f>
+        <v>0.26140757927300851</v>
+      </c>
+      <c r="L13" s="24">
+        <f t="shared" si="6"/>
+        <v>0.24661654135338346</v>
+      </c>
+      <c r="M13" s="24">
+        <f t="shared" si="6"/>
+        <v>0.22074281709880869</v>
+      </c>
+      <c r="N13" s="24">
+        <f t="shared" si="6"/>
+        <v>0.22127380170715694</v>
+      </c>
+      <c r="O13" s="24">
+        <f t="shared" si="6"/>
+        <v>0.24095646842427959</v>
+      </c>
+      <c r="P13" s="24">
+        <f t="shared" si="6"/>
+        <v>0.25150784077201449</v>
+      </c>
+      <c r="Q13" s="24">
+        <f t="shared" si="6"/>
+        <v>0.27210103329506313</v>
+      </c>
+      <c r="R13" s="24">
+        <f t="shared" si="6"/>
+        <v>0.271505376344086</v>
+      </c>
+      <c r="S13" s="24">
+        <f t="shared" si="6"/>
+        <v>0.2425889328063241</v>
+      </c>
+      <c r="T13" s="25"/>
+      <c r="AA13" s="2">
+        <f>AA11+R14*4</f>
+        <v>10863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="H14" s="5">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="I14" s="5">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="J14" s="5">
-        <f>1353-SUM(G14:I14)</f>
-        <v>375</v>
+        <f>323-SUM(G14:I14)</f>
+        <v>92</v>
       </c>
       <c r="K14" s="5">
-        <f>275+94</f>
-        <v>369</v>
+        <v>91</v>
       </c>
       <c r="L14" s="5">
-        <v>389</v>
+        <v>94</v>
       </c>
       <c r="M14" s="5">
-        <v>400</v>
+        <v>89</v>
       </c>
       <c r="N14" s="5">
-        <f>1573-SUM(K14:M14)</f>
-        <v>415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
-        <f>+G13-G14</f>
-        <v>1061</v>
-      </c>
-      <c r="H15" s="5">
-        <f>+H13-H14</f>
-        <v>1080</v>
-      </c>
-      <c r="I15" s="5">
-        <f>+I13-I14</f>
-        <v>1162</v>
-      </c>
-      <c r="J15" s="5">
-        <f>+J13-J14</f>
-        <v>1240</v>
-      </c>
-      <c r="K15" s="5">
-        <f>+K13-K14</f>
-        <v>1353</v>
-      </c>
-      <c r="L15" s="5">
-        <f>L13-L14</f>
-        <v>1363</v>
-      </c>
-      <c r="M15" s="5">
-        <f>M13-M14</f>
-        <v>1431</v>
-      </c>
-      <c r="N15" s="5">
-        <f>N13-N14</f>
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="16" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>354-SUM(K14:M14)</f>
+        <v>80</v>
+      </c>
+      <c r="O14" s="2">
+        <v>72</v>
+      </c>
+      <c r="P14" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>72</v>
+      </c>
+      <c r="R14" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:96" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
+        <f>+G11+G14</f>
+        <v>1360</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1409</v>
+      </c>
+      <c r="I15" s="8">
+        <f>SUM(I11:I14)</f>
+        <v>1512</v>
+      </c>
+      <c r="J15" s="8">
+        <f>SUM(J11:J14)</f>
+        <v>1615</v>
+      </c>
+      <c r="K15" s="8">
+        <f>+K11+K14</f>
+        <v>1722</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" ref="L15:R15" si="7">SUM(L11:L14)</f>
+        <v>1752.2631708025428</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="7"/>
+        <v>1831.2714062670386</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="7"/>
+        <v>1940.2890120336244</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="7"/>
+        <v>2096.3291285114346</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="7"/>
+        <v>2150.2767054692304</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="7"/>
+        <v>2288.3400528405241</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="7"/>
+        <v>2437.3387436434923</v>
+      </c>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2">
+        <v>3460.4369999999999</v>
+      </c>
+      <c r="W15" s="2">
+        <v>4519.4840000000004</v>
+      </c>
+      <c r="X15" s="2">
+        <f>SUM(G15:J15)</f>
+        <v>5896</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>SUM(K15:N15)</f>
+        <v>7245.8235891032054</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>SUM($O$15:$R$15)</f>
+        <v>8972.284630464681</v>
+      </c>
+      <c r="AA15" s="2">
+        <f>Z15*(1+$W$32)</f>
+        <v>10901.325826014589</v>
+      </c>
+      <c r="AB15" s="2">
+        <f>AA15*(1+$W$32)</f>
+        <v>13245.110878607726</v>
+      </c>
+      <c r="AC15" s="22">
+        <f t="shared" ref="AC15" si="8">AB15*(1+$W$32)</f>
+        <v>16092.809717508388</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" ref="AD15" si="9">AC15*(1+$W$32)</f>
+        <v>19552.763806772691</v>
+      </c>
+      <c r="AE15" s="2">
+        <f t="shared" ref="AE15" si="10">AD15*(1+$W$32)</f>
+        <v>23756.608025228823</v>
+      </c>
+      <c r="AF15" s="2">
+        <f t="shared" ref="AF15" si="11">AE15*(1+$W$32)</f>
+        <v>28864.278750653022</v>
+      </c>
+      <c r="AG15" s="2">
+        <f t="shared" ref="AG15:AI15" si="12">AF15*(1+$W$32)</f>
+        <v>35070.098682043426</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="12"/>
+        <v>42610.169898682769</v>
+      </c>
+      <c r="AI15" s="2">
+        <f t="shared" si="12"/>
+        <v>51771.356426899569</v>
+      </c>
+      <c r="AJ15" s="7">
+        <f t="shared" ref="AJ15:BO15" si="13">AI15*(1+$W$33)</f>
+        <v>52289.069991168566</v>
+      </c>
+      <c r="AK15" s="7">
+        <f t="shared" si="13"/>
+        <v>52811.960691080254</v>
+      </c>
+      <c r="AL15" s="7">
+        <f t="shared" si="13"/>
+        <v>53340.080297991059</v>
+      </c>
+      <c r="AM15" s="7">
+        <f t="shared" si="13"/>
+        <v>53873.481100970967</v>
+      </c>
+      <c r="AN15" s="7">
+        <f t="shared" si="13"/>
+        <v>54412.215911980675</v>
+      </c>
+      <c r="AO15" s="7">
+        <f t="shared" si="13"/>
+        <v>54956.338071100479</v>
+      </c>
+      <c r="AP15" s="7">
+        <f t="shared" si="13"/>
+        <v>55505.901451811485</v>
+      </c>
+      <c r="AQ15" s="7">
+        <f t="shared" si="13"/>
+        <v>56060.960466329598</v>
+      </c>
+      <c r="AR15" s="7">
+        <f t="shared" si="13"/>
+        <v>56621.570070992893</v>
+      </c>
+      <c r="AS15" s="7">
+        <f t="shared" si="13"/>
+        <v>57187.785771702824</v>
+      </c>
+      <c r="AT15" s="7">
+        <f t="shared" si="13"/>
+        <v>57759.663629419854</v>
+      </c>
+      <c r="AU15" s="7">
+        <f t="shared" si="13"/>
+        <v>58337.260265714052</v>
+      </c>
+      <c r="AV15" s="7">
+        <f t="shared" si="13"/>
+        <v>58920.632868371191</v>
+      </c>
+      <c r="AW15" s="7">
+        <f t="shared" si="13"/>
+        <v>59509.839197054906</v>
+      </c>
+      <c r="AX15" s="7">
+        <f t="shared" si="13"/>
+        <v>60104.937589025452</v>
+      </c>
+      <c r="AY15" s="7">
+        <f t="shared" si="13"/>
+        <v>60705.986964915704</v>
+      </c>
+      <c r="AZ15" s="7">
+        <f t="shared" si="13"/>
+        <v>61313.046834564862</v>
+      </c>
+      <c r="BA15" s="7">
+        <f t="shared" si="13"/>
+        <v>61926.17730291051</v>
+      </c>
+      <c r="BB15" s="7">
+        <f t="shared" si="13"/>
+        <v>62545.439075939612</v>
+      </c>
+      <c r="BC15" s="7">
+        <f t="shared" si="13"/>
+        <v>63170.89346669901</v>
+      </c>
+      <c r="BD15" s="7">
+        <f t="shared" si="13"/>
+        <v>63802.602401365999</v>
+      </c>
+      <c r="BE15" s="7">
+        <f t="shared" si="13"/>
+        <v>64440.628425379662</v>
+      </c>
+      <c r="BF15" s="7">
+        <f t="shared" si="13"/>
+        <v>65085.034709633459</v>
+      </c>
+      <c r="BG15" s="7">
+        <f t="shared" si="13"/>
+        <v>65735.885056729792</v>
+      </c>
+      <c r="BH15" s="7">
+        <f t="shared" si="13"/>
+        <v>66393.243907297088</v>
+      </c>
+      <c r="BI15" s="7">
+        <f t="shared" si="13"/>
+        <v>67057.176346370063</v>
+      </c>
+      <c r="BJ15" s="7">
+        <f t="shared" si="13"/>
+        <v>67727.748109833759</v>
+      </c>
+      <c r="BK15" s="7">
+        <f t="shared" si="13"/>
+        <v>68405.025590932099</v>
+      </c>
+      <c r="BL15" s="7">
+        <f t="shared" si="13"/>
+        <v>69089.075846841413</v>
+      </c>
+      <c r="BM15" s="7">
+        <f t="shared" si="13"/>
+        <v>69779.966605309834</v>
+      </c>
+      <c r="BN15" s="7">
+        <f t="shared" si="13"/>
+        <v>70477.76627136294</v>
+      </c>
+      <c r="BO15" s="7">
+        <f t="shared" si="13"/>
+        <v>71182.543934076573</v>
+      </c>
+      <c r="BP15" s="7">
+        <f t="shared" ref="BP15:CP15" si="14">BO15*(1+$W$33)</f>
+        <v>71894.369373417343</v>
+      </c>
+      <c r="BQ15" s="7">
+        <f t="shared" si="14"/>
+        <v>72613.31306715151</v>
+      </c>
+      <c r="BR15" s="7">
+        <f t="shared" si="14"/>
+        <v>73339.446197823025</v>
+      </c>
+      <c r="BS15" s="7">
+        <f t="shared" si="14"/>
+        <v>74072.840659801252</v>
+      </c>
+      <c r="BT15" s="7">
+        <f t="shared" si="14"/>
+        <v>74813.569066399272</v>
+      </c>
+      <c r="BU15" s="7">
+        <f t="shared" si="14"/>
+        <v>75561.704757063271</v>
+      </c>
+      <c r="BV15" s="7">
+        <f t="shared" si="14"/>
+        <v>76317.321804633903</v>
+      </c>
+      <c r="BW15" s="7">
+        <f t="shared" si="14"/>
+        <v>77080.495022680247</v>
+      </c>
+      <c r="BX15" s="7">
+        <f t="shared" si="14"/>
+        <v>77851.299972907043</v>
+      </c>
+      <c r="BY15" s="7">
+        <f t="shared" si="14"/>
+        <v>78629.812972636108</v>
+      </c>
+      <c r="BZ15" s="7">
+        <f t="shared" si="14"/>
+        <v>79416.111102362469</v>
+      </c>
+      <c r="CA15" s="7">
+        <f t="shared" si="14"/>
+        <v>80210.272213386095</v>
+      </c>
+      <c r="CB15" s="7">
+        <f t="shared" si="14"/>
+        <v>81012.374935519954</v>
+      </c>
+      <c r="CC15" s="7">
+        <f t="shared" si="14"/>
+        <v>81822.498684875158</v>
+      </c>
+      <c r="CD15" s="7">
+        <f t="shared" si="14"/>
+        <v>82640.723671723914</v>
+      </c>
+      <c r="CE15" s="7">
+        <f t="shared" si="14"/>
+        <v>83467.130908441148</v>
+      </c>
+      <c r="CF15" s="7">
+        <f t="shared" si="14"/>
+        <v>84301.802217525561</v>
+      </c>
+      <c r="CG15" s="7">
+        <f t="shared" si="14"/>
+        <v>85144.820239700814</v>
+      </c>
+      <c r="CH15" s="7">
+        <f t="shared" si="14"/>
+        <v>85996.268442097818</v>
+      </c>
+      <c r="CI15" s="7">
+        <f t="shared" si="14"/>
+        <v>86856.231126518804</v>
+      </c>
+      <c r="CJ15" s="7">
+        <f t="shared" si="14"/>
+        <v>87724.793437783999</v>
+      </c>
+      <c r="CK15" s="7">
+        <f t="shared" si="14"/>
+        <v>88602.041372161839</v>
+      </c>
+      <c r="CL15" s="7">
+        <f t="shared" si="14"/>
+        <v>89488.061785883459</v>
+      </c>
+      <c r="CM15" s="7">
+        <f t="shared" si="14"/>
+        <v>90382.942403742301</v>
+      </c>
+      <c r="CN15" s="7">
+        <f t="shared" si="14"/>
+        <v>91286.771827779725</v>
+      </c>
+      <c r="CO15" s="7">
+        <f t="shared" si="14"/>
+        <v>92199.63954605753</v>
+      </c>
+      <c r="CP15" s="7">
+        <f t="shared" si="14"/>
+        <v>93121.635941518107</v>
+      </c>
+      <c r="CQ15" s="7">
+        <f t="shared" ref="CQ15:CR15" si="15">CP15*(1+$W$33)</f>
+        <v>94052.852300933286</v>
+      </c>
+      <c r="CR15" s="7">
+        <f t="shared" si="15"/>
+        <v>94993.380823942614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5">
-        <v>524</v>
+        <v>299</v>
       </c>
       <c r="H16" s="5">
-        <v>557</v>
+        <v>329</v>
       </c>
       <c r="I16" s="5">
-        <v>579</v>
+        <v>350</v>
       </c>
       <c r="J16" s="5">
-        <f>2292-SUM(G16:I16)</f>
-        <v>632</v>
+        <f>1353-SUM(G16:I16)</f>
+        <v>375</v>
       </c>
       <c r="K16" s="5">
-        <v>673</v>
+        <f>275+94</f>
+        <v>369</v>
       </c>
       <c r="L16" s="5">
-        <v>722</v>
+        <v>389</v>
       </c>
       <c r="M16" s="5">
-        <v>697</v>
+        <v>400</v>
       </c>
       <c r="N16" s="5">
-        <f>2814-SUM(K16:M16)</f>
-        <v>722</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>1573-SUM(K16:M16)</f>
+        <v>415</v>
+      </c>
+      <c r="O16" s="2">
+        <v>438</v>
+      </c>
+      <c r="P16" s="2">
+        <f>P15-P17</f>
+        <v>471.27670546923036</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>496</v>
+      </c>
+      <c r="W16" s="13">
+        <f>(W15-V15)/V15</f>
+        <v>0.30604429440559111</v>
+      </c>
+      <c r="X16" s="13">
+        <f>(X15-W15)/W15</f>
+        <v>0.30457370797197192</v>
+      </c>
+      <c r="Y16" s="13">
+        <f>(Y15-X15)/X15</f>
+        <v>0.22893887196458709</v>
+      </c>
+      <c r="Z16" s="13">
+        <f>(Z15-Y15)/Y15</f>
+        <v>0.23826981434627428</v>
+      </c>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+    </row>
+    <row r="17" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5">
-        <v>314</v>
+        <f>+G15-G16</f>
+        <v>1061</v>
       </c>
       <c r="H17" s="5">
-        <v>333</v>
+        <f>+H15-H16</f>
+        <v>1080</v>
       </c>
       <c r="I17" s="5">
-        <v>358</v>
+        <f>+I15-I16</f>
+        <v>1162</v>
       </c>
       <c r="J17" s="5">
-        <f>1397-SUM(G17:I17)</f>
-        <v>392</v>
+        <f>+J15-J16</f>
+        <v>1240</v>
       </c>
       <c r="K17" s="5">
-        <v>414</v>
+        <f>+K15-K16</f>
+        <v>1353</v>
       </c>
       <c r="L17" s="5">
-        <v>444</v>
+        <f>L15-L16</f>
+        <v>1363.2631708025428</v>
       </c>
       <c r="M17" s="5">
-        <v>456</v>
+        <f>M15-M16</f>
+        <v>1431.2714062670386</v>
       </c>
       <c r="N17" s="5">
-        <f>1768-SUM(K17:M17)</f>
-        <v>454</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>N15-N16</f>
+        <v>1525.2890120336244</v>
+      </c>
+      <c r="O17" s="5">
+        <f>O15-O16</f>
+        <v>1658.3291285114346</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1679</v>
+      </c>
+      <c r="Q17" s="5">
+        <f>Q15-Q16</f>
+        <v>1792.3400528405241</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
-        <v>126</v>
+        <v>524</v>
       </c>
       <c r="H18" s="5">
-        <v>139</v>
+        <v>557</v>
       </c>
       <c r="I18" s="5">
-        <v>151</v>
+        <v>579</v>
       </c>
       <c r="J18" s="5">
-        <f>597-SUM(G18:I18)</f>
-        <v>181</v>
+        <f>2292-SUM(G18:I18)</f>
+        <v>632</v>
       </c>
       <c r="K18" s="5">
-        <v>179</v>
+        <v>673</v>
       </c>
       <c r="L18" s="5">
-        <v>175</v>
+        <v>722</v>
       </c>
       <c r="M18" s="5">
-        <v>187</v>
+        <v>697</v>
       </c>
       <c r="N18" s="5">
-        <f>735-SUM(K18:M18)</f>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>2814-SUM(K18:M18)</f>
+        <v>722</v>
+      </c>
+      <c r="O18" s="2">
+        <v>823</v>
+      </c>
+      <c r="P18" s="2">
+        <v>832</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5">
-        <f>SUM(G16:G18)</f>
-        <v>964</v>
+        <v>314</v>
       </c>
       <c r="H19" s="5">
-        <f>SUM(H16:H18)</f>
-        <v>1029</v>
+        <v>333</v>
       </c>
       <c r="I19" s="5">
-        <f>SUM(I16:I18)</f>
-        <v>1088</v>
+        <v>358</v>
       </c>
       <c r="J19" s="5">
-        <f>SUM(J16:J18)</f>
-        <v>1205</v>
+        <f>1397-SUM(G19:I19)</f>
+        <v>392</v>
       </c>
       <c r="K19" s="5">
-        <f>SUM(K16:K18)</f>
-        <v>1266</v>
+        <v>414</v>
       </c>
       <c r="L19" s="5">
-        <f>SUM(L16:L18)</f>
-        <v>1341</v>
+        <v>444</v>
       </c>
       <c r="M19" s="5">
-        <f>SUM(M16:M18)</f>
-        <v>1340</v>
+        <v>456</v>
       </c>
       <c r="N19" s="5">
-        <f>SUM(N16:N18)</f>
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>1768-SUM(K19:M19)</f>
+        <v>454</v>
+      </c>
+      <c r="O19" s="2">
+        <v>492</v>
+      </c>
+      <c r="P19" s="2">
+        <v>521</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
-        <f>G15-G19</f>
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="H20" s="5">
-        <f>H15-H19</f>
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="I20" s="5">
-        <f>I15-I19</f>
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="J20" s="5">
-        <f>J15-J19</f>
-        <v>35</v>
+        <f>597-SUM(G20:I20)</f>
+        <v>181</v>
       </c>
       <c r="K20" s="5">
-        <f>K15-K19</f>
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="L20" s="5">
-        <f>L15-L19</f>
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="M20" s="5">
-        <f>M15-M19</f>
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="N20" s="5">
-        <f>N15-N19</f>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>735-SUM(K20:M20)</f>
+        <v>194</v>
+      </c>
+      <c r="O20" s="2">
+        <v>199</v>
+      </c>
+      <c r="P20" s="2">
+        <v>209</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
-        <f>-7+9</f>
-        <v>2</v>
+        <f t="shared" ref="G21:Q21" si="16">SUM(G18:G20)</f>
+        <v>964</v>
       </c>
       <c r="H21" s="5">
-        <f>-7+6</f>
-        <v>-1</v>
+        <f t="shared" si="16"/>
+        <v>1029</v>
       </c>
       <c r="I21" s="5">
-        <f>-7+1</f>
-        <v>-6</v>
+        <f t="shared" si="16"/>
+        <v>1088</v>
       </c>
       <c r="J21" s="5">
-        <f>-28+20-SUM(G21:I21)</f>
-        <v>-3</v>
+        <f t="shared" si="16"/>
+        <v>1205</v>
       </c>
       <c r="K21" s="5">
-        <f>-6+4</f>
-        <v>-2</v>
+        <f t="shared" si="16"/>
+        <v>1266</v>
       </c>
       <c r="L21" s="5">
-        <f>-6+13</f>
-        <v>7</v>
+        <f t="shared" si="16"/>
+        <v>1341</v>
       </c>
       <c r="M21" s="5">
-        <f>-8+19</f>
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>1340</v>
       </c>
       <c r="N21" s="5">
-        <f>-27+71-SUM(K21:M21)</f>
+        <f t="shared" si="16"/>
+        <v>1370</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="16"/>
+        <v>1514</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="16"/>
+        <v>1562</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="16"/>
+        <v>1561</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <f>G20+G21</f>
-        <v>99</v>
+        <f t="shared" ref="G22:Q22" si="17">G17-G21</f>
+        <v>97</v>
       </c>
       <c r="H22" s="5">
-        <f>H20+H21</f>
-        <v>50</v>
+        <f t="shared" si="17"/>
+        <v>51</v>
       </c>
       <c r="I22" s="5">
-        <f>I20+I21</f>
-        <v>68</v>
+        <f t="shared" si="17"/>
+        <v>74</v>
       </c>
       <c r="J22" s="5">
-        <f>J20+J21</f>
-        <v>32</v>
+        <f t="shared" si="17"/>
+        <v>35</v>
       </c>
       <c r="K22" s="5">
-        <f>K20+K21</f>
-        <v>85</v>
+        <f t="shared" si="17"/>
+        <v>87</v>
       </c>
       <c r="L22" s="5">
-        <f>L20+L21</f>
-        <v>29</v>
+        <f t="shared" si="17"/>
+        <v>22.263170802542845</v>
       </c>
       <c r="M22" s="5">
-        <f>M20+M21</f>
-        <v>102</v>
+        <f t="shared" si="17"/>
+        <v>91.271406267038628</v>
       </c>
       <c r="N22" s="5">
-        <f>N20+N21</f>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>155.28901203362443</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="17"/>
+        <v>144.32912851143465</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="17"/>
+        <v>117</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="17"/>
+        <v>231.34005284052409</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5">
-        <v>17</v>
+        <f>-7+9</f>
+        <v>2</v>
       </c>
       <c r="H23" s="5">
-        <v>-9</v>
+        <f>-7+6</f>
+        <v>-1</v>
       </c>
       <c r="I23" s="5">
-        <v>5</v>
+        <f>-7+1</f>
+        <v>-6</v>
       </c>
       <c r="J23" s="5">
-        <f>19-SUM(G23:I23)</f>
-        <v>6</v>
+        <f>-28+20-SUM(G23:I23)</f>
+        <v>-3</v>
       </c>
       <c r="K23" s="5">
-        <v>10</v>
+        <f>6-8</f>
+        <v>-2</v>
       </c>
       <c r="L23" s="5">
-        <v>9</v>
+        <f>-6+13</f>
+        <v>7</v>
       </c>
       <c r="M23" s="5">
-        <v>22</v>
+        <f>-8+19</f>
+        <v>11</v>
       </c>
       <c r="N23" s="5">
-        <f>74-SUM(K23:M23)</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>-27+71-SUM(K23:M23)</f>
+        <v>28</v>
+      </c>
+      <c r="O23" s="2">
+        <f>60-16</f>
+        <v>44</v>
+      </c>
+      <c r="P23" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>82-14</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
-        <f>+G22-G23</f>
-        <v>82</v>
+        <f t="shared" ref="G24:Q24" si="18">G22+G23</f>
+        <v>99</v>
       </c>
       <c r="H24" s="5">
-        <f>+H22-H23</f>
-        <v>59</v>
+        <f t="shared" si="18"/>
+        <v>50</v>
       </c>
       <c r="I24" s="5">
-        <f>+I22-I23</f>
-        <v>63</v>
+        <f t="shared" si="18"/>
+        <v>68</v>
       </c>
       <c r="J24" s="5">
-        <f>+J22-J23</f>
-        <v>26</v>
+        <f t="shared" si="18"/>
+        <v>32</v>
       </c>
       <c r="K24" s="5">
-        <f>+K22-K23</f>
-        <v>75</v>
+        <f t="shared" si="18"/>
+        <v>85</v>
       </c>
       <c r="L24" s="5">
-        <f>+L22-L23</f>
-        <v>20</v>
+        <f t="shared" si="18"/>
+        <v>29.263170802542845</v>
       </c>
       <c r="M24" s="5">
-        <f>+M22-M23</f>
-        <v>80</v>
+        <f t="shared" si="18"/>
+        <v>102.27140626703863</v>
       </c>
       <c r="N24" s="5">
-        <f>+N22-N23</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+        <f t="shared" si="18"/>
+        <v>183.28901203362443</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="18"/>
+        <v>188.32912851143465</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="18"/>
+        <v>191</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="18"/>
+        <v>299.34005284052409</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
+        <v>17</v>
+      </c>
+      <c r="H25" s="5">
+        <v>-9</v>
+      </c>
+      <c r="I25" s="5">
+        <v>5</v>
+      </c>
+      <c r="J25" s="5">
+        <f>19-SUM(G25:I25)</f>
+        <v>6</v>
+      </c>
+      <c r="K25" s="5">
+        <v>10</v>
+      </c>
+      <c r="L25" s="5">
+        <v>9</v>
+      </c>
+      <c r="M25" s="5">
+        <v>22</v>
+      </c>
+      <c r="N25" s="5">
+        <f>74-SUM(K25:M25)</f>
+        <v>33</v>
+      </c>
+      <c r="O25" s="2">
+        <v>38</v>
+      </c>
+      <c r="P25" s="2">
+        <f>29</f>
         <v>29</v>
       </c>
-      <c r="G25" s="4">
-        <f>G24/G26</f>
-        <v>0.40540273300769275</v>
-      </c>
-      <c r="H25" s="4">
-        <f>H24/H26</f>
-        <v>0.29825847382655513</v>
-      </c>
-      <c r="I25" s="4">
-        <f>I24/I26</f>
-        <v>0.31015690000640006</v>
-      </c>
-      <c r="J25" s="4">
-        <f>J24/J26</f>
-        <v>0.12797353900978012</v>
-      </c>
-      <c r="K25" s="4">
-        <f>K24/K26</f>
-        <v>0.36982248520710059</v>
-      </c>
-      <c r="L25" s="4">
-        <f>L24/L26</f>
-        <v>9.8522167487684734E-2</v>
-      </c>
-      <c r="M25" s="4">
-        <f>M24/M26</f>
-        <v>0.39385390973853024</v>
-      </c>
-      <c r="N25" s="4">
-        <f>N24/N26</f>
-        <v>0.73697398481833587</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
+        <f t="shared" ref="G26:Q26" si="19">+G24-G25</f>
+        <v>82</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="19"/>
+        <v>59</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="19"/>
+        <v>63</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="19"/>
+        <v>75</v>
+      </c>
+      <c r="L26" s="5">
+        <f t="shared" si="19"/>
+        <v>20.263170802542845</v>
+      </c>
+      <c r="M26" s="5">
+        <f t="shared" si="19"/>
+        <v>80.271406267038628</v>
+      </c>
+      <c r="N26" s="5">
+        <f t="shared" si="19"/>
+        <v>150.28901203362443</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="19"/>
+        <v>150.32912851143465</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="19"/>
+        <v>162</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="19"/>
+        <v>242.34005284052409</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" ref="G27:Q27" si="20">G26/G28</f>
+        <v>0.40540273300769275</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="20"/>
+        <v>0.29825847382655513</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="20"/>
+        <v>0.31015690000640006</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="20"/>
+        <v>0.12797353900978012</v>
+      </c>
+      <c r="K27" s="4">
+        <f t="shared" si="20"/>
+        <v>0.36982248520710059</v>
+      </c>
+      <c r="L27" s="4">
+        <f t="shared" si="20"/>
+        <v>9.9818575381984465E-2</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="20"/>
+        <v>0.39519008998103899</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" si="20"/>
+        <v>0.73839394715220696</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="20"/>
+        <v>0.7359586832242484</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="20"/>
+        <v>0.79024390243902443</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="20"/>
+        <v>1.1748282786763629</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
         <v>202.268</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H28" s="5">
         <v>197.815</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I28" s="5">
         <v>203.12299999999999</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J28" s="5">
         <v>203.167</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K28" s="5">
         <v>202.8</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L28" s="5">
         <v>203</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M28" s="5">
         <v>203.12100000000001</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N28" s="5">
         <v>203.535</v>
       </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
+      <c r="O28" s="2">
+        <v>204.26300000000001</v>
+      </c>
+      <c r="P28" s="2">
+        <v>205</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>206.27699999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9">
-        <f>K13/G13-1</f>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9">
+        <f t="shared" ref="K30:R30" si="21">K15/G15-1</f>
         <v>0.26617647058823524</v>
       </c>
-      <c r="L28" s="9">
-        <f>L13/H13-1</f>
-        <v>0.24343506032647277</v>
-      </c>
-      <c r="M28" s="9">
-        <f>M13/I13-1</f>
-        <v>0.21097883597883604</v>
-      </c>
-      <c r="N28" s="9">
-        <f>N13/J13-1</f>
-        <v>0.20123839009287936</v>
-      </c>
-      <c r="R28" s="14">
-        <f>(R3-Q3)/Q3</f>
+      <c r="L30" s="9">
+        <f t="shared" si="21"/>
+        <v>0.24362183875269183</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="21"/>
+        <v>0.21115833747820023</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" si="21"/>
+        <v>0.20141734491246099</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="21"/>
+        <v>0.21738044629003173</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" si="21"/>
+        <v>0.2271425555810751</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="21"/>
+        <v>0.24959088260172124</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="21"/>
+        <v>0.2561730384118952</v>
+      </c>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="W30" s="13">
+        <f>(W3-V3)/V3</f>
         <v>0.30985507246376809</v>
       </c>
-      <c r="S28" s="14">
-        <f>(S3-R3)/R3</f>
+      <c r="X30" s="13">
+        <f>(X3-W3)/W3</f>
         <v>0.30471343217526003</v>
       </c>
-      <c r="T28" s="14">
-        <f>(T3-S3)/S3</f>
+      <c r="Y30" s="13">
+        <f>(Y3-X3)/X3</f>
         <v>0.22879918588873813</v>
       </c>
-      <c r="U28" s="13">
-        <f>$R$30</f>
-        <v>0.21</v>
-      </c>
-      <c r="V28" s="13">
-        <f>$R$30</f>
-        <v>0.21</v>
-      </c>
-      <c r="W28" s="13">
-        <f>$R$30</f>
-        <v>0.21</v>
-      </c>
-      <c r="X28" s="13">
-        <f>$R$30</f>
-        <v>0.21</v>
-      </c>
-      <c r="Y28" s="13">
+      <c r="Z30" s="13">
+        <f>(Z15-Y15)/Y15</f>
+        <v>0.23826981434627428</v>
+      </c>
+      <c r="AA30" s="12">
+        <f t="shared" ref="AA30:AG30" si="22">$W$32</f>
+        <v>0.215</v>
+      </c>
+      <c r="AB30" s="12">
+        <f t="shared" si="22"/>
+        <v>0.215</v>
+      </c>
+      <c r="AC30" s="12">
+        <f t="shared" si="22"/>
+        <v>0.215</v>
+      </c>
+      <c r="AD30" s="12">
+        <f t="shared" si="22"/>
+        <v>0.215</v>
+      </c>
+      <c r="AE30" s="12">
+        <f t="shared" si="22"/>
+        <v>0.215</v>
+      </c>
+      <c r="AF30" s="12">
+        <f t="shared" si="22"/>
+        <v>0.215</v>
+      </c>
+      <c r="AG30" s="12">
+        <f t="shared" si="22"/>
+        <v>0.215</v>
+      </c>
+      <c r="AH30" s="12">
         <v>0.01</v>
       </c>
-      <c r="Z28" s="13">
+      <c r="AI30" s="12">
         <v>0.01</v>
       </c>
-      <c r="AA28" s="13">
+      <c r="AJ30" s="12">
         <v>0.01</v>
       </c>
-      <c r="AB28" s="13">
+      <c r="AK30" s="12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="Q30" s="16" t="s">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="V32" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="R30" s="17">
-        <v>0.21</v>
-      </c>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="W32" s="15">
+        <v>0.215</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K33" s="5">
         <f>2252+1762+1484</f>
         <v>5498</v>
       </c>
-      <c r="Q31" s="16" t="s">
+      <c r="V33" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="R31" s="17">
+      <c r="W33" s="15">
         <v>0.01</v>
       </c>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K34" s="5">
         <v>824</v>
       </c>
-      <c r="Q32" s="16" t="s">
+      <c r="V34" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="R32" s="17">
+      <c r="W34" s="15">
         <v>0.1</v>
       </c>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K35" s="5">
         <f>322+655</f>
         <v>977</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="Q33" s="16" t="s">
+      <c r="M35" s="5"/>
+      <c r="V35" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="R33" s="18">
-        <f>NPV(R32,Q3:CM3)</f>
-        <v>122549.60724778917</v>
-      </c>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="W35" s="16">
+        <f>NPV($W$34,V3:CR3)</f>
+        <v>205837.32430792676</v>
+      </c>
+      <c r="X35" s="16">
+        <f>NPV($W$34,V4:CS4)</f>
+        <v>175003.74226940193</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K36" s="5">
         <v>282</v>
       </c>
-      <c r="Q34" s="16" t="s">
+      <c r="V36" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="R34" s="19">
-        <f>Main!L3</f>
-        <v>202.8</v>
-      </c>
-      <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+      <c r="W36" s="17">
+        <f>Main!$L$3</f>
+        <v>205.06</v>
+      </c>
+      <c r="X36" s="17">
+        <f>Main!$L$3</f>
+        <v>205.06</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K37" s="5">
         <v>798</v>
       </c>
-      <c r="Q35" s="16" t="s">
+      <c r="V37" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="R35" s="21">
-        <f>R33/R34</f>
-        <v>604.28800418041999</v>
-      </c>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+      <c r="W37" s="19">
+        <f>W35/W36</f>
+        <v>1003.7907164143506</v>
+      </c>
+      <c r="X37" s="19">
+        <f>X35/X36</f>
+        <v>853.42700804350886</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K38" s="5">
         <v>583</v>
       </c>
-      <c r="Q36" s="16" t="s">
+      <c r="V38" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="R36" s="22">
-        <f>(R35-Main!L2)/Main!L2</f>
-        <v>0.37338182768277273</v>
-      </c>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="W38" s="20">
+        <f>(W37-Main!$L$2)/Main!$L$2</f>
+        <v>0.26999420085571763</v>
+      </c>
+      <c r="X38" s="20">
+        <f>(X37-Main!$L$2)/Main!$L$2</f>
+        <v>7.9754308687494627E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K39" s="5">
         <f>266+774</f>
         <v>1040</v>
       </c>
-      <c r="Q37" s="16" t="s">
+      <c r="V39" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="R37" s="20">
-        <f>R34*R35</f>
-        <v>122549.60724778919</v>
-      </c>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="W39" s="18">
+        <f>W36*W37</f>
+        <v>205837.32430792676</v>
+      </c>
+      <c r="X39" s="18">
+        <f>X36*X37</f>
+        <v>175003.74226940193</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>31</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K40" s="5">
         <v>686</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K41" s="5">
         <v>305</v>
       </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="V41" s="1"/>
+      <c r="W41" s="13">
+        <f>(W37-679)/679</f>
+        <v>0.47833684302555324</v>
+      </c>
+      <c r="X41">
+        <f>V41*(1+W41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>36</v>
       </c>
-      <c r="K40" s="5">
-        <f>SUM(K31:K39)</f>
+      <c r="K42" s="5">
+        <f>SUM(K33:K41)</f>
         <v>10993</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="X42" s="1">
+        <f>X41-V41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K44" s="5">
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>45</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K45" s="5">
         <v>661</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>46</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K46" s="5">
         <f>3850+57</f>
         <v>3907</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>39</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K47" s="5">
         <f>87+548</f>
         <v>635</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K48" s="5">
         <f>88+1484</f>
         <v>1572</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="K47" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" s="5">
-        <v>3997</v>
-      </c>
-    </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49" s="5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50" s="5">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>42</v>
       </c>
-      <c r="K49" s="5">
-        <f>SUM(K42:K48)</f>
+      <c r="K51" s="5">
+        <f>SUM(K44:K50)</f>
         <v>10993</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
-      <c r="K52" s="5">
-        <f>+Model!K24</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>50</v>
-      </c>
-      <c r="K53" s="3">
-        <v>75</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="K54" s="3">
-        <v>101</v>
+        <v>49</v>
+      </c>
+      <c r="K54" s="5">
+        <f>+Model!K26</f>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K55" s="3">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K56" s="3">
-        <v>325</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K57" s="3">
-        <v>-2</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K58" s="3">
-        <v>15</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59" s="3">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>54</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K61" s="3">
         <f>562-137-46+69+21-203</f>
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="K60" s="5">
-        <f>SUM(K53:K59)</f>
-        <v>863</v>
-      </c>
-    </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="K62" s="5">
+        <f>SUM(K55:K61)</f>
+        <v>863</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>56</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K64" s="3">
         <v>-93</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>57</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K65" s="3">
         <f>-662-101+577-1</f>
         <v>-187</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>58</v>
-      </c>
-      <c r="K64" s="3">
-        <f>SUM(K62:K63)</f>
-        <v>-280</v>
-      </c>
-    </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K66" s="3">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>60</v>
-      </c>
-      <c r="K67" s="3">
-        <v>105</v>
+        <f>SUM(K64:K65)</f>
+        <v>-280</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="K68" s="3">
-        <v>-150</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K69" s="3">
-        <f>SUM(K66:K68)</f>
-        <v>-51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="K70" s="3">
-        <v>-5</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="K71" s="3">
+        <f>SUM(K68:K70)</f>
+        <v>-51</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
         <v>63</v>
       </c>
-      <c r="K71" s="5">
-        <f>+K69+K70+K64+K60</f>
+      <c r="K73" s="5">
+        <f>+K71+K72+K66+K62</f>
         <v>527</v>
       </c>
     </row>
@@ -3115,7 +3906,8 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A9151361-E246-479F-86B4-617E3B597693}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/NOW.xlsx
+++ b/NOW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B547DB3E-AB57-4066-AE76-55426F6277F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F919E5-E5D1-45DC-86B3-D8F4236FF2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21180" yWindow="90" windowWidth="19245" windowHeight="20805" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
+    <workbookView xWindow="40305" yWindow="90" windowWidth="11310" windowHeight="20805" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
   <si>
     <t>Price</t>
   </si>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>Q124</t>
+  </si>
+  <si>
+    <t>^ Bottom line shows If growth decelerates to 15% before terminal rate</t>
   </si>
 </sst>
 </file>
@@ -952,7 +955,7 @@
   <dimension ref="B2:M24"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -965,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>790.39</v>
+        <v>812</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -991,7 +994,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>162077.37340000001</v>
+        <v>166508.72</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -1025,7 +1028,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>159477.37340000001</v>
+        <v>163908.72</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1127,10 +1130,10 @@
   <dimension ref="A1:CR73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB27" sqref="AB27"/>
+      <selection pane="bottomRight" activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1327,7 +1330,7 @@
         <v>8972</v>
       </c>
       <c r="AA3" s="2">
-        <f t="shared" ref="Z3:AG3" si="0">Z3*(1+$W$32)</f>
+        <f t="shared" ref="AA3:AG3" si="0">Z3*(1+$W$32)</f>
         <v>10900.980000000001</v>
       </c>
       <c r="AB3" s="2">
@@ -1979,6 +1982,9 @@
       </c>
       <c r="O5" s="2">
         <v>220</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2221,13 +2227,6 @@
       <c r="S11" s="2">
         <v>2515</v>
       </c>
-      <c r="Z11" s="2">
-        <f>SUM(O11:R11)</f>
-        <v>8680</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>10575</v>
-      </c>
     </row>
     <row r="12" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
@@ -2282,10 +2281,7 @@
         <f>8600-SUM(O15:P15)</f>
         <v>4353.394166019335</v>
       </c>
-      <c r="AA12" s="13">
-        <f>(AA11-Z11)/Z11</f>
-        <v>0.21831797235023043</v>
-      </c>
+      <c r="AA12" s="13"/>
     </row>
     <row r="13" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
@@ -2338,7 +2334,7 @@
       <c r="T13" s="25"/>
       <c r="AA13" s="2">
         <f>AA11+R14*4</f>
-        <v>10863</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2788,22 +2784,10 @@
       <c r="Q16" s="2">
         <v>496</v>
       </c>
-      <c r="W16" s="13">
-        <f>(W15-V15)/V15</f>
-        <v>0.30604429440559111</v>
-      </c>
-      <c r="X16" s="13">
-        <f>(X15-W15)/W15</f>
-        <v>0.30457370797197192</v>
-      </c>
-      <c r="Y16" s="13">
-        <f>(Y15-X15)/X15</f>
-        <v>0.22893887196458709</v>
-      </c>
-      <c r="Z16" s="13">
-        <f>(Z15-Y15)/Y15</f>
-        <v>0.23826981434627428</v>
-      </c>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
       <c r="AA16" s="13"/>
       <c r="AB16" s="13"/>
       <c r="AC16" s="13"/>
@@ -3509,6 +3493,10 @@
       </c>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
       <c r="V32" s="14" t="s">
         <v>94</v>
       </c>
@@ -3616,11 +3604,11 @@
       </c>
       <c r="W38" s="20">
         <f>(W37-Main!$L$2)/Main!$L$2</f>
-        <v>0.26999420085571763</v>
+        <v>0.23619546356447124</v>
       </c>
       <c r="X38" s="20">
         <f>(X37-Main!$L$2)/Main!$L$2</f>
-        <v>7.9754308687494627E-2</v>
+        <v>5.1018482812203031E-2</v>
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">

--- a/NOW.xlsx
+++ b/NOW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F919E5-E5D1-45DC-86B3-D8F4236FF2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDEC90-CB26-4B6E-829C-8FEFEEE056B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40305" yWindow="90" windowWidth="11310" windowHeight="20805" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
+    <workbookView xWindow="14235" yWindow="90" windowWidth="18585" windowHeight="20805" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -955,7 +955,7 @@
   <dimension ref="B2:M24"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>812</v>
+        <v>771</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>205.06</v>
+        <v>206</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>117</v>
@@ -994,7 +994,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>166508.72</v>
+        <v>158826</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>163908.72</v>
+        <v>156226</v>
       </c>
       <c r="M7" s="3"/>
     </row>
@@ -1130,10 +1130,10 @@
   <dimension ref="A1:CR73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q33" sqref="Q33"/>
+      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2047,7 +2047,7 @@
       <c r="P7" s="2">
         <v>7200</v>
       </c>
-      <c r="S7" s="2">
+      <c r="R7" s="2">
         <f>1.24*O7</f>
         <v>8680</v>
       </c>
@@ -2784,6 +2784,10 @@
       <c r="Q16" s="2">
         <v>496</v>
       </c>
+      <c r="R16" s="2">
+        <f>1921-SUM(O16:Q16)</f>
+        <v>515.72329453076964</v>
+      </c>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
@@ -2843,7 +2847,10 @@
         <f>Q15-Q16</f>
         <v>1792.3400528405241</v>
       </c>
-      <c r="R17" s="5"/>
+      <c r="R17" s="5">
+        <f>R15-R16</f>
+        <v>1921.6154491127227</v>
+      </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
     </row>
@@ -2890,6 +2897,10 @@
       <c r="Q18" s="2">
         <v>799</v>
       </c>
+      <c r="R18" s="2">
+        <f>3301-SUM(O18:Q18)</f>
+        <v>847</v>
+      </c>
     </row>
     <row r="19" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
@@ -2934,6 +2945,10 @@
       <c r="Q19" s="2">
         <v>549</v>
       </c>
+      <c r="R19" s="2">
+        <f>2124-SUM(O19:Q19)</f>
+        <v>562</v>
+      </c>
     </row>
     <row r="20" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
@@ -2978,6 +2993,10 @@
       <c r="Q20" s="2">
         <v>213</v>
       </c>
+      <c r="R20" s="2">
+        <f>863-SUM(O20:Q20)</f>
+        <v>242</v>
+      </c>
     </row>
     <row r="21" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -2988,7 +3007,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
-        <f t="shared" ref="G21:Q21" si="16">SUM(G18:G20)</f>
+        <f t="shared" ref="G21:R21" si="16">SUM(G18:G20)</f>
         <v>964</v>
       </c>
       <c r="H21" s="5">
@@ -3031,7 +3050,10 @@
         <f t="shared" si="16"/>
         <v>1561</v>
       </c>
-      <c r="R21" s="5"/>
+      <c r="R21" s="5">
+        <f t="shared" si="16"/>
+        <v>1651</v>
+      </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
     </row>
@@ -3044,7 +3066,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:Q22" si="17">G17-G21</f>
+        <f t="shared" ref="G22:R22" si="17">G17-G21</f>
         <v>97</v>
       </c>
       <c r="H22" s="5">
@@ -3087,7 +3109,10 @@
         <f t="shared" si="17"/>
         <v>231.34005284052409</v>
       </c>
-      <c r="R22" s="5"/>
+      <c r="R22" s="5">
+        <f t="shared" si="17"/>
+        <v>270.61544911272267</v>
+      </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
     </row>
@@ -3142,6 +3167,10 @@
         <f>82-14</f>
         <v>68</v>
       </c>
+      <c r="R23" s="2">
+        <f>302-56-SUM(O23:Q23)</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
@@ -3152,7 +3181,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
-        <f t="shared" ref="G24:Q24" si="18">G22+G23</f>
+        <f t="shared" ref="G24:R24" si="18">G22+G23</f>
         <v>99</v>
       </c>
       <c r="H24" s="5">
@@ -3195,7 +3224,10 @@
         <f t="shared" si="18"/>
         <v>299.34005284052409</v>
       </c>
-      <c r="R24" s="5"/>
+      <c r="R24" s="5">
+        <f t="shared" si="18"/>
+        <v>330.61544911272267</v>
+      </c>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
     </row>
@@ -3243,6 +3275,10 @@
       <c r="Q25" s="2">
         <v>57</v>
       </c>
+      <c r="R25" s="2">
+        <f>-723-SUM(O25:Q25)</f>
+        <v>-847</v>
+      </c>
     </row>
     <row r="26" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
@@ -3253,7 +3289,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:Q26" si="19">+G24-G25</f>
+        <f t="shared" ref="G26:R26" si="19">+G24-G25</f>
         <v>82</v>
       </c>
       <c r="H26" s="5">
@@ -3296,7 +3332,10 @@
         <f t="shared" si="19"/>
         <v>242.34005284052409</v>
       </c>
-      <c r="R26" s="5"/>
+      <c r="R26" s="5">
+        <f t="shared" si="19"/>
+        <v>1177.6154491127227</v>
+      </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
     </row>
@@ -3305,7 +3344,7 @@
         <v>29</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:Q27" si="20">G26/G28</f>
+        <f t="shared" ref="G27:R27" si="20">G26/G28</f>
         <v>0.40540273300769275</v>
       </c>
       <c r="H27" s="4">
@@ -3348,7 +3387,10 @@
         <f t="shared" si="20"/>
         <v>1.1748282786763629</v>
       </c>
-      <c r="R27" s="4"/>
+      <c r="R27" s="4">
+        <f t="shared" si="20"/>
+        <v>5.7279523379560517</v>
+      </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
@@ -3392,6 +3434,9 @@
       </c>
       <c r="Q28" s="2">
         <v>206.27699999999999</v>
+      </c>
+      <c r="R28" s="2">
+        <v>205.59100000000001</v>
       </c>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.2">
@@ -3566,11 +3611,11 @@
       </c>
       <c r="W36" s="17">
         <f>Main!$L$3</f>
-        <v>205.06</v>
+        <v>206</v>
       </c>
       <c r="X36" s="17">
         <f>Main!$L$3</f>
-        <v>205.06</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.2">
@@ -3585,11 +3630,11 @@
       </c>
       <c r="W37" s="19">
         <f>W35/W36</f>
-        <v>1003.7907164143506</v>
+        <v>999.21031217440168</v>
       </c>
       <c r="X37" s="19">
         <f>X35/X36</f>
-        <v>853.42700804350886</v>
+        <v>849.5327294631162</v>
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.2">
@@ -3604,11 +3649,11 @@
       </c>
       <c r="W38" s="20">
         <f>(W37-Main!$L$2)/Main!$L$2</f>
-        <v>0.23619546356447124</v>
+        <v>0.29599262279429528</v>
       </c>
       <c r="X38" s="20">
         <f>(X37-Main!$L$2)/Main!$L$2</f>
-        <v>5.1018482812203031E-2</v>
+        <v>0.10185827427122723</v>
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
@@ -3649,7 +3694,7 @@
       <c r="V41" s="1"/>
       <c r="W41" s="13">
         <f>(W37-679)/679</f>
-        <v>0.47833684302555324</v>
+        <v>0.47159103413019393</v>
       </c>
       <c r="X41">
         <f>V41*(1+W41)</f>

--- a/NOW.xlsx
+++ b/NOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CDEC90-CB26-4B6E-829C-8FEFEEE056B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1F8EA-B0B3-4E19-B439-A2D6F3CF8FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14235" yWindow="90" windowWidth="18585" windowHeight="20805" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
   <si>
     <t>Price</t>
   </si>
@@ -423,6 +423,18 @@
   </si>
   <si>
     <t>^ Bottom line shows If growth decelerates to 15% before terminal rate</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Projected</t>
+  </si>
+  <si>
+    <t>Guided Sub Rev</t>
+  </si>
+  <si>
+    <t>Estimated Rev</t>
   </si>
 </sst>
 </file>
@@ -483,12 +495,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -522,7 +540,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -564,7 +582,37 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -955,12 +1003,12 @@
   <dimension ref="B2:M24"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>64</v>
       </c>
@@ -968,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>65</v>
       </c>
@@ -979,13 +1027,13 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>66</v>
       </c>
@@ -994,10 +1042,10 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>158826</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>132430</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>67</v>
       </c>
@@ -1011,7 +1059,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -1022,27 +1070,27 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>156226</v>
+        <v>129830</v>
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>75</v>
       </c>
@@ -1050,72 +1098,72 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>89</v>
       </c>
@@ -1127,32 +1175,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143D2949-B187-4CCE-8902-FF8193720176}">
-  <dimension ref="A1:CR73"/>
+  <dimension ref="A1:CS73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y17" sqref="Y17"/>
+      <selection pane="bottomRight" activeCell="X35" sqref="X35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="3"/>
-    <col min="11" max="13" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="11.140625" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.109375" style="3"/>
+    <col min="11" max="13" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="11.109375" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" style="25" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" customWidth="1"/>
+    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1180,8 +1231,11 @@
       <c r="R1" s="21">
         <v>45291</v>
       </c>
-    </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="S1" s="21">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1233,48 +1287,51 @@
       <c r="S2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3" t="s">
+      <c r="T2" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
@@ -1311,306 +1368,307 @@
       <c r="O3" s="2">
         <v>1344</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="T3" s="27"/>
+      <c r="V3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="V3" s="2">
+      <c r="W3" s="2">
         <v>3450</v>
       </c>
-      <c r="W3" s="2">
+      <c r="X3" s="2">
         <v>4519</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Y3" s="2">
         <v>5896</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="Z3" s="2">
         <v>7245</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AA3" s="2">
         <v>8972</v>
       </c>
-      <c r="AA3" s="2">
-        <f t="shared" ref="AA3:AG3" si="0">Z3*(1+$W$32)</f>
-        <v>10900.980000000001</v>
-      </c>
       <c r="AB3" s="2">
+        <f t="shared" ref="AB3:AH3" si="0">AA3*(1+$X$32)</f>
+        <v>10945.84</v>
+      </c>
+      <c r="AC3" s="2">
         <f t="shared" si="0"/>
-        <v>13244.690700000003</v>
-      </c>
-      <c r="AC3" s="22">
+        <v>13353.924800000001</v>
+      </c>
+      <c r="AD3" s="22">
         <f t="shared" si="0"/>
-        <v>16092.299200500005</v>
-      </c>
-      <c r="AD3" s="2">
-        <f t="shared" si="0"/>
-        <v>19552.143528607507</v>
+        <v>16291.788256</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" si="0"/>
-        <v>23755.854387258121</v>
+        <v>19875.981672319998</v>
       </c>
       <c r="AF3" s="2">
         <f t="shared" si="0"/>
-        <v>28863.363080518619</v>
+        <v>24248.697640230399</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>35068.986142830123</v>
+        <v>29583.411121081088</v>
       </c>
       <c r="AH3" s="2">
-        <f t="shared" ref="AH3:BM3" si="1">AG3*(1+$W$33)</f>
-        <v>35419.676004258421</v>
+        <f t="shared" si="0"/>
+        <v>36091.761567718924</v>
       </c>
       <c r="AI3" s="2">
-        <f t="shared" si="1"/>
-        <v>35773.872764301006</v>
+        <f t="shared" ref="AI3:BN3" si="1">AH3*(1+$X$33)</f>
+        <v>36452.679183396111</v>
       </c>
       <c r="AJ3" s="2">
         <f t="shared" si="1"/>
-        <v>36131.611491944015</v>
+        <v>36817.20597523007</v>
       </c>
       <c r="AK3" s="2">
         <f t="shared" si="1"/>
-        <v>36492.927606863457</v>
+        <v>37185.378034982372</v>
       </c>
       <c r="AL3" s="2">
         <f t="shared" si="1"/>
-        <v>36857.856882932094</v>
+        <v>37557.231815332198</v>
       </c>
       <c r="AM3" s="2">
         <f t="shared" si="1"/>
-        <v>37226.435451761412</v>
+        <v>37932.804133485522</v>
       </c>
       <c r="AN3" s="2">
         <f t="shared" si="1"/>
-        <v>37598.69980627903</v>
+        <v>38312.132174820377</v>
       </c>
       <c r="AO3" s="2">
         <f t="shared" si="1"/>
-        <v>37974.686804341822</v>
+        <v>38695.253496568585</v>
       </c>
       <c r="AP3" s="2">
         <f t="shared" si="1"/>
-        <v>38354.433672385239</v>
+        <v>39082.206031534268</v>
       </c>
       <c r="AQ3" s="2">
         <f t="shared" si="1"/>
-        <v>38737.978009109094</v>
+        <v>39473.028091849614</v>
       </c>
       <c r="AR3" s="2">
         <f t="shared" si="1"/>
-        <v>39125.357789200185</v>
+        <v>39867.758372768112</v>
       </c>
       <c r="AS3" s="2">
         <f t="shared" si="1"/>
-        <v>39516.611367092184</v>
+        <v>40266.435956495792</v>
       </c>
       <c r="AT3" s="2">
         <f t="shared" si="1"/>
-        <v>39911.777480763107</v>
+        <v>40669.100316060751</v>
       </c>
       <c r="AU3" s="2">
         <f t="shared" si="1"/>
-        <v>40310.895255570736</v>
+        <v>41075.79131922136</v>
       </c>
       <c r="AV3" s="2">
         <f t="shared" si="1"/>
-        <v>40714.004208126447</v>
+        <v>41486.549232413578</v>
       </c>
       <c r="AW3" s="2">
         <f t="shared" si="1"/>
-        <v>41121.144250207712</v>
+        <v>41901.414724737711</v>
       </c>
       <c r="AX3" s="2">
         <f t="shared" si="1"/>
-        <v>41532.355692709789</v>
+        <v>42320.428871985088</v>
       </c>
       <c r="AY3" s="2">
         <f t="shared" si="1"/>
-        <v>41947.679249636887</v>
+        <v>42743.633160704936</v>
       </c>
       <c r="AZ3" s="2">
         <f t="shared" si="1"/>
-        <v>42367.156042133254</v>
+        <v>43171.069492311988</v>
       </c>
       <c r="BA3" s="2">
         <f t="shared" si="1"/>
-        <v>42790.827602554586</v>
+        <v>43602.780187235112</v>
       </c>
       <c r="BB3" s="2">
         <f t="shared" si="1"/>
-        <v>43218.735878580133</v>
+        <v>44038.807989107467</v>
       </c>
       <c r="BC3" s="2">
         <f t="shared" si="1"/>
-        <v>43650.923237365932</v>
+        <v>44479.196068998543</v>
       </c>
       <c r="BD3" s="2">
         <f t="shared" si="1"/>
-        <v>44087.432469739593</v>
+        <v>44923.988029688531</v>
       </c>
       <c r="BE3" s="2">
         <f t="shared" si="1"/>
-        <v>44528.30679443699</v>
+        <v>45373.22790998542</v>
       </c>
       <c r="BF3" s="2">
         <f t="shared" si="1"/>
-        <v>44973.589862381363</v>
+        <v>45826.960189085272</v>
       </c>
       <c r="BG3" s="2">
         <f t="shared" si="1"/>
-        <v>45423.325761005173</v>
+        <v>46285.229790976126</v>
       </c>
       <c r="BH3" s="2">
         <f t="shared" si="1"/>
-        <v>45877.559018615226</v>
+        <v>46748.082088885887</v>
       </c>
       <c r="BI3" s="2">
         <f t="shared" si="1"/>
-        <v>46336.334608801379</v>
+        <v>47215.562909774744</v>
       </c>
       <c r="BJ3" s="2">
         <f t="shared" si="1"/>
-        <v>46799.697954889394</v>
+        <v>47687.71853887249</v>
       </c>
       <c r="BK3" s="2">
         <f t="shared" si="1"/>
-        <v>47267.694934438288</v>
+        <v>48164.595724261213</v>
       </c>
       <c r="BL3" s="2">
         <f t="shared" si="1"/>
-        <v>47740.371883782675</v>
+        <v>48646.241681503823</v>
       </c>
       <c r="BM3" s="2">
         <f t="shared" si="1"/>
-        <v>48217.775602620502</v>
+        <v>49132.704098318864</v>
       </c>
       <c r="BN3" s="2">
-        <f t="shared" ref="BN3:CR3" si="2">BM3*(1+$W$33)</f>
-        <v>48699.953358646708</v>
+        <f t="shared" si="1"/>
+        <v>49624.031139302053</v>
       </c>
       <c r="BO3" s="2">
-        <f t="shared" si="2"/>
-        <v>49186.952892233174</v>
+        <f t="shared" ref="BO3:CS3" si="2">BN3*(1+$X$33)</f>
+        <v>50120.271450695072</v>
       </c>
       <c r="BP3" s="2">
         <f t="shared" si="2"/>
-        <v>49678.822421155506</v>
+        <v>50621.474165202024</v>
       </c>
       <c r="BQ3" s="2">
         <f t="shared" si="2"/>
-        <v>50175.610645367058</v>
+        <v>51127.688906854048</v>
       </c>
       <c r="BR3" s="2">
         <f t="shared" si="2"/>
-        <v>50677.366751820729</v>
+        <v>51638.965795922588</v>
       </c>
       <c r="BS3" s="2">
         <f t="shared" si="2"/>
-        <v>51184.140419338939</v>
+        <v>52155.355453881813</v>
       </c>
       <c r="BT3" s="2">
         <f t="shared" si="2"/>
-        <v>51695.981823532326</v>
+        <v>52676.909008420633</v>
       </c>
       <c r="BU3" s="2">
         <f t="shared" si="2"/>
-        <v>52212.941641767648</v>
+        <v>53203.678098504839</v>
       </c>
       <c r="BV3" s="2">
         <f t="shared" si="2"/>
-        <v>52735.071058185327</v>
+        <v>53735.714879489889</v>
       </c>
       <c r="BW3" s="2">
         <f t="shared" si="2"/>
-        <v>53262.421768767184</v>
+        <v>54273.072028284791</v>
       </c>
       <c r="BX3" s="2">
         <f t="shared" si="2"/>
-        <v>53795.045986454854</v>
+        <v>54815.802748567636</v>
       </c>
       <c r="BY3" s="2">
         <f t="shared" si="2"/>
-        <v>54332.996446319405</v>
+        <v>55363.960776053311</v>
       </c>
       <c r="BZ3" s="2">
         <f t="shared" si="2"/>
-        <v>54876.326410782596</v>
+        <v>55917.600383813842</v>
       </c>
       <c r="CA3" s="2">
         <f t="shared" si="2"/>
-        <v>55425.08967489042</v>
+        <v>56476.776387651982</v>
       </c>
       <c r="CB3" s="2">
         <f t="shared" si="2"/>
-        <v>55979.340571639324</v>
+        <v>57041.544151528506</v>
       </c>
       <c r="CC3" s="2">
         <f t="shared" si="2"/>
-        <v>56539.133977355719</v>
+        <v>57611.959593043794</v>
       </c>
       <c r="CD3" s="2">
         <f t="shared" si="2"/>
-        <v>57104.525317129279</v>
+        <v>58188.079188974232</v>
       </c>
       <c r="CE3" s="2">
         <f t="shared" si="2"/>
-        <v>57675.570570300573</v>
+        <v>58769.959980863976</v>
       </c>
       <c r="CF3" s="2">
         <f t="shared" si="2"/>
-        <v>58252.32627600358</v>
+        <v>59357.659580672618</v>
       </c>
       <c r="CG3" s="2">
         <f t="shared" si="2"/>
-        <v>58834.849538763614</v>
+        <v>59951.236176479346</v>
       </c>
       <c r="CH3" s="2">
         <f t="shared" si="2"/>
-        <v>59423.198034151254</v>
+        <v>60550.748538244137</v>
       </c>
       <c r="CI3" s="2">
         <f t="shared" si="2"/>
-        <v>60017.430014492769</v>
+        <v>61156.256023626578</v>
       </c>
       <c r="CJ3" s="2">
         <f t="shared" si="2"/>
-        <v>60617.604314637698</v>
+        <v>61767.818583862841</v>
       </c>
       <c r="CK3" s="2">
         <f t="shared" si="2"/>
-        <v>61223.780357784075</v>
+        <v>62385.496769701473</v>
       </c>
       <c r="CL3" s="2">
         <f t="shared" si="2"/>
-        <v>61836.018161361913</v>
+        <v>63009.351737398487</v>
       </c>
       <c r="CM3" s="2">
         <f t="shared" si="2"/>
-        <v>62454.378342975535</v>
+        <v>63639.445254772472</v>
       </c>
       <c r="CN3" s="2">
         <f t="shared" si="2"/>
-        <v>63078.92212640529</v>
+        <v>64275.8397073202</v>
       </c>
       <c r="CO3" s="2">
         <f t="shared" si="2"/>
-        <v>63709.711347669341</v>
+        <v>64918.598104393401</v>
       </c>
       <c r="CP3" s="2">
         <f t="shared" si="2"/>
-        <v>64346.808461146036</v>
+        <v>65567.784085437335</v>
       </c>
       <c r="CQ3" s="2">
         <f t="shared" si="2"/>
-        <v>64990.276545757501</v>
+        <v>66223.461926291711</v>
       </c>
       <c r="CR3" s="2">
         <f t="shared" si="2"/>
-        <v>65640.179311215077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>66885.696545554631</v>
+      </c>
+      <c r="CS3" s="2">
+        <f t="shared" si="2"/>
+        <v>67554.553511010177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1647,306 +1705,307 @@
       <c r="O4" s="2">
         <v>532</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="T4" s="27"/>
+      <c r="V4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="V4" s="2">
+      <c r="W4" s="2">
         <v>3450</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <v>4519</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <v>5896</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Z4" s="2">
         <v>7245</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AA4" s="2">
         <v>8812</v>
-      </c>
-      <c r="AA4" s="2">
-        <f>Z4*(1+0.22)</f>
-        <v>10750.64</v>
       </c>
       <c r="AB4" s="2">
         <f>AA4*(1+0.22)</f>
+        <v>10750.64</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>AB4*(1+0.22)</f>
         <v>13115.780799999999</v>
       </c>
-      <c r="AC4" s="7">
-        <f>AB4*(1+0.22)</f>
+      <c r="AD4" s="7">
+        <f>AC4*(1+0.22)</f>
         <v>16001.252575999997</v>
-      </c>
-      <c r="AD4" s="2">
-        <f>AC4*(1+0.15)</f>
-        <v>18401.440462399994</v>
       </c>
       <c r="AE4" s="2">
         <f>AD4*(1+0.15)</f>
-        <v>21161.656531759993</v>
+        <v>18401.440462399994</v>
       </c>
       <c r="AF4" s="2">
         <f>AE4*(1+0.15)</f>
-        <v>24335.905011523988</v>
+        <v>21161.656531759993</v>
       </c>
       <c r="AG4" s="2">
         <f>AF4*(1+0.15)</f>
+        <v>24335.905011523988</v>
+      </c>
+      <c r="AH4" s="2">
+        <f>AG4*(1+0.15)</f>
         <v>27986.290763252586</v>
       </c>
-      <c r="AH4" s="2">
-        <f t="shared" ref="AH4:BM4" si="3">AG4*(1+$W$33)</f>
+      <c r="AI4" s="2">
+        <f t="shared" ref="AI4:BN4" si="3">AH4*(1+$X$33)</f>
         <v>28266.153670885113</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AJ4" s="2">
         <f t="shared" si="3"/>
         <v>28548.815207593965</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AK4" s="2">
         <f t="shared" si="3"/>
         <v>28834.303359669906</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AL4" s="2">
         <f t="shared" si="3"/>
         <v>29122.646393266605</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AM4" s="2">
         <f t="shared" si="3"/>
         <v>29413.872857199272</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AN4" s="2">
         <f t="shared" si="3"/>
         <v>29708.011585771266</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AO4" s="2">
         <f t="shared" si="3"/>
         <v>30005.091701628979</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AP4" s="2">
         <f t="shared" si="3"/>
         <v>30305.14261864527</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AQ4" s="2">
         <f t="shared" si="3"/>
         <v>30608.194044831722</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AR4" s="2">
         <f t="shared" si="3"/>
         <v>30914.275985280041</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AS4" s="2">
         <f t="shared" si="3"/>
         <v>31223.41874513284</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AT4" s="2">
         <f t="shared" si="3"/>
         <v>31535.652932584169</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AU4" s="2">
         <f t="shared" si="3"/>
         <v>31851.009461910013</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AV4" s="2">
         <f t="shared" si="3"/>
         <v>32169.519556529114</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AW4" s="2">
         <f t="shared" si="3"/>
         <v>32491.214752094405</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AX4" s="2">
         <f t="shared" si="3"/>
         <v>32816.126899615352</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AY4" s="2">
         <f t="shared" si="3"/>
         <v>33144.288168611507</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AZ4" s="2">
         <f t="shared" si="3"/>
         <v>33475.731050297625</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="BA4" s="2">
         <f t="shared" si="3"/>
         <v>33810.488360800598</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BB4" s="2">
         <f t="shared" si="3"/>
         <v>34148.593244408607</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BC4" s="2">
         <f t="shared" si="3"/>
         <v>34490.079176852691</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BD4" s="2">
         <f t="shared" si="3"/>
         <v>34834.979968621221</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BE4" s="2">
         <f t="shared" si="3"/>
         <v>35183.329768307434</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BF4" s="2">
         <f t="shared" si="3"/>
         <v>35535.163065990506</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BG4" s="2">
         <f t="shared" si="3"/>
         <v>35890.514696650411</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BH4" s="2">
         <f t="shared" si="3"/>
         <v>36249.419843616917</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BI4" s="2">
         <f t="shared" si="3"/>
         <v>36611.914042053089</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BJ4" s="2">
         <f t="shared" si="3"/>
         <v>36978.03318247362</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BK4" s="2">
         <f t="shared" si="3"/>
         <v>37347.813514298359</v>
       </c>
-      <c r="BK4" s="2">
+      <c r="BL4" s="2">
         <f t="shared" si="3"/>
         <v>37721.291649441344</v>
       </c>
-      <c r="BL4" s="2">
+      <c r="BM4" s="2">
         <f t="shared" si="3"/>
         <v>38098.504565935757</v>
       </c>
-      <c r="BM4" s="2">
+      <c r="BN4" s="2">
         <f t="shared" si="3"/>
         <v>38479.489611595112</v>
       </c>
-      <c r="BN4" s="2">
-        <f t="shared" ref="BN4:CR4" si="4">BM4*(1+$W$33)</f>
+      <c r="BO4" s="2">
+        <f t="shared" ref="BO4:CS4" si="4">BN4*(1+$X$33)</f>
         <v>38864.284507711061</v>
       </c>
-      <c r="BO4" s="2">
+      <c r="BP4" s="2">
         <f t="shared" si="4"/>
         <v>39252.927352788174</v>
       </c>
-      <c r="BP4" s="2">
+      <c r="BQ4" s="2">
         <f t="shared" si="4"/>
         <v>39645.45662631606</v>
       </c>
-      <c r="BQ4" s="2">
+      <c r="BR4" s="2">
         <f t="shared" si="4"/>
         <v>40041.911192579224</v>
       </c>
-      <c r="BR4" s="2">
+      <c r="BS4" s="2">
         <f t="shared" si="4"/>
         <v>40442.33030450502</v>
       </c>
-      <c r="BS4" s="2">
+      <c r="BT4" s="2">
         <f t="shared" si="4"/>
         <v>40846.753607550068</v>
       </c>
-      <c r="BT4" s="2">
+      <c r="BU4" s="2">
         <f t="shared" si="4"/>
         <v>41255.221143625567</v>
       </c>
-      <c r="BU4" s="2">
+      <c r="BV4" s="2">
         <f t="shared" si="4"/>
         <v>41667.773355061821</v>
       </c>
-      <c r="BV4" s="2">
+      <c r="BW4" s="2">
         <f t="shared" si="4"/>
         <v>42084.451088612441</v>
       </c>
-      <c r="BW4" s="2">
+      <c r="BX4" s="2">
         <f t="shared" si="4"/>
         <v>42505.295599498568</v>
       </c>
-      <c r="BX4" s="2">
+      <c r="BY4" s="2">
         <f t="shared" si="4"/>
         <v>42930.348555493554</v>
       </c>
-      <c r="BY4" s="2">
+      <c r="BZ4" s="2">
         <f t="shared" si="4"/>
         <v>43359.652041048488</v>
       </c>
-      <c r="BZ4" s="2">
+      <c r="CA4" s="2">
         <f t="shared" si="4"/>
         <v>43793.248561458975</v>
       </c>
-      <c r="CA4" s="2">
+      <c r="CB4" s="2">
         <f t="shared" si="4"/>
         <v>44231.181047073565</v>
       </c>
-      <c r="CB4" s="2">
+      <c r="CC4" s="2">
         <f t="shared" si="4"/>
         <v>44673.492857544305</v>
       </c>
-      <c r="CC4" s="2">
+      <c r="CD4" s="2">
         <f t="shared" si="4"/>
         <v>45120.227786119751</v>
       </c>
-      <c r="CD4" s="2">
+      <c r="CE4" s="2">
         <f t="shared" si="4"/>
         <v>45571.430063980952</v>
       </c>
-      <c r="CE4" s="2">
+      <c r="CF4" s="2">
         <f t="shared" si="4"/>
         <v>46027.144364620763</v>
       </c>
-      <c r="CF4" s="2">
+      <c r="CG4" s="2">
         <f t="shared" si="4"/>
         <v>46487.415808266967</v>
       </c>
-      <c r="CG4" s="2">
+      <c r="CH4" s="2">
         <f t="shared" si="4"/>
         <v>46952.289966349636</v>
       </c>
-      <c r="CH4" s="2">
+      <c r="CI4" s="2">
         <f t="shared" si="4"/>
         <v>47421.812866013133</v>
       </c>
-      <c r="CI4" s="2">
+      <c r="CJ4" s="2">
         <f t="shared" si="4"/>
         <v>47896.030994673267</v>
       </c>
-      <c r="CJ4" s="2">
+      <c r="CK4" s="2">
         <f t="shared" si="4"/>
         <v>48374.991304620002</v>
       </c>
-      <c r="CK4" s="2">
+      <c r="CL4" s="2">
         <f t="shared" si="4"/>
         <v>48858.741217666204</v>
       </c>
-      <c r="CL4" s="2">
+      <c r="CM4" s="2">
         <f t="shared" si="4"/>
         <v>49347.328629842865</v>
       </c>
-      <c r="CM4" s="2">
+      <c r="CN4" s="2">
         <f t="shared" si="4"/>
         <v>49840.801916141296</v>
       </c>
-      <c r="CN4" s="2">
+      <c r="CO4" s="2">
         <f t="shared" si="4"/>
         <v>50339.209935302708</v>
       </c>
-      <c r="CO4" s="2">
+      <c r="CP4" s="2">
         <f t="shared" si="4"/>
         <v>50842.602034655734</v>
       </c>
-      <c r="CP4" s="2">
+      <c r="CQ4" s="2">
         <f t="shared" si="4"/>
         <v>51351.028055002294</v>
       </c>
-      <c r="CQ4" s="2">
+      <c r="CR4" s="2">
         <f t="shared" si="4"/>
         <v>51864.538335552315</v>
       </c>
-      <c r="CR4" s="2">
+      <c r="CS4" s="2">
         <f t="shared" si="4"/>
         <v>52383.183718907836</v>
       </c>
     </row>
-    <row r="5" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
@@ -1983,11 +2042,12 @@
       <c r="O5" s="2">
         <v>220</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="T5" s="27"/>
+      <c r="AE5" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2000,8 +2060,9 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T6" s="27"/>
+    </row>
+    <row r="7" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
@@ -2051,8 +2112,12 @@
         <f>1.24*O7</f>
         <v>8680</v>
       </c>
-    </row>
-    <row r="8" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="2">
+        <v>8450</v>
+      </c>
+      <c r="T7" s="27"/>
+    </row>
+    <row r="8" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
@@ -2094,8 +2159,12 @@
       <c r="P8" s="2">
         <v>14200</v>
       </c>
-    </row>
-    <row r="9" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S8" s="2">
+        <v>17700</v>
+      </c>
+      <c r="T8" s="27"/>
+    </row>
+    <row r="9" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
@@ -2132,8 +2201,9 @@
       <c r="O9" s="2">
         <v>1790</v>
       </c>
-    </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+      <c r="T9" s="27"/>
+    </row>
+    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
@@ -2170,13 +2240,14 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="13"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="3"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
-    </row>
-    <row r="11" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y10" s="13"/>
+    </row>
+    <row r="11" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2225,10 +2296,14 @@
         <v>2365</v>
       </c>
       <c r="S11" s="2">
-        <v>2515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2523</v>
+      </c>
+      <c r="T11" s="27">
+        <f>(2525+2530)/2</f>
+        <v>2527.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>120</v>
       </c>
@@ -2241,7 +2316,7 @@
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23">
-        <f t="shared" ref="K12:S12" si="5">(K11-J11)/J11</f>
+        <f t="shared" ref="K12:T12" si="5">(K11-J11)/J11</f>
         <v>7.091267235718976E-2</v>
       </c>
       <c r="L12" s="23">
@@ -2274,16 +2349,20 @@
       </c>
       <c r="S12" s="23">
         <f t="shared" si="5"/>
-        <v>6.3424947145877375E-2</v>
-      </c>
-      <c r="T12" s="23"/>
-      <c r="V12" s="2">
+        <v>6.6807610993657507E-2</v>
+      </c>
+      <c r="T12" s="28">
+        <f t="shared" si="5"/>
+        <v>1.7835909631391202E-3</v>
+      </c>
+      <c r="U12" s="35"/>
+      <c r="W12" s="2">
         <f>8600-SUM(O15:P15)</f>
         <v>4353.394166019335</v>
       </c>
-      <c r="AA12" s="13"/>
-    </row>
-    <row r="13" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB12" s="13"/>
+    </row>
+    <row r="13" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>119</v>
       </c>
@@ -2296,7 +2375,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="24">
-        <f t="shared" ref="K13:S13" si="6">(K11-G11)/G11</f>
+        <f t="shared" ref="K13:T13" si="6">(K11-G11)/G11</f>
         <v>0.26140757927300851</v>
       </c>
       <c r="L13" s="24">
@@ -2329,15 +2408,19 @@
       </c>
       <c r="S13" s="24">
         <f t="shared" si="6"/>
-        <v>0.2425889328063241</v>
-      </c>
-      <c r="T13" s="25"/>
-      <c r="AA13" s="2">
-        <f>AA11+R14*4</f>
+        <v>0.24654150197628458</v>
+      </c>
+      <c r="T13" s="29">
+        <f t="shared" si="6"/>
+        <v>0.21807228915662652</v>
+      </c>
+      <c r="U13" s="36"/>
+      <c r="AB13" s="2">
+        <f>AB11+R14*4</f>
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2383,8 +2466,16 @@
       <c r="R14" s="2">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:96" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="2">
+        <v>80</v>
+      </c>
+      <c r="T14" s="30">
+        <f>3%*T11</f>
+        <v>75.825000000000003</v>
+      </c>
+      <c r="U14" s="37"/>
+    </row>
+    <row r="15" spans="1:97" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +2503,7 @@
         <v>1722</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" ref="L15:R15" si="7">SUM(L11:L14)</f>
+        <f t="shared" ref="L15:T15" si="7">SUM(L11:L14)</f>
         <v>1752.2631708025428</v>
       </c>
       <c r="M15" s="8">
@@ -2439,307 +2530,318 @@
         <f t="shared" si="7"/>
         <v>2437.3387436434923</v>
       </c>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2">
+      <c r="S15" s="8">
+        <f t="shared" si="7"/>
+        <v>2603.3133491129702</v>
+      </c>
+      <c r="T15" s="31">
+        <f t="shared" si="7"/>
+        <v>2603.5448558801195</v>
+      </c>
+      <c r="U15" s="8"/>
+      <c r="V15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="W15" s="2">
         <v>3460.4369999999999</v>
       </c>
-      <c r="W15" s="2">
+      <c r="X15" s="2">
         <v>4519.4840000000004</v>
       </c>
-      <c r="X15" s="2">
+      <c r="Y15" s="2">
         <f>SUM(G15:J15)</f>
         <v>5896</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="Z15" s="2">
         <f>SUM(K15:N15)</f>
         <v>7245.8235891032054</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AA15" s="2">
         <f>SUM($O$15:$R$15)</f>
         <v>8972.284630464681</v>
       </c>
-      <c r="AA15" s="2">
-        <f>Z15*(1+$W$32)</f>
-        <v>10901.325826014589</v>
-      </c>
       <c r="AB15" s="2">
-        <f>AA15*(1+$W$32)</f>
-        <v>13245.110878607726</v>
-      </c>
-      <c r="AC15" s="22">
-        <f t="shared" ref="AC15" si="8">AB15*(1+$W$32)</f>
-        <v>16092.809717508388</v>
-      </c>
-      <c r="AD15" s="2">
-        <f t="shared" ref="AD15" si="9">AC15*(1+$W$32)</f>
-        <v>19552.763806772691</v>
+        <f>AA15*(1+$X$32)</f>
+        <v>10946.187249166911</v>
+      </c>
+      <c r="AC15" s="2">
+        <f>AB15*(1+$X$32)</f>
+        <v>13354.34844398363</v>
+      </c>
+      <c r="AD15" s="22">
+        <f t="shared" ref="AD15" si="8">AC15*(1+$X$32)</f>
+        <v>16292.305101660029</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" ref="AE15" si="10">AD15*(1+$W$32)</f>
-        <v>23756.608025228823</v>
+        <f t="shared" ref="AE15" si="9">AD15*(1+$X$32)</f>
+        <v>19876.612224025237</v>
       </c>
       <c r="AF15" s="2">
-        <f t="shared" ref="AF15" si="11">AE15*(1+$W$32)</f>
-        <v>28864.278750653022</v>
+        <f t="shared" ref="AF15" si="10">AE15*(1+$X$32)</f>
+        <v>24249.466913310789</v>
       </c>
       <c r="AG15" s="2">
-        <f t="shared" ref="AG15:AI15" si="12">AF15*(1+$W$32)</f>
-        <v>35070.098682043426</v>
+        <f t="shared" ref="AG15" si="11">AF15*(1+$X$32)</f>
+        <v>29584.349634239163</v>
       </c>
       <c r="AH15" s="2">
-        <f t="shared" si="12"/>
-        <v>42610.169898682769</v>
+        <f t="shared" ref="AH15:AJ15" si="12">AG15*(1+$X$32)</f>
+        <v>36092.906553771776</v>
       </c>
       <c r="AI15" s="2">
         <f t="shared" si="12"/>
-        <v>51771.356426899569</v>
-      </c>
-      <c r="AJ15" s="7">
-        <f t="shared" ref="AJ15:BO15" si="13">AI15*(1+$W$33)</f>
-        <v>52289.069991168566</v>
+        <v>44033.345995601565</v>
+      </c>
+      <c r="AJ15" s="2">
+        <f t="shared" si="12"/>
+        <v>53720.682114633906</v>
       </c>
       <c r="AK15" s="7">
-        <f t="shared" si="13"/>
-        <v>52811.960691080254</v>
+        <f t="shared" ref="AK15:BP15" si="13">AJ15*(1+$X$33)</f>
+        <v>54257.888935780247</v>
       </c>
       <c r="AL15" s="7">
         <f t="shared" si="13"/>
-        <v>53340.080297991059</v>
+        <v>54800.467825138054</v>
       </c>
       <c r="AM15" s="7">
         <f t="shared" si="13"/>
-        <v>53873.481100970967</v>
+        <v>55348.472503389436</v>
       </c>
       <c r="AN15" s="7">
         <f t="shared" si="13"/>
-        <v>54412.215911980675</v>
+        <v>55901.957228423329</v>
       </c>
       <c r="AO15" s="7">
         <f t="shared" si="13"/>
-        <v>54956.338071100479</v>
+        <v>56460.976800707562</v>
       </c>
       <c r="AP15" s="7">
         <f t="shared" si="13"/>
-        <v>55505.901451811485</v>
+        <v>57025.586568714636</v>
       </c>
       <c r="AQ15" s="7">
         <f t="shared" si="13"/>
-        <v>56060.960466329598</v>
+        <v>57595.842434401784</v>
       </c>
       <c r="AR15" s="7">
         <f t="shared" si="13"/>
-        <v>56621.570070992893</v>
+        <v>58171.800858745803</v>
       </c>
       <c r="AS15" s="7">
         <f t="shared" si="13"/>
-        <v>57187.785771702824</v>
+        <v>58753.51886733326</v>
       </c>
       <c r="AT15" s="7">
         <f t="shared" si="13"/>
-        <v>57759.663629419854</v>
+        <v>59341.054056006593</v>
       </c>
       <c r="AU15" s="7">
         <f t="shared" si="13"/>
-        <v>58337.260265714052</v>
+        <v>59934.464596566657</v>
       </c>
       <c r="AV15" s="7">
         <f t="shared" si="13"/>
-        <v>58920.632868371191</v>
+        <v>60533.809242532327</v>
       </c>
       <c r="AW15" s="7">
         <f t="shared" si="13"/>
-        <v>59509.839197054906</v>
+        <v>61139.147334957648</v>
       </c>
       <c r="AX15" s="7">
         <f t="shared" si="13"/>
-        <v>60104.937589025452</v>
+        <v>61750.538808307225</v>
       </c>
       <c r="AY15" s="7">
         <f t="shared" si="13"/>
-        <v>60705.986964915704</v>
+        <v>62368.044196390299</v>
       </c>
       <c r="AZ15" s="7">
         <f t="shared" si="13"/>
-        <v>61313.046834564862</v>
+        <v>62991.724638354201</v>
       </c>
       <c r="BA15" s="7">
         <f t="shared" si="13"/>
-        <v>61926.17730291051</v>
+        <v>63621.641884737743</v>
       </c>
       <c r="BB15" s="7">
         <f t="shared" si="13"/>
-        <v>62545.439075939612</v>
+        <v>64257.858303585119</v>
       </c>
       <c r="BC15" s="7">
         <f t="shared" si="13"/>
-        <v>63170.89346669901</v>
+        <v>64900.43688662097</v>
       </c>
       <c r="BD15" s="7">
         <f t="shared" si="13"/>
-        <v>63802.602401365999</v>
+        <v>65549.441255487181</v>
       </c>
       <c r="BE15" s="7">
         <f t="shared" si="13"/>
-        <v>64440.628425379662</v>
+        <v>66204.935668042061</v>
       </c>
       <c r="BF15" s="7">
         <f t="shared" si="13"/>
-        <v>65085.034709633459</v>
+        <v>66866.985024722482</v>
       </c>
       <c r="BG15" s="7">
         <f t="shared" si="13"/>
-        <v>65735.885056729792</v>
+        <v>67535.65487496971</v>
       </c>
       <c r="BH15" s="7">
         <f t="shared" si="13"/>
-        <v>66393.243907297088</v>
+        <v>68211.011423719407</v>
       </c>
       <c r="BI15" s="7">
         <f t="shared" si="13"/>
-        <v>67057.176346370063</v>
+        <v>68893.121537956598</v>
       </c>
       <c r="BJ15" s="7">
         <f t="shared" si="13"/>
-        <v>67727.748109833759</v>
+        <v>69582.05275333616</v>
       </c>
       <c r="BK15" s="7">
         <f t="shared" si="13"/>
-        <v>68405.025590932099</v>
+        <v>70277.87328086952</v>
       </c>
       <c r="BL15" s="7">
         <f t="shared" si="13"/>
-        <v>69089.075846841413</v>
+        <v>70980.65201367822</v>
       </c>
       <c r="BM15" s="7">
         <f t="shared" si="13"/>
-        <v>69779.966605309834</v>
+        <v>71690.458533815006</v>
       </c>
       <c r="BN15" s="7">
         <f t="shared" si="13"/>
-        <v>70477.76627136294</v>
+        <v>72407.36311915316</v>
       </c>
       <c r="BO15" s="7">
         <f t="shared" si="13"/>
-        <v>71182.543934076573</v>
+        <v>73131.436750344699</v>
       </c>
       <c r="BP15" s="7">
-        <f t="shared" ref="BP15:CP15" si="14">BO15*(1+$W$33)</f>
-        <v>71894.369373417343</v>
+        <f t="shared" si="13"/>
+        <v>73862.751117848151</v>
       </c>
       <c r="BQ15" s="7">
-        <f t="shared" si="14"/>
-        <v>72613.31306715151</v>
+        <f t="shared" ref="BQ15:CQ15" si="14">BP15*(1+$X$33)</f>
+        <v>74601.378629026629</v>
       </c>
       <c r="BR15" s="7">
         <f t="shared" si="14"/>
-        <v>73339.446197823025</v>
+        <v>75347.392415316892</v>
       </c>
       <c r="BS15" s="7">
         <f t="shared" si="14"/>
-        <v>74072.840659801252</v>
+        <v>76100.866339470056</v>
       </c>
       <c r="BT15" s="7">
         <f t="shared" si="14"/>
-        <v>74813.569066399272</v>
+        <v>76861.875002864763</v>
       </c>
       <c r="BU15" s="7">
         <f t="shared" si="14"/>
-        <v>75561.704757063271</v>
+        <v>77630.49375289341</v>
       </c>
       <c r="BV15" s="7">
         <f t="shared" si="14"/>
-        <v>76317.321804633903</v>
+        <v>78406.798690422351</v>
       </c>
       <c r="BW15" s="7">
         <f t="shared" si="14"/>
-        <v>77080.495022680247</v>
+        <v>79190.866677326572</v>
       </c>
       <c r="BX15" s="7">
         <f t="shared" si="14"/>
-        <v>77851.299972907043</v>
+        <v>79982.775344099835</v>
       </c>
       <c r="BY15" s="7">
         <f t="shared" si="14"/>
-        <v>78629.812972636108</v>
+        <v>80782.603097540836</v>
       </c>
       <c r="BZ15" s="7">
         <f t="shared" si="14"/>
-        <v>79416.111102362469</v>
+        <v>81590.429128516247</v>
       </c>
       <c r="CA15" s="7">
         <f t="shared" si="14"/>
-        <v>80210.272213386095</v>
+        <v>82406.333419801405</v>
       </c>
       <c r="CB15" s="7">
         <f t="shared" si="14"/>
-        <v>81012.374935519954</v>
+        <v>83230.396753999419</v>
       </c>
       <c r="CC15" s="7">
         <f t="shared" si="14"/>
-        <v>81822.498684875158</v>
+        <v>84062.700721539411</v>
       </c>
       <c r="CD15" s="7">
         <f t="shared" si="14"/>
-        <v>82640.723671723914</v>
+        <v>84903.327728754812</v>
       </c>
       <c r="CE15" s="7">
         <f t="shared" si="14"/>
-        <v>83467.130908441148</v>
+        <v>85752.361006042367</v>
       </c>
       <c r="CF15" s="7">
         <f t="shared" si="14"/>
-        <v>84301.802217525561</v>
+        <v>86609.88461610279</v>
       </c>
       <c r="CG15" s="7">
         <f t="shared" si="14"/>
-        <v>85144.820239700814</v>
+        <v>87475.983462263815</v>
       </c>
       <c r="CH15" s="7">
         <f t="shared" si="14"/>
-        <v>85996.268442097818</v>
+        <v>88350.74329688646</v>
       </c>
       <c r="CI15" s="7">
         <f t="shared" si="14"/>
-        <v>86856.231126518804</v>
+        <v>89234.250729855325</v>
       </c>
       <c r="CJ15" s="7">
         <f t="shared" si="14"/>
-        <v>87724.793437783999</v>
+        <v>90126.59323715388</v>
       </c>
       <c r="CK15" s="7">
         <f t="shared" si="14"/>
-        <v>88602.041372161839</v>
+        <v>91027.859169525414</v>
       </c>
       <c r="CL15" s="7">
         <f t="shared" si="14"/>
-        <v>89488.061785883459</v>
+        <v>91938.137761220671</v>
       </c>
       <c r="CM15" s="7">
         <f t="shared" si="14"/>
-        <v>90382.942403742301</v>
+        <v>92857.519138832882</v>
       </c>
       <c r="CN15" s="7">
         <f t="shared" si="14"/>
-        <v>91286.771827779725</v>
+        <v>93786.094330221211</v>
       </c>
       <c r="CO15" s="7">
         <f t="shared" si="14"/>
-        <v>92199.63954605753</v>
+        <v>94723.955273523417</v>
       </c>
       <c r="CP15" s="7">
         <f t="shared" si="14"/>
-        <v>93121.635941518107</v>
+        <v>95671.194826258652</v>
       </c>
       <c r="CQ15" s="7">
-        <f t="shared" ref="CQ15:CR15" si="15">CP15*(1+$W$33)</f>
-        <v>94052.852300933286</v>
+        <f t="shared" si="14"/>
+        <v>96627.906774521238</v>
       </c>
       <c r="CR15" s="7">
+        <f t="shared" ref="CR15:CS15" si="15">CQ15*(1+$X$33)</f>
+        <v>97594.185842266452</v>
+      </c>
+      <c r="CS15" s="7">
         <f t="shared" si="15"/>
-        <v>94993.380823942614</v>
-      </c>
-    </row>
-    <row r="16" spans="1:96" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>98570.127700689118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2788,15 +2890,22 @@
         <f>1921-SUM(O16:Q16)</f>
         <v>515.72329453076964</v>
       </c>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
+      <c r="S16" s="2">
+        <f>520</f>
+        <v>520</v>
+      </c>
+      <c r="T16" s="27"/>
+      <c r="V16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB16" s="2">
+        <f>1.03*$AB$17</f>
+        <v>10884.525</v>
+      </c>
       <c r="AC16" s="13"/>
-    </row>
-    <row r="17" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD16" s="13"/>
+    </row>
+    <row r="17" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2851,10 +2960,24 @@
         <f>R15-R16</f>
         <v>1921.6154491127227</v>
       </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="5">
+        <f>S15-S16</f>
+        <v>2083.3133491129702</v>
+      </c>
+      <c r="T17" s="32"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AB17" s="2">
+        <f>(10560+10575)/2</f>
+        <v>10567.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
@@ -2901,8 +3024,12 @@
         <f>3301-SUM(O18:Q18)</f>
         <v>847</v>
       </c>
-    </row>
-    <row r="19" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="2">
+        <v>923</v>
+      </c>
+      <c r="T18" s="27"/>
+    </row>
+    <row r="19" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2949,8 +3076,12 @@
         <f>2124-SUM(O19:Q19)</f>
         <v>562</v>
       </c>
-    </row>
-    <row r="20" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S19" s="2">
+        <v>606</v>
+      </c>
+      <c r="T19" s="27"/>
+    </row>
+    <row r="20" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
@@ -2997,8 +3128,12 @@
         <f>863-SUM(O20:Q20)</f>
         <v>242</v>
       </c>
-    </row>
-    <row r="21" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S20" s="2">
+        <v>222</v>
+      </c>
+      <c r="T20" s="27"/>
+    </row>
+    <row r="21" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -3007,7 +3142,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
-        <f t="shared" ref="G21:R21" si="16">SUM(G18:G20)</f>
+        <f t="shared" ref="G21:S21" si="16">SUM(G18:G20)</f>
         <v>964</v>
       </c>
       <c r="H21" s="5">
@@ -3054,10 +3189,14 @@
         <f t="shared" si="16"/>
         <v>1651</v>
       </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S21" s="5">
+        <f t="shared" si="16"/>
+        <v>1751</v>
+      </c>
+      <c r="T21" s="32"/>
+      <c r="U21" s="5"/>
+    </row>
+    <row r="22" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
@@ -3066,7 +3205,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:R22" si="17">G17-G21</f>
+        <f t="shared" ref="G22:S22" si="17">G17-G21</f>
         <v>97</v>
       </c>
       <c r="H22" s="5">
@@ -3113,10 +3252,14 @@
         <f t="shared" si="17"/>
         <v>270.61544911272267</v>
       </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S22" s="5">
+        <f t="shared" si="17"/>
+        <v>332.31334911297017</v>
+      </c>
+      <c r="T22" s="32"/>
+      <c r="U22" s="5"/>
+    </row>
+    <row r="23" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
@@ -3168,11 +3311,16 @@
         <v>68</v>
       </c>
       <c r="R23" s="2">
-        <f>302-56-SUM(O23:Q23)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>302+56-SUM(O23:Q23)</f>
+        <v>172</v>
+      </c>
+      <c r="S23" s="2">
+        <f>101-8</f>
+        <v>93</v>
+      </c>
+      <c r="T23" s="27"/>
+    </row>
+    <row r="24" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -3181,7 +3329,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
-        <f t="shared" ref="G24:R24" si="18">G22+G23</f>
+        <f t="shared" ref="G24:S24" si="18">G22+G23</f>
         <v>99</v>
       </c>
       <c r="H24" s="5">
@@ -3226,12 +3374,16 @@
       </c>
       <c r="R24" s="5">
         <f t="shared" si="18"/>
-        <v>330.61544911272267</v>
-      </c>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-    </row>
-    <row r="25" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>442.61544911272267</v>
+      </c>
+      <c r="S24" s="5">
+        <f t="shared" si="18"/>
+        <v>425.31334911297017</v>
+      </c>
+      <c r="T24" s="32"/>
+      <c r="U24" s="5"/>
+    </row>
+    <row r="25" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
@@ -3279,8 +3431,12 @@
         <f>-723-SUM(O25:Q25)</f>
         <v>-847</v>
       </c>
-    </row>
-    <row r="26" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S25" s="2">
+        <v>78</v>
+      </c>
+      <c r="T25" s="27"/>
+    </row>
+    <row r="26" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -3289,7 +3445,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:R26" si="19">+G24-G25</f>
+        <f t="shared" ref="G26:S26" si="19">+G24-G25</f>
         <v>82</v>
       </c>
       <c r="H26" s="5">
@@ -3333,18 +3489,22 @@
         <v>242.34005284052409</v>
       </c>
       <c r="R26" s="5">
+        <f>(+R24-R25)-SUM(O26:Q26)</f>
+        <v>734.94626776076393</v>
+      </c>
+      <c r="S26" s="5">
         <f t="shared" si="19"/>
-        <v>1177.6154491127227</v>
-      </c>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-    </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.2">
+        <v>347.31334911297017</v>
+      </c>
+      <c r="T26" s="32"/>
+      <c r="U26" s="5"/>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:R27" si="20">G26/G28</f>
+        <f t="shared" ref="G27:S27" si="20">G26/G28</f>
         <v>0.40540273300769275</v>
       </c>
       <c r="H27" s="4">
@@ -3389,12 +3549,16 @@
       </c>
       <c r="R27" s="4">
         <f t="shared" si="20"/>
-        <v>5.7279523379560517</v>
-      </c>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-    </row>
-    <row r="28" spans="2:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3.5747978645016754</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="20"/>
+        <v>1.6942114590876594</v>
+      </c>
+      <c r="T27" s="33"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
@@ -3438,8 +3602,12 @@
       <c r="R28" s="2">
         <v>205.59100000000001</v>
       </c>
-    </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="S28" s="2">
+        <v>205</v>
+      </c>
+      <c r="T28" s="27"/>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
@@ -3478,54 +3646,58 @@
         <f t="shared" si="21"/>
         <v>0.2561730384118952</v>
       </c>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="W30" s="13">
-        <f>(W3-V3)/V3</f>
-        <v>0.30985507246376809</v>
-      </c>
+      <c r="S30" s="9">
+        <f>S15/O15-1</f>
+        <v>0.2418438086396939</v>
+      </c>
+      <c r="T30" s="34">
+        <f>T15/P15-1</f>
+        <v>0.21079526614319044</v>
+      </c>
+      <c r="U30" s="9"/>
       <c r="X30" s="13">
         <f>(X3-W3)/W3</f>
-        <v>0.30471343217526003</v>
+        <v>0.30985507246376809</v>
       </c>
       <c r="Y30" s="13">
         <f>(Y3-X3)/X3</f>
+        <v>0.30471343217526003</v>
+      </c>
+      <c r="Z30" s="13">
+        <f>(Z3-Y3)/Y3</f>
         <v>0.22879918588873813</v>
       </c>
-      <c r="Z30" s="13">
-        <f>(Z15-Y15)/Y15</f>
+      <c r="AA30" s="13">
+        <f>(AA15-Z15)/Z15</f>
         <v>0.23826981434627428</v>
       </c>
-      <c r="AA30" s="12">
-        <f t="shared" ref="AA30:AG30" si="22">$W$32</f>
-        <v>0.215</v>
-      </c>
       <c r="AB30" s="12">
-        <f t="shared" si="22"/>
-        <v>0.215</v>
+        <f t="shared" ref="AB30:AH30" si="22">$X$32</f>
+        <v>0.22</v>
       </c>
       <c r="AC30" s="12">
         <f t="shared" si="22"/>
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="AD30" s="12">
         <f t="shared" si="22"/>
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="AE30" s="12">
         <f t="shared" si="22"/>
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="AF30" s="12">
         <f t="shared" si="22"/>
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="AG30" s="12">
         <f t="shared" si="22"/>
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="AH30" s="12">
-        <v>0.01</v>
+        <f t="shared" si="22"/>
+        <v>0.22</v>
       </c>
       <c r="AI30" s="12">
         <v>0.01</v>
@@ -3536,20 +3708,23 @@
       <c r="AK30" s="12">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="AL30" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="V32" s="14" t="s">
+      <c r="W32" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="W32" s="15">
-        <v>0.215</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X32" s="15">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -3557,28 +3732,28 @@
         <f>2252+1762+1484</f>
         <v>5498</v>
       </c>
-      <c r="V33" s="14" t="s">
+      <c r="W33" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="W33" s="15">
+      <c r="X33" s="15">
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="K34" s="5">
         <v>824</v>
       </c>
-      <c r="V34" s="14" t="s">
+      <c r="W34" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="W34" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X34" s="15">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>35</v>
       </c>
@@ -3587,76 +3762,76 @@
         <v>977</v>
       </c>
       <c r="M35" s="5"/>
-      <c r="V35" s="14" t="s">
+      <c r="W35" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="W35" s="16">
-        <f>NPV($W$34,V3:CR3)</f>
-        <v>205837.32430792676</v>
-      </c>
       <c r="X35" s="16">
-        <f>NPV($W$34,V4:CS4)</f>
-        <v>175003.74226940193</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+        <f>NPV($X$34,W3:CS3)</f>
+        <v>180474.82078316464</v>
+      </c>
+      <c r="Y35" s="16">
+        <f>NPV($X$34,W4:CT4)</f>
+        <v>151049.94778336005</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="K36" s="5">
         <v>282</v>
       </c>
-      <c r="V36" s="14" t="s">
+      <c r="W36" s="14" t="s">
         <v>1</v>
-      </c>
-      <c r="W36" s="17">
-        <f>Main!$L$3</f>
-        <v>206</v>
       </c>
       <c r="X36" s="17">
         <f>Main!$L$3</f>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="Y36" s="17">
+        <f>Main!$L$3</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="K37" s="5">
         <v>798</v>
       </c>
-      <c r="V37" s="14" t="s">
+      <c r="W37" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="W37" s="19">
-        <f>W35/W36</f>
-        <v>999.21031217440168</v>
       </c>
       <c r="X37" s="19">
         <f>X35/X36</f>
-        <v>849.5327294631162</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+        <v>880.36497943007146</v>
+      </c>
+      <c r="Y37" s="19">
+        <f>Y35/Y36</f>
+        <v>736.82901357736614</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="K38" s="5">
         <v>583</v>
       </c>
-      <c r="V38" s="14" t="s">
+      <c r="W38" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="W38" s="20">
-        <f>(W37-Main!$L$2)/Main!$L$2</f>
-        <v>0.29599262279429528</v>
       </c>
       <c r="X38" s="20">
         <f>(X37-Main!$L$2)/Main!$L$2</f>
-        <v>0.10185827427122723</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0.36279408580506417</v>
+      </c>
+      <c r="Y38" s="20">
+        <f>(Y37-Main!$L$2)/Main!$L$2</f>
+        <v>0.14060218820025719</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>40</v>
       </c>
@@ -3664,19 +3839,19 @@
         <f>266+774</f>
         <v>1040</v>
       </c>
-      <c r="V39" s="14" t="s">
+      <c r="W39" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="W39" s="18">
-        <f>W36*W37</f>
-        <v>205837.32430792676</v>
       </c>
       <c r="X39" s="18">
         <f>X36*X37</f>
-        <v>175003.74226940193</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+        <v>180474.82078316464</v>
+      </c>
+      <c r="Y39" s="18">
+        <f>Y36*Y37</f>
+        <v>151049.94778336005</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -3684,24 +3859,24 @@
         <v>686</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="5">
         <v>305</v>
       </c>
-      <c r="V41" s="1"/>
-      <c r="W41" s="13">
-        <f>(W37-679)/679</f>
-        <v>0.47159103413019393</v>
-      </c>
-      <c r="X41">
-        <f>V41*(1+W41)</f>
+      <c r="W41" s="1"/>
+      <c r="X41" s="13">
+        <f>(X37-679)/679</f>
+        <v>0.29656108899863248</v>
+      </c>
+      <c r="Y41">
+        <f>W41*(1+X41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>36</v>
       </c>
@@ -3709,12 +3884,12 @@
         <f>SUM(K33:K41)</f>
         <v>10993</v>
       </c>
-      <c r="X42" s="1">
-        <f>X41-V41</f>
+      <c r="Y42" s="1">
+        <f>Y41-W41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>44</v>
       </c>
@@ -3722,7 +3897,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>45</v>
       </c>
@@ -3730,7 +3905,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>46</v>
       </c>
@@ -3739,7 +3914,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>39</v>
       </c>
@@ -3748,7 +3923,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -3757,7 +3932,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>47</v>
       </c>
@@ -3765,7 +3940,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>43</v>
       </c>
@@ -3773,7 +3948,7 @@
         <v>3997</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>42</v>
       </c>
@@ -3782,7 +3957,7 @@
         <v>10993</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>49</v>
       </c>
@@ -3791,7 +3966,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>50</v>
       </c>
@@ -3799,7 +3974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>51</v>
       </c>
@@ -3807,7 +3982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>52</v>
       </c>
@@ -3815,7 +3990,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>53</v>
       </c>
@@ -3823,7 +3998,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>31</v>
       </c>
@@ -3831,7 +4006,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>41</v>
       </c>
@@ -3839,7 +4014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>54</v>
       </c>
@@ -3848,7 +4023,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>55</v>
       </c>
@@ -3857,7 +4032,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>56</v>
       </c>
@@ -3865,7 +4040,7 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>57</v>
       </c>
@@ -3874,7 +4049,7 @@
         <v>-187</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>58</v>
       </c>
@@ -3883,7 +4058,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>59</v>
       </c>
@@ -3891,7 +4066,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>60</v>
       </c>
@@ -3899,7 +4074,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>31</v>
       </c>
@@ -3907,7 +4082,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>61</v>
       </c>
@@ -3916,7 +4091,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>62</v>
       </c>
@@ -3924,7 +4099,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>63</v>
       </c>

--- a/NOW.xlsx
+++ b/NOW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Documents\GitHub\martinshkreli-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD1F8EA-B0B3-4E19-B439-A2D6F3CF8FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED79FDE4-DAA3-4AC5-8821-7EA973E23EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
+    <workbookView xWindow="12345" yWindow="0" windowWidth="28050" windowHeight="20880" activeTab="1" xr2:uid="{04F796B3-9D76-4BC0-BCDC-4708D1ACB929}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="131">
   <si>
     <t>Price</t>
   </si>
@@ -435,18 +435,31 @@
   </si>
   <si>
     <t>Estimated Rev</t>
+  </si>
+  <si>
+    <t>Risk Free Rate</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Eqty Risk Prem</t>
+  </si>
+  <si>
+    <t>Not much upside…especially if discount rate is in the ballpark 8.5 - 9.9445% and growth rate is 19-20%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -540,7 +553,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -613,6 +626,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1003,12 +1022,12 @@
   <dimension ref="B2:M24"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M3" sqref="M3:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>64</v>
       </c>
@@ -1016,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1008.29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>65</v>
       </c>
@@ -1027,13 +1046,11 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>205</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+        <v>208.423</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>66</v>
       </c>
@@ -1042,10 +1059,10 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>132430</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <v>210150.82666999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>67</v>
       </c>
@@ -1055,42 +1072,38 @@
       <c r="L5" s="2">
         <v>4880</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="2">
         <v>2280</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>129830</v>
+        <v>207550.82666999998</v>
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>75</v>
       </c>
@@ -1098,72 +1111,72 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>89</v>
       </c>
@@ -1175,35 +1188,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143D2949-B187-4CCE-8902-FF8193720176}">
-  <dimension ref="A1:CS73"/>
+  <dimension ref="A1:CW73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X35" sqref="X35"/>
+      <selection pane="bottomRight" activeCell="AK35" sqref="AK35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.109375" style="3"/>
-    <col min="11" max="13" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="11.109375" customWidth="1"/>
-    <col min="20" max="20" width="11.109375" style="25" customWidth="1"/>
-    <col min="21" max="21" width="11.109375" customWidth="1"/>
-    <col min="22" max="22" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.140625" style="3"/>
+    <col min="11" max="13" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="25" customWidth="1"/>
+    <col min="24" max="25" width="11.140625" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1234,8 +1247,20 @@
       <c r="S1" s="21">
         <v>45382</v>
       </c>
-    </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="T1" s="21">
+        <v>45473</v>
+      </c>
+      <c r="U1" s="21">
+        <v>45565</v>
+      </c>
+      <c r="V1" s="21">
+        <v>45657</v>
+      </c>
+      <c r="W1" s="39">
+        <v>45747</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1287,51 +1312,55 @@
       <c r="S2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="3" t="s">
         <v>123</v>
       </c>
       <c r="U2" s="3"/>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="3"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
@@ -1368,307 +1397,307 @@
       <c r="O3" s="2">
         <v>1344</v>
       </c>
-      <c r="T3" s="27"/>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="27"/>
+      <c r="Z3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="W3" s="2">
+      <c r="AA3" s="2">
         <v>3450</v>
       </c>
-      <c r="X3" s="2">
+      <c r="AB3" s="2">
         <v>4519</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AC3" s="2">
         <v>5896</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="AD3" s="2">
         <v>7245</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AE3" s="2">
         <v>8972</v>
       </c>
-      <c r="AB3" s="2">
-        <f t="shared" ref="AB3:AH3" si="0">AA3*(1+$X$32)</f>
-        <v>10945.84</v>
-      </c>
-      <c r="AC3" s="2">
-        <f t="shared" si="0"/>
-        <v>13353.924800000001</v>
-      </c>
-      <c r="AD3" s="22">
-        <f t="shared" si="0"/>
-        <v>16291.788256</v>
-      </c>
-      <c r="AE3" s="2">
-        <f t="shared" si="0"/>
-        <v>19875.981672319998</v>
-      </c>
       <c r="AF3" s="2">
-        <f t="shared" si="0"/>
-        <v>24248.697640230399</v>
+        <f t="shared" ref="AF3:AL3" si="0">AE3*(1+$AB$32)</f>
+        <v>10676.68</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" si="0"/>
-        <v>29583.411121081088</v>
-      </c>
-      <c r="AH3" s="2">
+        <v>12705.2492</v>
+      </c>
+      <c r="AH3" s="22">
         <f t="shared" si="0"/>
-        <v>36091.761567718924</v>
+        <v>15119.246547999999</v>
       </c>
       <c r="AI3" s="2">
-        <f t="shared" ref="AI3:BN3" si="1">AH3*(1+$X$33)</f>
-        <v>36452.679183396111</v>
+        <f t="shared" si="0"/>
+        <v>17991.903392119999</v>
       </c>
       <c r="AJ3" s="2">
-        <f t="shared" si="1"/>
-        <v>36817.20597523007</v>
+        <f t="shared" si="0"/>
+        <v>21410.365036622799</v>
       </c>
       <c r="AK3" s="2">
-        <f t="shared" si="1"/>
-        <v>37185.378034982372</v>
+        <f t="shared" si="0"/>
+        <v>25478.334393581132</v>
       </c>
       <c r="AL3" s="2">
-        <f t="shared" si="1"/>
-        <v>37557.231815332198</v>
+        <f t="shared" si="0"/>
+        <v>30319.217928361544</v>
       </c>
       <c r="AM3" s="2">
-        <f t="shared" si="1"/>
-        <v>37932.804133485522</v>
+        <f t="shared" ref="AM3:BR3" si="1">AL3*(1+$AB$33)</f>
+        <v>30622.410107645159</v>
       </c>
       <c r="AN3" s="2">
         <f t="shared" si="1"/>
-        <v>38312.132174820377</v>
+        <v>30928.634208721611</v>
       </c>
       <c r="AO3" s="2">
         <f t="shared" si="1"/>
-        <v>38695.253496568585</v>
+        <v>31237.920550808827</v>
       </c>
       <c r="AP3" s="2">
         <f t="shared" si="1"/>
-        <v>39082.206031534268</v>
+        <v>31550.299756316916</v>
       </c>
       <c r="AQ3" s="2">
         <f t="shared" si="1"/>
-        <v>39473.028091849614</v>
+        <v>31865.802753880085</v>
       </c>
       <c r="AR3" s="2">
         <f t="shared" si="1"/>
-        <v>39867.758372768112</v>
+        <v>32184.460781418886</v>
       </c>
       <c r="AS3" s="2">
         <f t="shared" si="1"/>
-        <v>40266.435956495792</v>
+        <v>32506.305389233075</v>
       </c>
       <c r="AT3" s="2">
         <f t="shared" si="1"/>
-        <v>40669.100316060751</v>
+        <v>32831.368443125408</v>
       </c>
       <c r="AU3" s="2">
         <f t="shared" si="1"/>
-        <v>41075.79131922136</v>
+        <v>33159.682127556662</v>
       </c>
       <c r="AV3" s="2">
         <f t="shared" si="1"/>
-        <v>41486.549232413578</v>
+        <v>33491.278948832231</v>
       </c>
       <c r="AW3" s="2">
         <f t="shared" si="1"/>
-        <v>41901.414724737711</v>
+        <v>33826.191738320551</v>
       </c>
       <c r="AX3" s="2">
         <f t="shared" si="1"/>
-        <v>42320.428871985088</v>
+        <v>34164.453655703757</v>
       </c>
       <c r="AY3" s="2">
         <f t="shared" si="1"/>
-        <v>42743.633160704936</v>
+        <v>34506.098192260797</v>
       </c>
       <c r="AZ3" s="2">
         <f t="shared" si="1"/>
-        <v>43171.069492311988</v>
+        <v>34851.159174183405</v>
       </c>
       <c r="BA3" s="2">
         <f t="shared" si="1"/>
-        <v>43602.780187235112</v>
+        <v>35199.670765925242</v>
       </c>
       <c r="BB3" s="2">
         <f t="shared" si="1"/>
-        <v>44038.807989107467</v>
+        <v>35551.667473584494</v>
       </c>
       <c r="BC3" s="2">
         <f t="shared" si="1"/>
-        <v>44479.196068998543</v>
+        <v>35907.184148320339</v>
       </c>
       <c r="BD3" s="2">
         <f t="shared" si="1"/>
-        <v>44923.988029688531</v>
+        <v>36266.25598980354</v>
       </c>
       <c r="BE3" s="2">
         <f t="shared" si="1"/>
-        <v>45373.22790998542</v>
+        <v>36628.918549701579</v>
       </c>
       <c r="BF3" s="2">
         <f t="shared" si="1"/>
-        <v>45826.960189085272</v>
+        <v>36995.207735198594</v>
       </c>
       <c r="BG3" s="2">
         <f t="shared" si="1"/>
-        <v>46285.229790976126</v>
+        <v>37365.159812550577</v>
       </c>
       <c r="BH3" s="2">
         <f t="shared" si="1"/>
-        <v>46748.082088885887</v>
+        <v>37738.811410676084</v>
       </c>
       <c r="BI3" s="2">
         <f t="shared" si="1"/>
-        <v>47215.562909774744</v>
+        <v>38116.199524782845</v>
       </c>
       <c r="BJ3" s="2">
         <f t="shared" si="1"/>
-        <v>47687.71853887249</v>
+        <v>38497.361520030674</v>
       </c>
       <c r="BK3" s="2">
         <f t="shared" si="1"/>
-        <v>48164.595724261213</v>
+        <v>38882.335135230984</v>
       </c>
       <c r="BL3" s="2">
         <f t="shared" si="1"/>
-        <v>48646.241681503823</v>
+        <v>39271.158486583292</v>
       </c>
       <c r="BM3" s="2">
         <f t="shared" si="1"/>
-        <v>49132.704098318864</v>
+        <v>39663.870071449128</v>
       </c>
       <c r="BN3" s="2">
         <f t="shared" si="1"/>
-        <v>49624.031139302053</v>
+        <v>40060.508772163623</v>
       </c>
       <c r="BO3" s="2">
-        <f t="shared" ref="BO3:CS3" si="2">BN3*(1+$X$33)</f>
-        <v>50120.271450695072</v>
+        <f t="shared" si="1"/>
+        <v>40461.113859885256</v>
       </c>
       <c r="BP3" s="2">
-        <f t="shared" si="2"/>
-        <v>50621.474165202024</v>
+        <f t="shared" si="1"/>
+        <v>40865.724998484111</v>
       </c>
       <c r="BQ3" s="2">
-        <f t="shared" si="2"/>
-        <v>51127.688906854048</v>
+        <f t="shared" si="1"/>
+        <v>41274.382248468952</v>
       </c>
       <c r="BR3" s="2">
-        <f t="shared" si="2"/>
-        <v>51638.965795922588</v>
+        <f t="shared" si="1"/>
+        <v>41687.126070953644</v>
       </c>
       <c r="BS3" s="2">
-        <f t="shared" si="2"/>
-        <v>52155.355453881813</v>
+        <f t="shared" ref="BS3:CW3" si="2">BR3*(1+$AB$33)</f>
+        <v>42103.99733166318</v>
       </c>
       <c r="BT3" s="2">
         <f t="shared" si="2"/>
-        <v>52676.909008420633</v>
+        <v>42525.037304979815</v>
       </c>
       <c r="BU3" s="2">
         <f t="shared" si="2"/>
-        <v>53203.678098504839</v>
+        <v>42950.287678029614</v>
       </c>
       <c r="BV3" s="2">
         <f t="shared" si="2"/>
-        <v>53735.714879489889</v>
+        <v>43379.790554809908</v>
       </c>
       <c r="BW3" s="2">
         <f t="shared" si="2"/>
-        <v>54273.072028284791</v>
+        <v>43813.588460358005</v>
       </c>
       <c r="BX3" s="2">
         <f t="shared" si="2"/>
-        <v>54815.802748567636</v>
+        <v>44251.724344961585</v>
       </c>
       <c r="BY3" s="2">
         <f t="shared" si="2"/>
-        <v>55363.960776053311</v>
+        <v>44694.241588411205</v>
       </c>
       <c r="BZ3" s="2">
         <f t="shared" si="2"/>
-        <v>55917.600383813842</v>
+        <v>45141.184004295319</v>
       </c>
       <c r="CA3" s="2">
         <f t="shared" si="2"/>
-        <v>56476.776387651982</v>
+        <v>45592.59584433827</v>
       </c>
       <c r="CB3" s="2">
         <f t="shared" si="2"/>
-        <v>57041.544151528506</v>
+        <v>46048.521802781652</v>
       </c>
       <c r="CC3" s="2">
         <f t="shared" si="2"/>
-        <v>57611.959593043794</v>
+        <v>46509.007020809469</v>
       </c>
       <c r="CD3" s="2">
         <f t="shared" si="2"/>
-        <v>58188.079188974232</v>
+        <v>46974.097091017567</v>
       </c>
       <c r="CE3" s="2">
         <f t="shared" si="2"/>
-        <v>58769.959980863976</v>
+        <v>47443.838061927745</v>
       </c>
       <c r="CF3" s="2">
         <f t="shared" si="2"/>
-        <v>59357.659580672618</v>
+        <v>47918.276442547023</v>
       </c>
       <c r="CG3" s="2">
         <f t="shared" si="2"/>
-        <v>59951.236176479346</v>
+        <v>48397.459206972497</v>
       </c>
       <c r="CH3" s="2">
         <f t="shared" si="2"/>
-        <v>60550.748538244137</v>
+        <v>48881.433799042221</v>
       </c>
       <c r="CI3" s="2">
         <f t="shared" si="2"/>
-        <v>61156.256023626578</v>
+        <v>49370.248137032642</v>
       </c>
       <c r="CJ3" s="2">
         <f t="shared" si="2"/>
-        <v>61767.818583862841</v>
+        <v>49863.950618402967</v>
       </c>
       <c r="CK3" s="2">
         <f t="shared" si="2"/>
-        <v>62385.496769701473</v>
+        <v>50362.590124586997</v>
       </c>
       <c r="CL3" s="2">
         <f t="shared" si="2"/>
-        <v>63009.351737398487</v>
+        <v>50866.216025832866</v>
       </c>
       <c r="CM3" s="2">
         <f t="shared" si="2"/>
-        <v>63639.445254772472</v>
+        <v>51374.878186091199</v>
       </c>
       <c r="CN3" s="2">
         <f t="shared" si="2"/>
-        <v>64275.8397073202</v>
+        <v>51888.626967952114</v>
       </c>
       <c r="CO3" s="2">
         <f t="shared" si="2"/>
-        <v>64918.598104393401</v>
+        <v>52407.513237631632</v>
       </c>
       <c r="CP3" s="2">
         <f t="shared" si="2"/>
-        <v>65567.784085437335</v>
+        <v>52931.58837000795</v>
       </c>
       <c r="CQ3" s="2">
         <f t="shared" si="2"/>
-        <v>66223.461926291711</v>
+        <v>53460.904253708031</v>
       </c>
       <c r="CR3" s="2">
         <f t="shared" si="2"/>
-        <v>66885.696545554631</v>
+        <v>53995.51329624511</v>
       </c>
       <c r="CS3" s="2">
         <f t="shared" si="2"/>
-        <v>67554.553511010177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54535.468429207562</v>
+      </c>
+      <c r="CT3" s="2">
+        <f t="shared" si="2"/>
+        <v>55080.823113499639</v>
+      </c>
+      <c r="CU3" s="2">
+        <f t="shared" si="2"/>
+        <v>55631.631344634632</v>
+      </c>
+      <c r="CV3" s="2">
+        <f t="shared" si="2"/>
+        <v>56187.947658080979</v>
+      </c>
+      <c r="CW3" s="2">
+        <f t="shared" si="2"/>
+        <v>56749.827134661791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1705,307 +1734,307 @@
       <c r="O4" s="2">
         <v>532</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="27"/>
+      <c r="Z4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="W4" s="2">
+      <c r="AA4" s="2">
         <v>3450</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AB4" s="2">
         <v>4519</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AC4" s="2">
         <v>5896</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AD4" s="2">
         <v>7245</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AE4" s="2">
         <v>8812</v>
       </c>
-      <c r="AB4" s="2">
-        <f>AA4*(1+0.22)</f>
+      <c r="AF4" s="2">
+        <f>AE4*(1+0.22)</f>
         <v>10750.64</v>
       </c>
-      <c r="AC4" s="2">
-        <f>AB4*(1+0.22)</f>
+      <c r="AG4" s="2">
+        <f>AF4*(1+0.22)</f>
         <v>13115.780799999999</v>
       </c>
-      <c r="AD4" s="7">
-        <f>AC4*(1+0.22)</f>
+      <c r="AH4" s="7">
+        <f>AG4*(1+0.22)</f>
         <v>16001.252575999997</v>
       </c>
-      <c r="AE4" s="2">
-        <f>AD4*(1+0.15)</f>
+      <c r="AI4" s="2">
+        <f>AH4*(1+0.15)</f>
         <v>18401.440462399994</v>
       </c>
-      <c r="AF4" s="2">
-        <f>AE4*(1+0.15)</f>
+      <c r="AJ4" s="2">
+        <f>AI4*(1+0.15)</f>
         <v>21161.656531759993</v>
       </c>
-      <c r="AG4" s="2">
-        <f>AF4*(1+0.15)</f>
+      <c r="AK4" s="2">
+        <f>AJ4*(1+0.15)</f>
         <v>24335.905011523988</v>
       </c>
-      <c r="AH4" s="2">
-        <f>AG4*(1+0.15)</f>
+      <c r="AL4" s="2">
+        <f>AK4*(1+0.15)</f>
         <v>27986.290763252586</v>
       </c>
-      <c r="AI4" s="2">
-        <f t="shared" ref="AI4:BN4" si="3">AH4*(1+$X$33)</f>
+      <c r="AM4" s="2">
+        <f t="shared" ref="AM4:BR4" si="3">AL4*(1+$AB$33)</f>
         <v>28266.153670885113</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AN4" s="2">
         <f t="shared" si="3"/>
         <v>28548.815207593965</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AO4" s="2">
         <f t="shared" si="3"/>
         <v>28834.303359669906</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AP4" s="2">
         <f t="shared" si="3"/>
         <v>29122.646393266605</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AQ4" s="2">
         <f t="shared" si="3"/>
         <v>29413.872857199272</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AR4" s="2">
         <f t="shared" si="3"/>
         <v>29708.011585771266</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AS4" s="2">
         <f t="shared" si="3"/>
         <v>30005.091701628979</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AT4" s="2">
         <f t="shared" si="3"/>
         <v>30305.14261864527</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AU4" s="2">
         <f t="shared" si="3"/>
         <v>30608.194044831722</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AV4" s="2">
         <f t="shared" si="3"/>
         <v>30914.275985280041</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AW4" s="2">
         <f t="shared" si="3"/>
         <v>31223.41874513284</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AX4" s="2">
         <f t="shared" si="3"/>
         <v>31535.652932584169</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AY4" s="2">
         <f t="shared" si="3"/>
         <v>31851.009461910013</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AZ4" s="2">
         <f t="shared" si="3"/>
         <v>32169.519556529114</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="BA4" s="2">
         <f t="shared" si="3"/>
         <v>32491.214752094405</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="BB4" s="2">
         <f t="shared" si="3"/>
         <v>32816.126899615352</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="BC4" s="2">
         <f t="shared" si="3"/>
         <v>33144.288168611507</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="BD4" s="2">
         <f t="shared" si="3"/>
         <v>33475.731050297625</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BE4" s="2">
         <f t="shared" si="3"/>
         <v>33810.488360800598</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BF4" s="2">
         <f t="shared" si="3"/>
         <v>34148.593244408607</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BG4" s="2">
         <f t="shared" si="3"/>
         <v>34490.079176852691</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BH4" s="2">
         <f t="shared" si="3"/>
         <v>34834.979968621221</v>
       </c>
-      <c r="BE4" s="2">
+      <c r="BI4" s="2">
         <f t="shared" si="3"/>
         <v>35183.329768307434</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BJ4" s="2">
         <f t="shared" si="3"/>
         <v>35535.163065990506</v>
       </c>
-      <c r="BG4" s="2">
+      <c r="BK4" s="2">
         <f t="shared" si="3"/>
         <v>35890.514696650411</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BL4" s="2">
         <f t="shared" si="3"/>
         <v>36249.419843616917</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BM4" s="2">
         <f t="shared" si="3"/>
         <v>36611.914042053089</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BN4" s="2">
         <f t="shared" si="3"/>
         <v>36978.03318247362</v>
       </c>
-      <c r="BK4" s="2">
+      <c r="BO4" s="2">
         <f t="shared" si="3"/>
         <v>37347.813514298359</v>
       </c>
-      <c r="BL4" s="2">
+      <c r="BP4" s="2">
         <f t="shared" si="3"/>
         <v>37721.291649441344</v>
       </c>
-      <c r="BM4" s="2">
+      <c r="BQ4" s="2">
         <f t="shared" si="3"/>
         <v>38098.504565935757</v>
       </c>
-      <c r="BN4" s="2">
+      <c r="BR4" s="2">
         <f t="shared" si="3"/>
         <v>38479.489611595112</v>
       </c>
-      <c r="BO4" s="2">
-        <f t="shared" ref="BO4:CS4" si="4">BN4*(1+$X$33)</f>
+      <c r="BS4" s="2">
+        <f t="shared" ref="BS4:CW4" si="4">BR4*(1+$AB$33)</f>
         <v>38864.284507711061</v>
       </c>
-      <c r="BP4" s="2">
+      <c r="BT4" s="2">
         <f t="shared" si="4"/>
         <v>39252.927352788174</v>
       </c>
-      <c r="BQ4" s="2">
+      <c r="BU4" s="2">
         <f t="shared" si="4"/>
         <v>39645.45662631606</v>
       </c>
-      <c r="BR4" s="2">
+      <c r="BV4" s="2">
         <f t="shared" si="4"/>
         <v>40041.911192579224</v>
       </c>
-      <c r="BS4" s="2">
+      <c r="BW4" s="2">
         <f t="shared" si="4"/>
         <v>40442.33030450502</v>
       </c>
-      <c r="BT4" s="2">
+      <c r="BX4" s="2">
         <f t="shared" si="4"/>
         <v>40846.753607550068</v>
       </c>
-      <c r="BU4" s="2">
+      <c r="BY4" s="2">
         <f t="shared" si="4"/>
         <v>41255.221143625567</v>
       </c>
-      <c r="BV4" s="2">
+      <c r="BZ4" s="2">
         <f t="shared" si="4"/>
         <v>41667.773355061821</v>
       </c>
-      <c r="BW4" s="2">
+      <c r="CA4" s="2">
         <f t="shared" si="4"/>
         <v>42084.451088612441</v>
       </c>
-      <c r="BX4" s="2">
+      <c r="CB4" s="2">
         <f t="shared" si="4"/>
         <v>42505.295599498568</v>
       </c>
-      <c r="BY4" s="2">
+      <c r="CC4" s="2">
         <f t="shared" si="4"/>
         <v>42930.348555493554</v>
       </c>
-      <c r="BZ4" s="2">
+      <c r="CD4" s="2">
         <f t="shared" si="4"/>
         <v>43359.652041048488</v>
       </c>
-      <c r="CA4" s="2">
+      <c r="CE4" s="2">
         <f t="shared" si="4"/>
         <v>43793.248561458975</v>
       </c>
-      <c r="CB4" s="2">
+      <c r="CF4" s="2">
         <f t="shared" si="4"/>
         <v>44231.181047073565</v>
       </c>
-      <c r="CC4" s="2">
+      <c r="CG4" s="2">
         <f t="shared" si="4"/>
         <v>44673.492857544305</v>
       </c>
-      <c r="CD4" s="2">
+      <c r="CH4" s="2">
         <f t="shared" si="4"/>
         <v>45120.227786119751</v>
       </c>
-      <c r="CE4" s="2">
+      <c r="CI4" s="2">
         <f t="shared" si="4"/>
         <v>45571.430063980952</v>
       </c>
-      <c r="CF4" s="2">
+      <c r="CJ4" s="2">
         <f t="shared" si="4"/>
         <v>46027.144364620763</v>
       </c>
-      <c r="CG4" s="2">
+      <c r="CK4" s="2">
         <f t="shared" si="4"/>
         <v>46487.415808266967</v>
       </c>
-      <c r="CH4" s="2">
+      <c r="CL4" s="2">
         <f t="shared" si="4"/>
         <v>46952.289966349636</v>
       </c>
-      <c r="CI4" s="2">
+      <c r="CM4" s="2">
         <f t="shared" si="4"/>
         <v>47421.812866013133</v>
       </c>
-      <c r="CJ4" s="2">
+      <c r="CN4" s="2">
         <f t="shared" si="4"/>
         <v>47896.030994673267</v>
       </c>
-      <c r="CK4" s="2">
+      <c r="CO4" s="2">
         <f t="shared" si="4"/>
         <v>48374.991304620002</v>
       </c>
-      <c r="CL4" s="2">
+      <c r="CP4" s="2">
         <f t="shared" si="4"/>
         <v>48858.741217666204</v>
       </c>
-      <c r="CM4" s="2">
+      <c r="CQ4" s="2">
         <f t="shared" si="4"/>
         <v>49347.328629842865</v>
       </c>
-      <c r="CN4" s="2">
+      <c r="CR4" s="2">
         <f t="shared" si="4"/>
         <v>49840.801916141296</v>
       </c>
-      <c r="CO4" s="2">
+      <c r="CS4" s="2">
         <f t="shared" si="4"/>
         <v>50339.209935302708</v>
       </c>
-      <c r="CP4" s="2">
+      <c r="CT4" s="2">
         <f t="shared" si="4"/>
         <v>50842.602034655734</v>
       </c>
-      <c r="CQ4" s="2">
+      <c r="CU4" s="2">
         <f t="shared" si="4"/>
         <v>51351.028055002294</v>
       </c>
-      <c r="CR4" s="2">
+      <c r="CV4" s="2">
         <f t="shared" si="4"/>
         <v>51864.538335552315</v>
       </c>
-      <c r="CS4" s="2">
+      <c r="CW4" s="2">
         <f t="shared" si="4"/>
         <v>52383.183718907836</v>
       </c>
     </row>
-    <row r="5" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2042,12 +2071,12 @@
       <c r="O5" s="2">
         <v>220</v>
       </c>
-      <c r="T5" s="27"/>
-      <c r="AE5" s="2" t="s">
+      <c r="W5" s="27"/>
+      <c r="AI5" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -2060,9 +2089,9 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="T6" s="27"/>
-    </row>
-    <row r="7" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W6" s="27"/>
+    </row>
+    <row r="7" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
@@ -2115,9 +2144,15 @@
       <c r="S7" s="2">
         <v>8450</v>
       </c>
-      <c r="T7" s="27"/>
-    </row>
-    <row r="8" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="2">
+        <v>10027</v>
+      </c>
+      <c r="W7" s="27">
+        <f>V7*1.195</f>
+        <v>11982.265000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>90</v>
       </c>
@@ -2162,9 +2197,12 @@
       <c r="S8" s="2">
         <v>17700</v>
       </c>
-      <c r="T8" s="27"/>
-    </row>
-    <row r="9" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="2">
+        <v>22300</v>
+      </c>
+      <c r="W8" s="27"/>
+    </row>
+    <row r="9" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
@@ -2201,9 +2239,9 @@
       <c r="O9" s="2">
         <v>1790</v>
       </c>
-      <c r="T9" s="27"/>
-    </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="W9" s="27"/>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
@@ -2240,14 +2278,18 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="26"/>
+      <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-    </row>
-    <row r="11" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="3"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+    </row>
+    <row r="11" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2298,12 +2340,26 @@
       <c r="S11" s="2">
         <v>2523</v>
       </c>
-      <c r="T11" s="27">
-        <f>(2525+2530)/2</f>
-        <v>2527.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="2">
+        <v>2542</v>
+      </c>
+      <c r="U11" s="2">
+        <v>2715</v>
+      </c>
+      <c r="V11" s="2">
+        <f>10646-SUM(S11:U11)</f>
+        <v>2866</v>
+      </c>
+      <c r="W11" s="27">
+        <f>(3000+2995)/2</f>
+        <v>2997.5</v>
+      </c>
+      <c r="AG11" s="2">
+        <f>(12635+12675)/2</f>
+        <v>12655</v>
+      </c>
+    </row>
+    <row r="12" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>120</v>
       </c>
@@ -2316,7 +2372,7 @@
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23">
-        <f t="shared" ref="K12:T12" si="5">(K11-J11)/J11</f>
+        <f t="shared" ref="K12:W12" si="5">(K11-J11)/J11</f>
         <v>7.091267235718976E-2</v>
       </c>
       <c r="L12" s="23">
@@ -2351,18 +2407,31 @@
         <f t="shared" si="5"/>
         <v>6.6807610993657507E-2</v>
       </c>
-      <c r="T12" s="28">
+      <c r="T12" s="35">
         <f t="shared" si="5"/>
-        <v>1.7835909631391202E-3</v>
-      </c>
-      <c r="U12" s="35"/>
-      <c r="W12" s="2">
+        <v>7.5307173999207295E-3</v>
+      </c>
+      <c r="U12" s="35">
+        <f t="shared" si="5"/>
+        <v>6.8056648308418566E-2</v>
+      </c>
+      <c r="V12" s="35">
+        <f t="shared" si="5"/>
+        <v>5.5616942909760589E-2</v>
+      </c>
+      <c r="W12" s="28">
+        <f t="shared" si="5"/>
+        <v>4.5882763433356594E-2</v>
+      </c>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="AA12" s="2">
         <f>8600-SUM(O15:P15)</f>
         <v>4353.394166019335</v>
       </c>
-      <c r="AB12" s="13"/>
-    </row>
-    <row r="13" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF12" s="13"/>
+    </row>
+    <row r="13" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>119</v>
       </c>
@@ -2375,7 +2444,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="24">
-        <f t="shared" ref="K13:T13" si="6">(K11-G11)/G11</f>
+        <f t="shared" ref="K13:W13" si="6">(K11-G11)/G11</f>
         <v>0.26140757927300851</v>
       </c>
       <c r="L13" s="24">
@@ -2410,17 +2479,33 @@
         <f t="shared" si="6"/>
         <v>0.24654150197628458</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="36">
         <f t="shared" si="6"/>
-        <v>0.21807228915662652</v>
-      </c>
-      <c r="U13" s="36"/>
-      <c r="AB13" s="2">
-        <f>AB11+R14*4</f>
+        <v>0.22506024096385543</v>
+      </c>
+      <c r="U13" s="36">
+        <f t="shared" si="6"/>
+        <v>0.22518050541516246</v>
+      </c>
+      <c r="V13" s="36">
+        <f t="shared" si="6"/>
+        <v>0.21183932346723044</v>
+      </c>
+      <c r="W13" s="29">
+        <f t="shared" si="6"/>
+        <v>0.18806975822433611</v>
+      </c>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="AF13" s="2">
+        <f>AF11+R14*4</f>
         <v>288</v>
       </c>
-    </row>
-    <row r="14" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG13" s="1">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2469,13 +2554,22 @@
       <c r="S14" s="2">
         <v>80</v>
       </c>
-      <c r="T14" s="30">
-        <f>3%*T11</f>
-        <v>75.825000000000003</v>
-      </c>
-      <c r="U14" s="37"/>
-    </row>
-    <row r="15" spans="1:97" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="38">
+        <v>85</v>
+      </c>
+      <c r="U14" s="38">
+        <v>82</v>
+      </c>
+      <c r="V14" s="38">
+        <f>338-SUM(S14:U14)</f>
+        <v>91</v>
+      </c>
+      <c r="W14" s="30"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="AH14" s="1"/>
+    </row>
+    <row r="15" spans="1:101" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>8</v>
       </c>
@@ -2503,7 +2597,7 @@
         <v>1722</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" ref="L15:T15" si="7">SUM(L11:L14)</f>
+        <f t="shared" ref="L15:V15" si="7">SUM(L11:L14)</f>
         <v>1752.2631708025428</v>
       </c>
       <c r="M15" s="8">
@@ -2534,314 +2628,327 @@
         <f t="shared" si="7"/>
         <v>2603.3133491129702</v>
       </c>
-      <c r="T15" s="31">
+      <c r="T15" s="8">
         <f t="shared" si="7"/>
-        <v>2603.5448558801195</v>
-      </c>
-      <c r="U15" s="8"/>
-      <c r="V15" s="2" t="s">
+        <v>2627.2325909583637</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" si="7"/>
+        <v>2797.2932371537236</v>
+      </c>
+      <c r="V15" s="8">
+        <f t="shared" si="7"/>
+        <v>2957.2674562663769</v>
+      </c>
+      <c r="W15" s="31">
+        <f>W11/0.97</f>
+        <v>3090.2061855670104</v>
+      </c>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="W15" s="2">
+      <c r="AA15" s="2">
         <v>3460.4369999999999</v>
       </c>
-      <c r="X15" s="2">
+      <c r="AB15" s="2">
         <v>4519.4840000000004</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AC15" s="2">
         <f>SUM(G15:J15)</f>
         <v>5896</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="AD15" s="2">
         <f>SUM(K15:N15)</f>
         <v>7245.8235891032054</v>
       </c>
-      <c r="AA15" s="2">
+      <c r="AE15" s="2">
         <f>SUM($O$15:$R$15)</f>
         <v>8972.284630464681</v>
       </c>
-      <c r="AB15" s="2">
-        <f>AA15*(1+$X$32)</f>
-        <v>10946.187249166911</v>
-      </c>
-      <c r="AC15" s="2">
-        <f>AB15*(1+$X$32)</f>
-        <v>13354.34844398363</v>
-      </c>
-      <c r="AD15" s="22">
-        <f t="shared" ref="AD15" si="8">AC15*(1+$X$32)</f>
-        <v>16292.305101660029</v>
-      </c>
-      <c r="AE15" s="2">
-        <f t="shared" ref="AE15" si="9">AD15*(1+$X$32)</f>
-        <v>19876.612224025237</v>
-      </c>
       <c r="AF15" s="2">
-        <f t="shared" ref="AF15" si="10">AE15*(1+$X$32)</f>
-        <v>24249.466913310789</v>
+        <f>SUM(S15:V15)</f>
+        <v>10985.106633491434</v>
       </c>
       <c r="AG15" s="2">
-        <f t="shared" ref="AG15" si="11">AF15*(1+$X$32)</f>
-        <v>29584.349634239163</v>
-      </c>
-      <c r="AH15" s="2">
-        <f t="shared" ref="AH15:AJ15" si="12">AG15*(1+$X$32)</f>
-        <v>36092.906553771776</v>
+        <f>AF15*(1+$AB$32)</f>
+        <v>13072.276893854805</v>
+      </c>
+      <c r="AH15" s="22">
+        <f t="shared" ref="AH15" si="8">AG15*(1+$AB$32)</f>
+        <v>15556.009503687217</v>
       </c>
       <c r="AI15" s="2">
+        <f t="shared" ref="AI15" si="9">AH15*(1+$AB$32)</f>
+        <v>18511.651309387787</v>
+      </c>
+      <c r="AJ15" s="2">
+        <f t="shared" ref="AJ15" si="10">AI15*(1+$AB$32)</f>
+        <v>22028.865058171465</v>
+      </c>
+      <c r="AK15" s="2">
+        <f t="shared" ref="AK15" si="11">AJ15*(1+$AB$32)</f>
+        <v>26214.349419224043</v>
+      </c>
+      <c r="AL15" s="2">
+        <f t="shared" ref="AL15:AN15" si="12">AK15*(1+$AB$32)</f>
+        <v>31195.075808876609</v>
+      </c>
+      <c r="AM15" s="2">
         <f t="shared" si="12"/>
-        <v>44033.345995601565</v>
-      </c>
-      <c r="AJ15" s="2">
+        <v>37122.140212563165</v>
+      </c>
+      <c r="AN15" s="2">
         <f t="shared" si="12"/>
-        <v>53720.682114633906</v>
-      </c>
-      <c r="AK15" s="7">
-        <f t="shared" ref="AK15:BP15" si="13">AJ15*(1+$X$33)</f>
-        <v>54257.888935780247</v>
-      </c>
-      <c r="AL15" s="7">
-        <f t="shared" si="13"/>
-        <v>54800.467825138054</v>
-      </c>
-      <c r="AM15" s="7">
-        <f t="shared" si="13"/>
-        <v>55348.472503389436</v>
-      </c>
-      <c r="AN15" s="7">
-        <f t="shared" si="13"/>
-        <v>55901.957228423329</v>
+        <v>44175.346852950162</v>
       </c>
       <c r="AO15" s="7">
-        <f t="shared" si="13"/>
-        <v>56460.976800707562</v>
+        <f t="shared" ref="AO15:BT15" si="13">AN15*(1+$AB$33)</f>
+        <v>44617.100321479666</v>
       </c>
       <c r="AP15" s="7">
         <f t="shared" si="13"/>
-        <v>57025.586568714636</v>
+        <v>45063.271324694462</v>
       </c>
       <c r="AQ15" s="7">
         <f t="shared" si="13"/>
-        <v>57595.842434401784</v>
+        <v>45513.904037941407</v>
       </c>
       <c r="AR15" s="7">
         <f t="shared" si="13"/>
-        <v>58171.800858745803</v>
+        <v>45969.043078320821</v>
       </c>
       <c r="AS15" s="7">
         <f t="shared" si="13"/>
-        <v>58753.51886733326</v>
+        <v>46428.73350910403</v>
       </c>
       <c r="AT15" s="7">
         <f t="shared" si="13"/>
-        <v>59341.054056006593</v>
+        <v>46893.020844195067</v>
       </c>
       <c r="AU15" s="7">
         <f t="shared" si="13"/>
-        <v>59934.464596566657</v>
+        <v>47361.951052637021</v>
       </c>
       <c r="AV15" s="7">
         <f t="shared" si="13"/>
-        <v>60533.809242532327</v>
+        <v>47835.57056316339</v>
       </c>
       <c r="AW15" s="7">
         <f t="shared" si="13"/>
-        <v>61139.147334957648</v>
+        <v>48313.926268795025</v>
       </c>
       <c r="AX15" s="7">
         <f t="shared" si="13"/>
-        <v>61750.538808307225</v>
+        <v>48797.065531482978</v>
       </c>
       <c r="AY15" s="7">
         <f t="shared" si="13"/>
-        <v>62368.044196390299</v>
+        <v>49285.036186797806</v>
       </c>
       <c r="AZ15" s="7">
         <f t="shared" si="13"/>
-        <v>62991.724638354201</v>
+        <v>49777.886548665781</v>
       </c>
       <c r="BA15" s="7">
         <f t="shared" si="13"/>
-        <v>63621.641884737743</v>
+        <v>50275.665414152441</v>
       </c>
       <c r="BB15" s="7">
         <f t="shared" si="13"/>
-        <v>64257.858303585119</v>
+        <v>50778.422068293963</v>
       </c>
       <c r="BC15" s="7">
         <f t="shared" si="13"/>
-        <v>64900.43688662097</v>
+        <v>51286.2062889769</v>
       </c>
       <c r="BD15" s="7">
         <f t="shared" si="13"/>
-        <v>65549.441255487181</v>
+        <v>51799.06835186667</v>
       </c>
       <c r="BE15" s="7">
         <f t="shared" si="13"/>
-        <v>66204.935668042061</v>
+        <v>52317.05903538534</v>
       </c>
       <c r="BF15" s="7">
         <f t="shared" si="13"/>
-        <v>66866.985024722482</v>
+        <v>52840.229625739194</v>
       </c>
       <c r="BG15" s="7">
         <f t="shared" si="13"/>
-        <v>67535.65487496971</v>
+        <v>53368.631921996588</v>
       </c>
       <c r="BH15" s="7">
         <f t="shared" si="13"/>
-        <v>68211.011423719407</v>
+        <v>53902.318241216555</v>
       </c>
       <c r="BI15" s="7">
         <f t="shared" si="13"/>
-        <v>68893.121537956598</v>
+        <v>54441.341423628721</v>
       </c>
       <c r="BJ15" s="7">
         <f t="shared" si="13"/>
-        <v>69582.05275333616</v>
+        <v>54985.75483786501</v>
       </c>
       <c r="BK15" s="7">
         <f t="shared" si="13"/>
-        <v>70277.87328086952</v>
+        <v>55535.612386243658</v>
       </c>
       <c r="BL15" s="7">
         <f t="shared" si="13"/>
-        <v>70980.65201367822</v>
+        <v>56090.968510106097</v>
       </c>
       <c r="BM15" s="7">
         <f t="shared" si="13"/>
-        <v>71690.458533815006</v>
+        <v>56651.878195207159</v>
       </c>
       <c r="BN15" s="7">
         <f t="shared" si="13"/>
-        <v>72407.36311915316</v>
+        <v>57218.396977159231</v>
       </c>
       <c r="BO15" s="7">
         <f t="shared" si="13"/>
-        <v>73131.436750344699</v>
+        <v>57790.580946930822</v>
       </c>
       <c r="BP15" s="7">
         <f t="shared" si="13"/>
-        <v>73862.751117848151</v>
+        <v>58368.486756400132</v>
       </c>
       <c r="BQ15" s="7">
-        <f t="shared" ref="BQ15:CQ15" si="14">BP15*(1+$X$33)</f>
-        <v>74601.378629026629</v>
+        <f t="shared" si="13"/>
+        <v>58952.171623964132</v>
       </c>
       <c r="BR15" s="7">
-        <f t="shared" si="14"/>
-        <v>75347.392415316892</v>
+        <f t="shared" si="13"/>
+        <v>59541.693340203776</v>
       </c>
       <c r="BS15" s="7">
-        <f t="shared" si="14"/>
-        <v>76100.866339470056</v>
+        <f t="shared" si="13"/>
+        <v>60137.110273605816</v>
       </c>
       <c r="BT15" s="7">
-        <f t="shared" si="14"/>
-        <v>76861.875002864763</v>
+        <f t="shared" si="13"/>
+        <v>60738.481376341879</v>
       </c>
       <c r="BU15" s="7">
-        <f t="shared" si="14"/>
-        <v>77630.49375289341</v>
+        <f t="shared" ref="BU15:CU15" si="14">BT15*(1+$AB$33)</f>
+        <v>61345.866190105298</v>
       </c>
       <c r="BV15" s="7">
         <f t="shared" si="14"/>
-        <v>78406.798690422351</v>
+        <v>61959.32485200635</v>
       </c>
       <c r="BW15" s="7">
         <f t="shared" si="14"/>
-        <v>79190.866677326572</v>
+        <v>62578.918100526411</v>
       </c>
       <c r="BX15" s="7">
         <f t="shared" si="14"/>
-        <v>79982.775344099835</v>
+        <v>63204.707281531679</v>
       </c>
       <c r="BY15" s="7">
         <f t="shared" si="14"/>
-        <v>80782.603097540836</v>
+        <v>63836.754354346995</v>
       </c>
       <c r="BZ15" s="7">
         <f t="shared" si="14"/>
-        <v>81590.429128516247</v>
+        <v>64475.121897890465</v>
       </c>
       <c r="CA15" s="7">
         <f t="shared" si="14"/>
-        <v>82406.333419801405</v>
+        <v>65119.87311686937</v>
       </c>
       <c r="CB15" s="7">
         <f t="shared" si="14"/>
-        <v>83230.396753999419</v>
+        <v>65771.07184803806</v>
       </c>
       <c r="CC15" s="7">
         <f t="shared" si="14"/>
-        <v>84062.700721539411</v>
+        <v>66428.782566518435</v>
       </c>
       <c r="CD15" s="7">
         <f t="shared" si="14"/>
-        <v>84903.327728754812</v>
+        <v>67093.070392183625</v>
       </c>
       <c r="CE15" s="7">
         <f t="shared" si="14"/>
-        <v>85752.361006042367</v>
+        <v>67764.001096105465</v>
       </c>
       <c r="CF15" s="7">
         <f t="shared" si="14"/>
-        <v>86609.88461610279</v>
+        <v>68441.64110706652</v>
       </c>
       <c r="CG15" s="7">
         <f t="shared" si="14"/>
-        <v>87475.983462263815</v>
+        <v>69126.057518137182</v>
       </c>
       <c r="CH15" s="7">
         <f t="shared" si="14"/>
-        <v>88350.74329688646</v>
+        <v>69817.31809331855</v>
       </c>
       <c r="CI15" s="7">
         <f t="shared" si="14"/>
-        <v>89234.250729855325</v>
+        <v>70515.491274251734</v>
       </c>
       <c r="CJ15" s="7">
         <f t="shared" si="14"/>
-        <v>90126.59323715388</v>
+        <v>71220.646186994258</v>
       </c>
       <c r="CK15" s="7">
         <f t="shared" si="14"/>
-        <v>91027.859169525414</v>
+        <v>71932.852648864195</v>
       </c>
       <c r="CL15" s="7">
         <f t="shared" si="14"/>
-        <v>91938.137761220671</v>
+        <v>72652.181175352831</v>
       </c>
       <c r="CM15" s="7">
         <f t="shared" si="14"/>
-        <v>92857.519138832882</v>
+        <v>73378.702987106357</v>
       </c>
       <c r="CN15" s="7">
         <f t="shared" si="14"/>
-        <v>93786.094330221211</v>
+        <v>74112.490016977419</v>
       </c>
       <c r="CO15" s="7">
         <f t="shared" si="14"/>
-        <v>94723.955273523417</v>
+        <v>74853.614917147192</v>
       </c>
       <c r="CP15" s="7">
         <f t="shared" si="14"/>
-        <v>95671.194826258652</v>
+        <v>75602.151066318664</v>
       </c>
       <c r="CQ15" s="7">
         <f t="shared" si="14"/>
-        <v>96627.906774521238</v>
+        <v>76358.172576981844</v>
       </c>
       <c r="CR15" s="7">
-        <f t="shared" ref="CR15:CS15" si="15">CQ15*(1+$X$33)</f>
-        <v>97594.185842266452</v>
+        <f t="shared" si="14"/>
+        <v>77121.754302751666</v>
       </c>
       <c r="CS15" s="7">
+        <f t="shared" si="14"/>
+        <v>77892.97184577919</v>
+      </c>
+      <c r="CT15" s="7">
+        <f t="shared" si="14"/>
+        <v>78671.901564236978</v>
+      </c>
+      <c r="CU15" s="7">
+        <f t="shared" si="14"/>
+        <v>79458.620579879353</v>
+      </c>
+      <c r="CV15" s="7">
+        <f t="shared" ref="CV15:CW15" si="15">CU15*(1+$AB$33)</f>
+        <v>80253.20678567815</v>
+      </c>
+      <c r="CW15" s="7">
         <f t="shared" si="15"/>
-        <v>98570.127700689118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:97" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>81055.738853534931</v>
+      </c>
+    </row>
+    <row r="16" spans="1:101" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2894,18 +3001,28 @@
         <f>520</f>
         <v>520</v>
       </c>
-      <c r="T16" s="27"/>
-      <c r="V16" s="2" t="s">
+      <c r="T16" s="2">
+        <v>552</v>
+      </c>
+      <c r="U16" s="2">
+        <v>584</v>
+      </c>
+      <c r="V16" s="2">
+        <f>2287-SUM(S16:U16)</f>
+        <v>631</v>
+      </c>
+      <c r="W16" s="27"/>
+      <c r="Z16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AB16" s="2">
-        <f>1.03*$AB$17</f>
+      <c r="AF16" s="2">
+        <f>1.03*$AF$17</f>
         <v>10884.525</v>
       </c>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-    </row>
-    <row r="17" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+    </row>
+    <row r="17" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2953,31 +3070,44 @@
         <v>1679</v>
       </c>
       <c r="Q17" s="5">
-        <f>Q15-Q16</f>
+        <f t="shared" ref="Q17:V17" si="16">Q15-Q16</f>
         <v>1792.3400528405241</v>
       </c>
       <c r="R17" s="5">
-        <f>R15-R16</f>
+        <f t="shared" si="16"/>
         <v>1921.6154491127227</v>
       </c>
       <c r="S17" s="5">
-        <f>S15-S16</f>
+        <f t="shared" si="16"/>
         <v>2083.3133491129702</v>
       </c>
-      <c r="T17" s="32"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="2" t="s">
+      <c r="T17" s="5">
+        <f t="shared" si="16"/>
+        <v>2075.2325909583637</v>
+      </c>
+      <c r="U17" s="5">
+        <f t="shared" si="16"/>
+        <v>2213.2932371537236</v>
+      </c>
+      <c r="V17" s="5">
+        <f t="shared" si="16"/>
+        <v>2326.2674562663769</v>
+      </c>
+      <c r="W17" s="32"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AB17" s="2">
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AF17" s="2">
         <f>(10560+10575)/2</f>
         <v>10567.5</v>
       </c>
     </row>
-    <row r="18" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
@@ -3027,9 +3157,19 @@
       <c r="S18" s="2">
         <v>923</v>
       </c>
-      <c r="T18" s="27"/>
-    </row>
-    <row r="19" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="2">
+        <v>960</v>
+      </c>
+      <c r="U18" s="2">
+        <v>944</v>
+      </c>
+      <c r="V18" s="2">
+        <f>3854-SUM(S18:U18)</f>
+        <v>1027</v>
+      </c>
+      <c r="W18" s="27"/>
+    </row>
+    <row r="19" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
@@ -3079,9 +3219,19 @@
       <c r="S19" s="2">
         <v>606</v>
       </c>
-      <c r="T19" s="27"/>
-    </row>
-    <row r="20" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="2">
+        <v>643</v>
+      </c>
+      <c r="U19" s="2">
+        <v>626</v>
+      </c>
+      <c r="V19" s="2">
+        <f>2543-SUM(S19:U19)</f>
+        <v>668</v>
+      </c>
+      <c r="W19" s="27"/>
+    </row>
+    <row r="20" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
@@ -3131,9 +3281,19 @@
       <c r="S20" s="2">
         <v>222</v>
       </c>
-      <c r="T20" s="27"/>
-    </row>
-    <row r="21" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="2">
+        <v>232</v>
+      </c>
+      <c r="U20" s="2">
+        <v>225</v>
+      </c>
+      <c r="V20" s="2">
+        <f>936-SUM(S20:U20)</f>
+        <v>257</v>
+      </c>
+      <c r="W20" s="27"/>
+    </row>
+    <row r="21" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -3142,61 +3302,74 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5">
-        <f t="shared" ref="G21:S21" si="16">SUM(G18:G20)</f>
+        <f t="shared" ref="G21:U21" si="17">SUM(G18:G20)</f>
         <v>964</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1029</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1088</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1205</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1266</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1341</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1340</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1370</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1514</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1562</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1561</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1651</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1751</v>
       </c>
-      <c r="T21" s="32"/>
-      <c r="U21" s="5"/>
-    </row>
-    <row r="22" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T21" s="5">
+        <f t="shared" si="17"/>
+        <v>1835</v>
+      </c>
+      <c r="U21" s="5">
+        <f t="shared" si="17"/>
+        <v>1795</v>
+      </c>
+      <c r="V21" s="5">
+        <f>7333-SUM(S21:U21)</f>
+        <v>1952</v>
+      </c>
+      <c r="W21" s="32"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+    </row>
+    <row r="22" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
@@ -3205,61 +3378,74 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:S22" si="17">G17-G21</f>
+        <f t="shared" ref="G22:V22" si="18">G17-G21</f>
         <v>97</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>74</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>35</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>87</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>22.263170802542845</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>91.271406267038628</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>155.28901203362443</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>144.32912851143465</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>117</v>
       </c>
       <c r="Q22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>231.34005284052409</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>270.61544911272267</v>
       </c>
       <c r="S22" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>332.31334911297017</v>
       </c>
-      <c r="T22" s="32"/>
-      <c r="U22" s="5"/>
-    </row>
-    <row r="23" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="5">
+        <f t="shared" si="18"/>
+        <v>240.23259095836374</v>
+      </c>
+      <c r="U22" s="5">
+        <f t="shared" si="18"/>
+        <v>418.29323715372357</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" si="18"/>
+        <v>374.26745626637694</v>
+      </c>
+      <c r="W22" s="32"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+    </row>
+    <row r="23" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
@@ -3318,9 +3504,21 @@
         <f>101-8</f>
         <v>93</v>
       </c>
-      <c r="T23" s="27"/>
-    </row>
-    <row r="24" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="2">
+        <f>104-10</f>
+        <v>94</v>
+      </c>
+      <c r="U23" s="2">
+        <f>108-10</f>
+        <v>98</v>
+      </c>
+      <c r="V23" s="2">
+        <f>419-SUM(S23:U23)</f>
+        <v>134</v>
+      </c>
+      <c r="W23" s="27"/>
+    </row>
+    <row r="24" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -3329,61 +3527,74 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5">
-        <f t="shared" ref="G24:S24" si="18">G22+G23</f>
+        <f t="shared" ref="G24:V24" si="19">G22+G23</f>
         <v>99</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="K24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>85</v>
       </c>
       <c r="L24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.263170802542845</v>
       </c>
       <c r="M24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>102.27140626703863</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>183.28901203362443</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>188.32912851143465</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>191</v>
       </c>
       <c r="Q24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>299.34005284052409</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>442.61544911272267</v>
       </c>
       <c r="S24" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>425.31334911297017</v>
       </c>
-      <c r="T24" s="32"/>
-      <c r="U24" s="5"/>
-    </row>
-    <row r="25" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="5">
+        <f t="shared" si="19"/>
+        <v>334.23259095836374</v>
+      </c>
+      <c r="U24" s="5">
+        <f t="shared" si="19"/>
+        <v>516.29323715372357</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" si="19"/>
+        <v>508.26745626637694</v>
+      </c>
+      <c r="W24" s="32"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+    </row>
+    <row r="25" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
@@ -3434,9 +3645,21 @@
       <c r="S25" s="2">
         <v>78</v>
       </c>
-      <c r="T25" s="27"/>
-    </row>
-    <row r="26" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T25" s="2">
+        <f>72</f>
+        <v>72</v>
+      </c>
+      <c r="U25" s="2">
+        <f>84</f>
+        <v>84</v>
+      </c>
+      <c r="V25" s="2">
+        <f>313-SUM(S25:U25)</f>
+        <v>79</v>
+      </c>
+      <c r="W25" s="27"/>
+    </row>
+    <row r="26" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -3445,47 +3668,47 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5">
-        <f t="shared" ref="G26:S26" si="19">+G24-G25</f>
+        <f t="shared" ref="G26:V26" si="20">+G24-G25</f>
         <v>82</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>59</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>63</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>26</v>
       </c>
       <c r="K26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>75</v>
       </c>
       <c r="L26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20.263170802542845</v>
       </c>
       <c r="M26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>80.271406267038628</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>150.28901203362443</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>150.32912851143465</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>162</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>242.34005284052409</v>
       </c>
       <c r="R26" s="5">
@@ -3493,72 +3716,98 @@
         <v>734.94626776076393</v>
       </c>
       <c r="S26" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>347.31334911297017</v>
       </c>
-      <c r="T26" s="32"/>
-      <c r="U26" s="5"/>
-    </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="T26" s="5">
+        <f t="shared" si="20"/>
+        <v>262.23259095836374</v>
+      </c>
+      <c r="U26" s="5">
+        <f t="shared" si="20"/>
+        <v>432.29323715372357</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" si="20"/>
+        <v>429.26745626637694</v>
+      </c>
+      <c r="W26" s="32"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+    </row>
+    <row r="27" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27:S27" si="20">G26/G28</f>
+        <f t="shared" ref="G27:V27" si="21">G26/G28</f>
         <v>0.40540273300769275</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.29825847382655513</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.31015690000640006</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.12797353900978012</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.36982248520710059</v>
       </c>
       <c r="L27" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>9.9818575381984465E-2</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.39519008998103899</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.73839394715220696</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.7359586832242484</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.79024390243902443</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.1748282786763629</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.5747978645016754</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="20"/>
-        <v>1.6942114590876594</v>
-      </c>
-      <c r="T27" s="33"/>
-      <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="2:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>1.6723244036005362</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="21"/>
+        <v>1.2619530938953687</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="21"/>
+        <v>2.0728318939819497</v>
+      </c>
+      <c r="V27" s="4">
+        <f t="shared" si="21"/>
+        <v>2.0595973393837386</v>
+      </c>
+      <c r="W27" s="33"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+    </row>
+    <row r="28" spans="2:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
@@ -3603,11 +3852,22 @@
         <v>205.59100000000001</v>
       </c>
       <c r="S28" s="2">
-        <v>205</v>
-      </c>
-      <c r="T28" s="27"/>
-    </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+        <v>207.68299999999999</v>
+      </c>
+      <c r="T28" s="2">
+        <f>207.799</f>
+        <v>207.79900000000001</v>
+      </c>
+      <c r="U28" s="2">
+        <f>208.552</f>
+        <v>208.55199999999999</v>
+      </c>
+      <c r="V28" s="2">
+        <v>208.423</v>
+      </c>
+      <c r="W28" s="27"/>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
@@ -3615,116 +3875,129 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9">
-        <f t="shared" ref="K30:R30" si="21">K15/G15-1</f>
+        <f t="shared" ref="K30:R30" si="22">K15/G15-1</f>
         <v>0.26617647058823524</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.24362183875269183</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.21115833747820023</v>
       </c>
       <c r="N30" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.20141734491246099</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.21738044629003173</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.2271425555810751</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.24959088260172124</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.2561730384118952</v>
       </c>
       <c r="S30" s="9">
         <f>S15/O15-1</f>
         <v>0.2418438086396939</v>
       </c>
-      <c r="T30" s="34">
+      <c r="T30" s="9">
         <f>T15/P15-1</f>
-        <v>0.21079526614319044</v>
-      </c>
-      <c r="U30" s="9"/>
-      <c r="X30" s="13">
-        <f>(X3-W3)/W3</f>
+        <v>0.22181139956359841</v>
+      </c>
+      <c r="U30" s="9">
+        <f>U15/Q15-1</f>
+        <v>0.22241151776434376</v>
+      </c>
+      <c r="V30" s="9">
+        <f>V15/R15-1</f>
+        <v>0.21331819960555065</v>
+      </c>
+      <c r="W30" s="34">
+        <f>W15/S15-1</f>
+        <v>0.18702813344384372</v>
+      </c>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="AB30" s="13">
+        <f>(AB3-AA3)/AA3</f>
         <v>0.30985507246376809</v>
       </c>
-      <c r="Y30" s="13">
-        <f>(Y3-X3)/X3</f>
+      <c r="AC30" s="13">
+        <f>(AC3-AB3)/AB3</f>
         <v>0.30471343217526003</v>
       </c>
-      <c r="Z30" s="13">
-        <f>(Z3-Y3)/Y3</f>
+      <c r="AD30" s="13">
+        <f>(AD3-AC3)/AC3</f>
         <v>0.22879918588873813</v>
       </c>
-      <c r="AA30" s="13">
-        <f>(AA15-Z15)/Z15</f>
+      <c r="AE30" s="13">
+        <f>(AE15-AD15)/AD15</f>
         <v>0.23826981434627428</v>
       </c>
-      <c r="AB30" s="12">
-        <f t="shared" ref="AB30:AH30" si="22">$X$32</f>
-        <v>0.22</v>
-      </c>
-      <c r="AC30" s="12">
-        <f t="shared" si="22"/>
-        <v>0.22</v>
-      </c>
-      <c r="AD30" s="12">
-        <f t="shared" si="22"/>
-        <v>0.22</v>
-      </c>
-      <c r="AE30" s="12">
-        <f t="shared" si="22"/>
-        <v>0.22</v>
-      </c>
-      <c r="AF30" s="12">
-        <f t="shared" si="22"/>
-        <v>0.22</v>
+      <c r="AF30" s="13">
+        <f>(AF15-AE15)/AE15</f>
+        <v>0.22433773402510834</v>
       </c>
       <c r="AG30" s="12">
-        <f t="shared" si="22"/>
-        <v>0.22</v>
+        <f t="shared" ref="AG30:AL30" si="23">$AB$32</f>
+        <v>0.19</v>
       </c>
       <c r="AH30" s="12">
-        <f t="shared" si="22"/>
-        <v>0.22</v>
+        <f t="shared" si="23"/>
+        <v>0.19</v>
       </c>
       <c r="AI30" s="12">
+        <f t="shared" si="23"/>
+        <v>0.19</v>
+      </c>
+      <c r="AJ30" s="12">
+        <f t="shared" si="23"/>
+        <v>0.19</v>
+      </c>
+      <c r="AK30" s="12">
+        <f t="shared" si="23"/>
+        <v>0.19</v>
+      </c>
+      <c r="AL30" s="12">
+        <f t="shared" si="23"/>
+        <v>0.19</v>
+      </c>
+      <c r="AM30" s="12">
         <v>0.01</v>
       </c>
-      <c r="AJ30" s="12">
+      <c r="AN30" s="12">
         <v>0.01</v>
       </c>
-      <c r="AK30" s="12">
+      <c r="AO30" s="12">
         <v>0.01</v>
       </c>
-      <c r="AL30" s="12">
+      <c r="AP30" s="12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.2">
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="W32" s="14" t="s">
+      <c r="AA32" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="X32" s="15">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AB32" s="15">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>3</v>
       </c>
@@ -3732,28 +4005,29 @@
         <f>2252+1762+1484</f>
         <v>5498</v>
       </c>
-      <c r="W33" s="14" t="s">
+      <c r="AA33" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="X33" s="15">
+      <c r="AB33" s="15">
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="K34" s="5">
         <v>824</v>
       </c>
-      <c r="W34" s="14" t="s">
+      <c r="AA34" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="X34" s="15">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AB34" s="41">
+        <f>AB47</f>
+        <v>9.9445000000000006E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>35</v>
       </c>
@@ -3762,76 +4036,76 @@
         <v>977</v>
       </c>
       <c r="M35" s="5"/>
-      <c r="W35" s="14" t="s">
+      <c r="AA35" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="X35" s="16">
-        <f>NPV($X$34,W3:CS3)</f>
-        <v>180474.82078316464</v>
-      </c>
-      <c r="Y35" s="16">
-        <f>NPV($X$34,W4:CT4)</f>
-        <v>151049.94778336005</v>
-      </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AB35" s="16">
+        <f>NPV($AB$34,AA3:CW3)</f>
+        <v>185412.31807690172</v>
+      </c>
+      <c r="AC35" s="16">
+        <f>NPV($AB$34,AA4:CX4)</f>
+        <v>176502.29407706854</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="K36" s="5">
         <v>282</v>
       </c>
-      <c r="W36" s="14" t="s">
+      <c r="AA36" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="X36" s="17">
+      <c r="AB36" s="17">
         <f>Main!$L$3</f>
-        <v>205</v>
-      </c>
-      <c r="Y36" s="17">
+        <v>208.423</v>
+      </c>
+      <c r="AC36" s="17">
         <f>Main!$L$3</f>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+        <v>208.423</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="K37" s="5">
         <v>798</v>
       </c>
-      <c r="W37" s="14" t="s">
+      <c r="AA37" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="X37" s="19">
-        <f>X35/X36</f>
-        <v>880.36497943007146</v>
-      </c>
-      <c r="Y37" s="19">
-        <f>Y35/Y36</f>
-        <v>736.82901357736614</v>
-      </c>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AB37" s="19">
+        <f>AB35/AB36</f>
+        <v>889.59624454547588</v>
+      </c>
+      <c r="AC37" s="19">
+        <f>AC35/AC36</f>
+        <v>846.84652882392311</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="K38" s="5">
         <v>583</v>
       </c>
-      <c r="W38" s="14" t="s">
+      <c r="AA38" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="X38" s="20">
-        <f>(X37-Main!$L$2)/Main!$L$2</f>
-        <v>0.36279408580506417</v>
-      </c>
-      <c r="Y38" s="20">
-        <f>(Y37-Main!$L$2)/Main!$L$2</f>
-        <v>0.14060218820025719</v>
-      </c>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AB38" s="20">
+        <f>(AB37-Main!$L$2)/Main!$L$2</f>
+        <v>-0.11771787427676966</v>
+      </c>
+      <c r="AC38" s="20">
+        <f>(AC37-Main!$L$2)/Main!$L$2</f>
+        <v>-0.16011610863548867</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>40</v>
       </c>
@@ -3839,19 +4113,19 @@
         <f>266+774</f>
         <v>1040</v>
       </c>
-      <c r="W39" s="14" t="s">
+      <c r="AA39" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="X39" s="18">
-        <f>X36*X37</f>
-        <v>180474.82078316464</v>
-      </c>
-      <c r="Y39" s="18">
-        <f>Y36*Y37</f>
-        <v>151049.94778336005</v>
-      </c>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AB39" s="18">
+        <f>AB36*AB37</f>
+        <v>185412.31807690172</v>
+      </c>
+      <c r="AC39" s="18">
+        <f>AC36*AC37</f>
+        <v>176502.29407706854</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>31</v>
       </c>
@@ -3859,24 +4133,24 @@
         <v>686</v>
       </c>
     </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="5">
         <v>305</v>
       </c>
-      <c r="W41" s="1"/>
-      <c r="X41" s="13">
-        <f>(X37-679)/679</f>
-        <v>0.29656108899863248</v>
-      </c>
-      <c r="Y41">
-        <f>W41*(1+X41)</f>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="13">
+        <f>(AB37-679)/679</f>
+        <v>0.31015647208464786</v>
+      </c>
+      <c r="AC41">
+        <f>AA41*(1+AB41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>36</v>
       </c>
@@ -3884,28 +4158,40 @@
         <f>SUM(K33:K41)</f>
         <v>10993</v>
       </c>
-      <c r="Y42" s="1">
-        <f>Y41-W41</f>
+      <c r="AC42" s="1">
+        <f>AC41-AA41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>44</v>
       </c>
       <c r="K44" s="5">
         <v>166</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB44" s="40">
+        <v>4.4499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>45</v>
       </c>
       <c r="K45" s="5">
         <v>661</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA45" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB45">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>46</v>
       </c>
@@ -3913,8 +4199,15 @@
         <f>3850+57</f>
         <v>3907</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB46" s="12">
+        <f>10%-AB44</f>
+        <v>5.5500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>39</v>
       </c>
@@ -3922,8 +4215,15 @@
         <f>87+548</f>
         <v>635</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="AA47" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB47" s="43">
+        <f>AB46*AB45+AB44</f>
+        <v>9.9445000000000006E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>4</v>
       </c>
@@ -3932,15 +4232,18 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>47</v>
       </c>
       <c r="K49" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="AA49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>43</v>
       </c>
@@ -3948,7 +4251,7 @@
         <v>3997</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>42</v>
       </c>
@@ -3957,7 +4260,7 @@
         <v>10993</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>49</v>
       </c>
@@ -3966,7 +4269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>50</v>
       </c>
@@ -3974,7 +4277,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>51</v>
       </c>
@@ -3982,7 +4285,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>52</v>
       </c>
@@ -3990,7 +4293,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>53</v>
       </c>
@@ -3998,7 +4301,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>31</v>
       </c>
@@ -4006,7 +4309,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>41</v>
       </c>
@@ -4014,7 +4317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>54</v>
       </c>
@@ -4023,7 +4326,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>55</v>
       </c>
@@ -4032,7 +4335,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>56</v>
       </c>
@@ -4040,7 +4343,7 @@
         <v>-93</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>57</v>
       </c>
@@ -4049,7 +4352,7 @@
         <v>-187</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>58</v>
       </c>
@@ -4058,7 +4361,7 @@
         <v>-280</v>
       </c>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>59</v>
       </c>
@@ -4066,7 +4369,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>60</v>
       </c>
@@ -4074,7 +4377,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>31</v>
       </c>
@@ -4082,7 +4385,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>61</v>
       </c>
@@ -4091,7 +4394,7 @@
         <v>-51</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>62</v>
       </c>
@@ -4099,7 +4402,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>63</v>
       </c>
